--- a/carriers_source_analyses/torrified_biomass_pellets.carrier.xlsx
+++ b/carriers_source_analyses/torrified_biomass_pellets.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="320" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="34800" yWindow="-10140" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -33,8 +38,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -513,9 +521,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <t>EUR/tonne</t>
@@ -597,6 +602,11 @@
   <si>
     <t>wood</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +625,7 @@
     <numFmt numFmtId="173" formatCode="0.00000000000000"/>
     <numFmt numFmtId="174" formatCode="0.00000000000000000"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -862,11 +872,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -981,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1359,57 +1364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2096,7 +2050,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="9" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2115,19 +2069,19 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2137,25 +2091,25 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2563,80 +2517,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3320,7 +3209,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3433,7 +3322,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
@@ -3444,9 +3333,9 @@
       <sheetName val="Notes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="9">
           <cell r="G9">
@@ -3454,20 +3343,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3476,6 +3366,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3808,33 +3699,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
     <col min="4" max="4" width="2" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="22"/>
+    <col min="5" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="28" customFormat="1">
+    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>151</v>
@@ -3843,7 +3734,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3852,7 +3743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3861,17 +3752,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="74" t="s">
         <v>15</v>
@@ -3879,13 +3770,13 @@
       <c r="C9" s="75"/>
       <c r="D9" s="180"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
       <c r="D10" s="181"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="76" t="s">
         <v>16</v>
@@ -3895,7 +3786,7 @@
       </c>
       <c r="D11" s="181"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="76"/>
       <c r="C12" s="19" t="s">
@@ -3903,7 +3794,7 @@
       </c>
       <c r="D12" s="181"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="76"/>
       <c r="C13" s="79" t="s">
@@ -3911,7 +3802,7 @@
       </c>
       <c r="D13" s="181"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77" t="s">
@@ -3919,13 +3810,13 @@
       </c>
       <c r="D14" s="181"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
       <c r="D15" s="181"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="76" t="s">
         <v>21</v>
@@ -3935,7 +3826,7 @@
       </c>
       <c r="D16" s="181"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="76"/>
       <c r="C17" s="81" t="s">
@@ -3943,7 +3834,7 @@
       </c>
       <c r="D17" s="181"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="76"/>
       <c r="C18" s="82" t="s">
@@ -3951,7 +3842,7 @@
       </c>
       <c r="D18" s="181"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="76"/>
       <c r="C19" s="83" t="s">
@@ -3959,7 +3850,7 @@
       </c>
       <c r="D19" s="181"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85" t="s">
@@ -3967,7 +3858,7 @@
       </c>
       <c r="D20" s="181"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="84"/>
       <c r="C21" s="86" t="s">
@@ -3975,7 +3866,7 @@
       </c>
       <c r="D21" s="181"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="84"/>
       <c r="C22" s="87" t="s">
@@ -3983,18 +3874,18 @@
       </c>
       <c r="D22" s="181"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
       <c r="C23" s="88" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="181"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
       <c r="D24" s="181"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="182"/>
       <c r="C25" s="183"/>
       <c r="D25" s="184"/>
@@ -4002,76 +3893,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="46" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
     <col min="7" max="7" width="45" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="214" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C2" s="215"/>
       <c r="D2" s="215"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="217"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="218"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="219"/>
+    </row>
+    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="220"/>
       <c r="C4" s="221"/>
       <c r="D4" s="221"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="222"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="37"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4082,7 +3968,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="2:11" s="43" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="89"/>
       <c r="C7" s="20" t="s">
         <v>13</v>
@@ -4103,7 +3989,7 @@
       </c>
       <c r="J7" s="91"/>
     </row>
-    <row r="8" spans="2:11" s="43" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="19"/>
       <c r="D8" s="32"/>
@@ -4114,7 +4000,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="44"/>
     </row>
-    <row r="9" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
         <v>152</v>
@@ -4127,7 +4013,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="44"/>
     </row>
-    <row r="10" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="97" t="s">
         <v>37</v>
@@ -4149,7 +4035,7 @@
       </c>
       <c r="J10" s="44"/>
     </row>
-    <row r="11" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24"/>
       <c r="C11" s="104" t="s">
         <v>38</v>
@@ -4169,7 +4055,7 @@
       </c>
       <c r="J11" s="44"/>
     </row>
-    <row r="12" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="104" t="s">
         <v>149</v>
@@ -4189,7 +4075,7 @@
       </c>
       <c r="J12" s="44"/>
     </row>
-    <row r="13" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="191" t="s">
         <v>39</v>
@@ -4203,18 +4089,18 @@
       </c>
       <c r="F13" s="191"/>
       <c r="G13" s="193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="194" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="44"/>
     </row>
-    <row r="14" spans="2:11" s="43" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="191" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>48</v>
@@ -4225,15 +4111,15 @@
       </c>
       <c r="F14" s="191"/>
       <c r="G14" s="193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="194" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" s="44"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="35" t="s">
         <v>40</v>
@@ -4254,7 +4140,7 @@
       <c r="J15" s="92"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -4267,47 +4153,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4322,33 +4171,32 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="63" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="63" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="63" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="63" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="63" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="64" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="63" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="63" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="63" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="64" customWidth="1"/>
     <col min="10" max="10" width="3" style="64" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="64" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="64" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="64" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="64" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="64" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="64" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="64" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="2.75" style="64" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="64" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="64" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="64" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="64" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="64" customWidth="1"/>
     <col min="20" max="20" width="60" style="63" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="63"/>
+    <col min="21" max="16384" width="10.7109375" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="16" thickBot="1"/>
-    <row r="2" spans="2:20">
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -4369,7 +4217,7 @@
       <c r="S2" s="67"/>
       <c r="T2" s="68"/>
     </row>
-    <row r="3" spans="2:20" s="25" customFormat="1">
+    <row r="3" spans="2:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="96" t="s">
         <v>30</v>
@@ -4403,14 +4251,14 @@
         <v>141</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S3" s="62"/>
       <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -4431,7 +4279,7 @@
       <c r="S4" s="95"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20" ht="16" thickBot="1">
+    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="69"/>
       <c r="C5" s="19" t="s">
         <v>53</v>
@@ -4454,7 +4302,7 @@
       <c r="S5" s="16"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="69"/>
       <c r="C6" s="106" t="s">
         <v>37</v>
@@ -4485,7 +4333,7 @@
       <c r="S6" s="16"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="107" t="s">
         <v>38</v>
@@ -4522,7 +4370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="2:20" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="107" t="s">
         <v>149</v>
@@ -4557,7 +4405,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="108" t="s">
         <v>39</v>
@@ -4588,10 +4436,10 @@
       <c r="S9" s="16"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="2:20" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="197" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D10" s="108" t="s">
         <v>39</v>
@@ -4623,7 +4471,7 @@
       <c r="S10" s="16"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
+    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69"/>
       <c r="C11" s="108" t="s">
         <v>40</v>
@@ -4658,7 +4506,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="69"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -4682,11 +4530,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4701,23 +4544,23 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="46" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="46" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="46"/>
+    <col min="7" max="7" width="10.28515625" style="46" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4730,7 +4573,7 @@
       <c r="K2" s="50"/>
       <c r="L2" s="49"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>11</v>
@@ -4745,7 +4588,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4758,7 +4601,7 @@
       <c r="K4" s="55"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>13</v>
@@ -4787,7 +4630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4800,7 +4643,7 @@
       <c r="K6" s="53"/>
       <c r="L6" s="52"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="46" t="s">
         <v>38</v>
@@ -4815,10 +4658,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="118" t="s">
         <v>149</v>
@@ -4833,36 +4676,36 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="200"/>
       <c r="E11" s="201" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="201"/>
       <c r="G11" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="202" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L11" s="203"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="118"/>
       <c r="E12" s="46" t="s">
@@ -4875,13 +4718,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="E15" s="46" t="s">
         <v>118</v>
@@ -4893,10 +4736,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="E17" s="46" t="s">
         <v>91</v>
@@ -4908,10 +4751,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="118"/>
       <c r="D19" s="59"/>
@@ -4936,14 +4779,14 @@
       </c>
       <c r="L19" s="60"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
       <c r="E20" s="116"/>
       <c r="F20" s="116"/>
       <c r="H20" s="175"/>
       <c r="I20" s="175"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="119"/>
       <c r="E21" s="59" t="s">
@@ -4964,7 +4807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
     </row>
   </sheetData>
@@ -4973,11 +4816,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4989,22 +4827,22 @@
       <selection activeCell="D401" sqref="D401:I404"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="99" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="99" customWidth="1"/>
     <col min="2" max="2" width="5" style="99" customWidth="1"/>
     <col min="3" max="5" width="7" style="99"/>
     <col min="6" max="6" width="12" style="99" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="99"/>
-    <col min="8" max="8" width="8.125" style="99" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="99" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="99" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="99" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="99" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="99" customWidth="1"/>
     <col min="12" max="16384" width="7" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="25" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="102"/>
       <c r="C2" s="103" t="s">
         <v>25</v>
@@ -5032,7 +4870,7 @@
       <c r="T2" s="103"/>
       <c r="U2" s="103"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="100"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
@@ -5054,7 +4892,7 @@
       <c r="T3" s="101"/>
       <c r="U3" s="101"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="100"/>
       <c r="C4" s="109" t="s">
         <v>56</v>
@@ -5082,7 +4920,7 @@
       <c r="X4" s="109"/>
       <c r="Y4" s="109"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="100"/>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
@@ -5108,7 +4946,7 @@
       <c r="X5" s="109"/>
       <c r="Y5" s="109"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="100"/>
       <c r="C6" s="109"/>
       <c r="D6" s="109"/>
@@ -5134,7 +4972,7 @@
       <c r="X6" s="109"/>
       <c r="Y6" s="109"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="100"/>
       <c r="C7" s="109"/>
       <c r="D7" s="109"/>
@@ -5160,7 +4998,7 @@
       <c r="X7" s="109"/>
       <c r="Y7" s="109"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="100"/>
       <c r="C8" s="109"/>
       <c r="D8" s="109">
@@ -5190,7 +5028,7 @@
       <c r="X8" s="109"/>
       <c r="Y8" s="109"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="100"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
@@ -5221,7 +5059,7 @@
       <c r="X9" s="109"/>
       <c r="Y9" s="109"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="100"/>
       <c r="C10" s="109"/>
       <c r="D10" s="109"/>
@@ -5250,7 +5088,7 @@
       <c r="X10" s="109"/>
       <c r="Y10" s="109"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="100"/>
       <c r="C11" s="109"/>
       <c r="D11" s="109"/>
@@ -5279,7 +5117,7 @@
       <c r="X11" s="109"/>
       <c r="Y11" s="109"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="100"/>
       <c r="C12" s="109"/>
       <c r="D12" s="109"/>
@@ -5309,7 +5147,7 @@
       <c r="X12" s="109"/>
       <c r="Y12" s="109"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="100"/>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
@@ -5335,7 +5173,7 @@
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="100"/>
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
@@ -5361,7 +5199,7 @@
       <c r="X14" s="109"/>
       <c r="Y14" s="109"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="100"/>
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
@@ -5387,7 +5225,7 @@
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="100"/>
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
@@ -5413,7 +5251,7 @@
       <c r="X16" s="109"/>
       <c r="Y16" s="109"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="100"/>
       <c r="C17" s="109"/>
       <c r="D17" s="109"/>
@@ -5439,7 +5277,7 @@
       <c r="X17" s="109"/>
       <c r="Y17" s="109"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="100"/>
       <c r="C18" s="109"/>
       <c r="D18" s="109"/>
@@ -5465,7 +5303,7 @@
       <c r="X18" s="109"/>
       <c r="Y18" s="109"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="100"/>
       <c r="C19" s="109"/>
       <c r="D19" s="109"/>
@@ -5491,7 +5329,7 @@
       <c r="X19" s="109"/>
       <c r="Y19" s="109"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="100"/>
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
@@ -5517,7 +5355,7 @@
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="100"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
@@ -5543,7 +5381,7 @@
       <c r="X21" s="109"/>
       <c r="Y21" s="109"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="100"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
@@ -5569,7 +5407,7 @@
       <c r="X22" s="109"/>
       <c r="Y22" s="109"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="100"/>
       <c r="C23" s="109"/>
       <c r="D23" s="109"/>
@@ -5595,7 +5433,7 @@
       <c r="X23" s="109"/>
       <c r="Y23" s="109"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="100"/>
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
@@ -5621,7 +5459,7 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="100"/>
       <c r="C25" s="109"/>
       <c r="D25" s="109"/>
@@ -5647,7 +5485,7 @@
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="100"/>
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
@@ -5673,7 +5511,7 @@
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="100"/>
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
@@ -5699,7 +5537,7 @@
       <c r="X27" s="109"/>
       <c r="Y27" s="109"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="100"/>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
@@ -5725,106 +5563,106 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="100"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="100"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="100"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="100"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="100"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="100"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="100"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="100"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="100"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="100"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="100"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="100"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="100"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="100"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="100"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="100"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="100"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="100"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="100"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="100"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="16">
+    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="100"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="16">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="100"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="16">
+    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="100"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="16">
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="100"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" ht="16">
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="100"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="16">
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="100"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="16">
+    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="100"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="16">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="100"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" ht="16">
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="100"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="16">
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="100"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="16">
+    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="100"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="16">
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="100"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="100"/>
     </row>
-    <row r="62" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="62" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="102"/>
       <c r="C62" s="103" t="s">
@@ -5853,7 +5691,7 @@
       <c r="T62" s="103"/>
       <c r="U62" s="103"/>
     </row>
-    <row r="63" spans="1:25" s="124" customFormat="1" ht="16">
+    <row r="63" spans="1:25" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="100"/>
       <c r="C63" s="152"/>
       <c r="D63" s="153"/>
@@ -5879,27 +5717,27 @@
       <c r="X63" s="153"/>
       <c r="Y63" s="153"/>
     </row>
-    <row r="64" spans="1:25" s="121" customFormat="1">
+    <row r="64" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="100"/>
       <c r="C64" s="121" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="2:12" s="121" customFormat="1">
+    <row r="65" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="100"/>
     </row>
-    <row r="66" spans="2:12" s="121" customFormat="1">
+    <row r="66" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="100"/>
       <c r="D66" s="154" t="s">
         <v>146</v>
       </c>
       <c r="F66" s="122"/>
     </row>
-    <row r="67" spans="2:12" s="121" customFormat="1">
+    <row r="67" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="100"/>
       <c r="H67" s="160"/>
     </row>
-    <row r="68" spans="2:12" s="121" customFormat="1">
+    <row r="68" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="100"/>
       <c r="F68" s="161" t="s">
         <v>50</v>
@@ -5912,124 +5750,124 @@
       </c>
       <c r="L68" s="178"/>
     </row>
-    <row r="69" spans="2:12" s="121" customFormat="1">
+    <row r="69" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="100"/>
     </row>
-    <row r="70" spans="2:12" s="121" customFormat="1">
+    <row r="70" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="100"/>
     </row>
-    <row r="71" spans="2:12" s="121" customFormat="1">
+    <row r="71" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="100"/>
     </row>
-    <row r="72" spans="2:12" s="121" customFormat="1">
+    <row r="72" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="100"/>
     </row>
-    <row r="73" spans="2:12" s="121" customFormat="1">
+    <row r="73" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="100"/>
     </row>
-    <row r="74" spans="2:12" s="121" customFormat="1">
+    <row r="74" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="100"/>
     </row>
-    <row r="75" spans="2:12" s="121" customFormat="1">
+    <row r="75" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="100"/>
     </row>
-    <row r="76" spans="2:12" s="121" customFormat="1">
+    <row r="76" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="100"/>
     </row>
-    <row r="77" spans="2:12" s="121" customFormat="1">
+    <row r="77" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="100"/>
     </row>
-    <row r="78" spans="2:12" s="121" customFormat="1">
+    <row r="78" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="100"/>
     </row>
-    <row r="79" spans="2:12" s="121" customFormat="1">
+    <row r="79" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="100"/>
     </row>
-    <row r="80" spans="2:12" s="121" customFormat="1">
+    <row r="80" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="100"/>
     </row>
-    <row r="81" spans="2:2" s="121" customFormat="1">
+    <row r="81" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="100"/>
     </row>
-    <row r="82" spans="2:2" s="121" customFormat="1">
+    <row r="82" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="100"/>
     </row>
-    <row r="83" spans="2:2" s="121" customFormat="1">
+    <row r="83" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="100"/>
     </row>
-    <row r="84" spans="2:2" s="121" customFormat="1">
+    <row r="84" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="100"/>
     </row>
-    <row r="85" spans="2:2" s="121" customFormat="1">
+    <row r="85" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="100"/>
     </row>
-    <row r="86" spans="2:2" s="121" customFormat="1">
+    <row r="86" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="100"/>
     </row>
-    <row r="87" spans="2:2" s="121" customFormat="1">
+    <row r="87" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="100"/>
     </row>
-    <row r="88" spans="2:2" s="121" customFormat="1">
+    <row r="88" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="100"/>
     </row>
-    <row r="89" spans="2:2" s="121" customFormat="1">
+    <row r="89" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="100"/>
     </row>
-    <row r="90" spans="2:2" s="121" customFormat="1">
+    <row r="90" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="100"/>
     </row>
-    <row r="91" spans="2:2" s="121" customFormat="1">
+    <row r="91" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="100"/>
     </row>
-    <row r="92" spans="2:2" s="121" customFormat="1">
+    <row r="92" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="100"/>
     </row>
-    <row r="93" spans="2:2" s="121" customFormat="1">
+    <row r="93" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="100"/>
     </row>
-    <row r="94" spans="2:2" s="121" customFormat="1">
+    <row r="94" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="100"/>
     </row>
-    <row r="95" spans="2:2" s="121" customFormat="1">
+    <row r="95" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="100"/>
     </row>
-    <row r="96" spans="2:2" s="121" customFormat="1">
+    <row r="96" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="100"/>
     </row>
-    <row r="97" spans="2:10" s="121" customFormat="1">
+    <row r="97" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="100"/>
     </row>
-    <row r="98" spans="2:10" s="121" customFormat="1">
+    <row r="98" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="100"/>
     </row>
-    <row r="99" spans="2:10" s="121" customFormat="1">
+    <row r="99" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="100"/>
     </row>
-    <row r="100" spans="2:10" s="121" customFormat="1">
+    <row r="100" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="100"/>
     </row>
-    <row r="101" spans="2:10" s="121" customFormat="1">
+    <row r="101" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="100"/>
     </row>
-    <row r="102" spans="2:10" s="121" customFormat="1">
+    <row r="102" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="100"/>
     </row>
-    <row r="103" spans="2:10" s="121" customFormat="1">
+    <row r="103" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="100"/>
     </row>
-    <row r="104" spans="2:10" s="121" customFormat="1">
+    <row r="104" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="100"/>
     </row>
-    <row r="105" spans="2:10" s="121" customFormat="1">
+    <row r="105" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="100"/>
     </row>
-    <row r="106" spans="2:10" s="121" customFormat="1">
+    <row r="106" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="100"/>
       <c r="D106" s="121">
         <v>1212</v>
       </c>
     </row>
-    <row r="107" spans="2:10" s="121" customFormat="1" ht="16">
+    <row r="107" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="100"/>
       <c r="F107" t="s">
         <v>103</v>
@@ -6045,25 +5883,25 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="2:10" s="121" customFormat="1">
+    <row r="108" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="100"/>
     </row>
-    <row r="109" spans="2:10" s="121" customFormat="1">
+    <row r="109" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="100"/>
     </row>
-    <row r="110" spans="2:10" s="121" customFormat="1">
+    <row r="110" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="100"/>
     </row>
-    <row r="111" spans="2:10" s="121" customFormat="1">
+    <row r="111" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="100"/>
     </row>
-    <row r="112" spans="2:10" s="121" customFormat="1">
+    <row r="112" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="100"/>
     </row>
-    <row r="113" spans="2:10" s="121" customFormat="1">
+    <row r="113" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="100"/>
     </row>
-    <row r="114" spans="2:10" s="121" customFormat="1">
+    <row r="114" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="100"/>
       <c r="F114" s="122" t="s">
         <v>105</v>
@@ -6073,53 +5911,53 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="115" spans="2:10" s="121" customFormat="1">
+    <row r="115" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="100"/>
     </row>
-    <row r="116" spans="2:10" s="121" customFormat="1">
+    <row r="116" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="100"/>
     </row>
-    <row r="117" spans="2:10" s="121" customFormat="1">
+    <row r="117" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="100"/>
     </row>
-    <row r="118" spans="2:10" s="121" customFormat="1">
+    <row r="118" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="100"/>
       <c r="D118" s="154">
         <v>1216</v>
       </c>
       <c r="F118" s="122"/>
     </row>
-    <row r="119" spans="2:10" s="121" customFormat="1">
+    <row r="119" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="100"/>
     </row>
-    <row r="120" spans="2:10" s="121" customFormat="1">
+    <row r="120" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="100"/>
     </row>
-    <row r="121" spans="2:10" s="121" customFormat="1">
+    <row r="121" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="100"/>
     </row>
-    <row r="122" spans="2:10" s="121" customFormat="1">
+    <row r="122" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="100"/>
     </row>
-    <row r="123" spans="2:10" s="121" customFormat="1">
+    <row r="123" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="100"/>
     </row>
-    <row r="124" spans="2:10" s="121" customFormat="1">
+    <row r="124" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="100"/>
       <c r="H124" s="154"/>
       <c r="I124" s="154"/>
       <c r="J124" s="154"/>
     </row>
-    <row r="125" spans="2:10" s="121" customFormat="1">
+    <row r="125" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="100"/>
       <c r="H125" s="155"/>
       <c r="I125" s="155"/>
       <c r="J125" s="154"/>
     </row>
-    <row r="126" spans="2:10" s="121" customFormat="1">
+    <row r="126" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="100"/>
     </row>
-    <row r="127" spans="2:10" s="121" customFormat="1">
+    <row r="127" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="100"/>
       <c r="F127" s="161" t="s">
         <v>107</v>
@@ -6131,7 +5969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="2:10" s="121" customFormat="1">
+    <row r="128" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="100"/>
       <c r="H128" s="121">
         <f>H127*1000</f>
@@ -6141,7 +5979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="2:10" s="121" customFormat="1">
+    <row r="129" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="100"/>
       <c r="H129" s="121">
         <f>H128*100</f>
@@ -6151,12 +5989,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="2:10" s="121" customFormat="1">
+    <row r="130" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="100"/>
       <c r="H130" s="162"/>
       <c r="I130" s="161"/>
     </row>
-    <row r="131" spans="2:10" s="121" customFormat="1">
+    <row r="131" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="100"/>
       <c r="H131" s="162">
         <f>H129*H107</f>
@@ -6166,7 +6004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="2:10" s="121" customFormat="1">
+    <row r="132" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="100"/>
       <c r="F132" s="161" t="s">
         <v>129</v>
@@ -6179,13 +6017,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="2:10" s="121" customFormat="1">
+    <row r="133" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="100"/>
     </row>
-    <row r="134" spans="2:10" s="121" customFormat="1">
+    <row r="134" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="100"/>
     </row>
-    <row r="135" spans="2:10" s="121" customFormat="1">
+    <row r="135" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="100"/>
       <c r="D135" s="121">
         <v>1222</v>
@@ -6195,40 +6033,40 @@
       <c r="I135" s="154"/>
       <c r="J135" s="154"/>
     </row>
-    <row r="136" spans="2:10" s="121" customFormat="1">
+    <row r="136" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="100"/>
     </row>
-    <row r="137" spans="2:10" s="121" customFormat="1">
+    <row r="137" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="100"/>
     </row>
-    <row r="138" spans="2:10" s="121" customFormat="1">
+    <row r="138" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="100"/>
     </row>
-    <row r="139" spans="2:10" s="121" customFormat="1">
+    <row r="139" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="100"/>
     </row>
-    <row r="140" spans="2:10" s="121" customFormat="1">
+    <row r="140" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="100"/>
     </row>
-    <row r="141" spans="2:10" s="121" customFormat="1">
+    <row r="141" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="100"/>
     </row>
-    <row r="142" spans="2:10" s="121" customFormat="1">
+    <row r="142" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="100"/>
     </row>
-    <row r="143" spans="2:10" s="121" customFormat="1">
+    <row r="143" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="100"/>
     </row>
-    <row r="144" spans="2:10" s="121" customFormat="1">
+    <row r="144" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="100"/>
     </row>
-    <row r="145" spans="1:25" s="121" customFormat="1">
+    <row r="145" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="100"/>
     </row>
-    <row r="146" spans="1:25" s="121" customFormat="1" ht="16" thickBot="1">
+    <row r="146" spans="1:25" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="100"/>
     </row>
-    <row r="147" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="147" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147" s="102"/>
       <c r="C147" s="103" t="s">
@@ -6257,7 +6095,7 @@
       <c r="T147" s="103"/>
       <c r="U147" s="103"/>
     </row>
-    <row r="148" spans="1:25" s="124" customFormat="1" ht="16">
+    <row r="148" spans="1:25" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="100"/>
       <c r="C148" s="152"/>
       <c r="D148" s="153"/>
@@ -6283,7 +6121,7 @@
       <c r="X148" s="153"/>
       <c r="Y148" s="153"/>
     </row>
-    <row r="149" spans="1:25" customFormat="1" ht="16">
+    <row r="149" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="100"/>
       <c r="C149" s="163" t="s">
         <v>111</v>
@@ -6310,7 +6148,7 @@
       <c r="W149" s="154"/>
       <c r="X149" s="154"/>
     </row>
-    <row r="150" spans="1:25" customFormat="1" ht="16">
+    <row r="150" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="100"/>
       <c r="C150" s="154"/>
       <c r="D150" s="154">
@@ -6339,7 +6177,7 @@
       <c r="W150" s="154"/>
       <c r="X150" s="154"/>
     </row>
-    <row r="151" spans="1:25" customFormat="1" ht="16">
+    <row r="151" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="100"/>
       <c r="C151" s="154"/>
       <c r="D151" s="154"/>
@@ -6364,7 +6202,7 @@
       <c r="W151" s="154"/>
       <c r="X151" s="154"/>
     </row>
-    <row r="152" spans="1:25" customFormat="1" ht="16">
+    <row r="152" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="100"/>
       <c r="C152" s="154"/>
       <c r="D152" s="154"/>
@@ -6389,7 +6227,7 @@
       <c r="W152" s="154"/>
       <c r="X152" s="154"/>
     </row>
-    <row r="153" spans="1:25" customFormat="1" ht="16">
+    <row r="153" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="100"/>
       <c r="C153" s="154"/>
       <c r="D153" s="154"/>
@@ -6414,7 +6252,7 @@
       <c r="W153" s="154"/>
       <c r="X153" s="154"/>
     </row>
-    <row r="154" spans="1:25" customFormat="1" ht="16">
+    <row r="154" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="100"/>
       <c r="C154" s="154"/>
       <c r="D154" s="154"/>
@@ -6441,7 +6279,7 @@
       <c r="W154" s="154"/>
       <c r="X154" s="154"/>
     </row>
-    <row r="155" spans="1:25" customFormat="1" ht="16">
+    <row r="155" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="100"/>
       <c r="C155" s="154"/>
       <c r="D155" s="154"/>
@@ -6466,7 +6304,7 @@
       <c r="W155" s="154"/>
       <c r="X155" s="154"/>
     </row>
-    <row r="156" spans="1:25" customFormat="1" ht="16">
+    <row r="156" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="100"/>
       <c r="C156" s="154"/>
       <c r="D156" s="157"/>
@@ -6495,7 +6333,7 @@
       <c r="W156" s="154"/>
       <c r="X156" s="154"/>
     </row>
-    <row r="157" spans="1:25" customFormat="1" ht="16">
+    <row r="157" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="100"/>
       <c r="C157" s="154"/>
       <c r="D157" s="157"/>
@@ -6526,7 +6364,7 @@
       <c r="W157" s="154"/>
       <c r="X157" s="154"/>
     </row>
-    <row r="158" spans="1:25" customFormat="1" ht="16">
+    <row r="158" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="100"/>
       <c r="C158" s="154"/>
       <c r="D158" s="157"/>
@@ -6557,7 +6395,7 @@
       <c r="W158" s="154"/>
       <c r="X158" s="154"/>
     </row>
-    <row r="159" spans="1:25" customFormat="1" ht="16">
+    <row r="159" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="100"/>
       <c r="C159" s="154"/>
       <c r="D159" s="157"/>
@@ -6586,7 +6424,7 @@
       <c r="W159" s="154"/>
       <c r="X159" s="154"/>
     </row>
-    <row r="160" spans="1:25" customFormat="1" ht="16">
+    <row r="160" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="100"/>
       <c r="C160" s="154"/>
       <c r="D160" s="157"/>
@@ -6619,7 +6457,7 @@
       <c r="W160" s="154"/>
       <c r="X160" s="154"/>
     </row>
-    <row r="161" spans="2:24" customFormat="1" ht="16">
+    <row r="161" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="100"/>
       <c r="C161" s="154"/>
       <c r="D161" s="157"/>
@@ -6652,7 +6490,7 @@
       <c r="W161" s="154"/>
       <c r="X161" s="154"/>
     </row>
-    <row r="162" spans="2:24" customFormat="1" ht="16">
+    <row r="162" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="100"/>
       <c r="C162" s="154"/>
       <c r="D162" s="157"/>
@@ -6683,7 +6521,7 @@
       <c r="W162" s="154"/>
       <c r="X162" s="154"/>
     </row>
-    <row r="163" spans="2:24" customFormat="1" ht="16">
+    <row r="163" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="100"/>
       <c r="C163" s="154"/>
       <c r="D163" s="157"/>
@@ -6719,7 +6557,7 @@
       <c r="W163" s="154"/>
       <c r="X163" s="154"/>
     </row>
-    <row r="164" spans="2:24" customFormat="1" ht="16">
+    <row r="164" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="100"/>
       <c r="C164" s="154"/>
       <c r="D164" s="157"/>
@@ -6755,7 +6593,7 @@
       <c r="W164" s="154"/>
       <c r="X164" s="154"/>
     </row>
-    <row r="165" spans="2:24" customFormat="1" ht="16">
+    <row r="165" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="100"/>
       <c r="C165" s="154"/>
       <c r="D165" s="157"/>
@@ -6783,7 +6621,7 @@
       <c r="W165" s="154"/>
       <c r="X165" s="154"/>
     </row>
-    <row r="166" spans="2:24" customFormat="1" ht="16">
+    <row r="166" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="100"/>
       <c r="C166" s="154"/>
       <c r="D166" s="157"/>
@@ -6817,7 +6655,7 @@
       <c r="W166" s="154"/>
       <c r="X166" s="154"/>
     </row>
-    <row r="167" spans="2:24" customFormat="1" ht="16">
+    <row r="167" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="100"/>
       <c r="C167" s="154"/>
       <c r="D167" s="154"/>
@@ -6842,7 +6680,7 @@
       <c r="W167" s="154"/>
       <c r="X167" s="154"/>
     </row>
-    <row r="168" spans="2:24" customFormat="1" ht="16">
+    <row r="168" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="100"/>
       <c r="C168" s="154"/>
       <c r="D168" s="154"/>
@@ -6867,7 +6705,7 @@
       <c r="W168" s="154"/>
       <c r="X168" s="154"/>
     </row>
-    <row r="169" spans="2:24" customFormat="1" ht="16">
+    <row r="169" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="100"/>
       <c r="C169" s="154"/>
       <c r="D169" s="154"/>
@@ -6892,7 +6730,7 @@
       <c r="W169" s="154"/>
       <c r="X169" s="154"/>
     </row>
-    <row r="170" spans="2:24" customFormat="1" ht="16">
+    <row r="170" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="100"/>
       <c r="C170" s="154"/>
       <c r="D170" s="154"/>
@@ -6917,7 +6755,7 @@
       <c r="W170" s="154"/>
       <c r="X170" s="154"/>
     </row>
-    <row r="171" spans="2:24" customFormat="1" ht="16">
+    <row r="171" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="100"/>
       <c r="C171" s="154"/>
       <c r="D171" s="154"/>
@@ -6942,7 +6780,7 @@
       <c r="W171" s="154"/>
       <c r="X171" s="154"/>
     </row>
-    <row r="172" spans="2:24" customFormat="1" ht="16">
+    <row r="172" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="100"/>
       <c r="C172" s="154"/>
       <c r="D172" s="154"/>
@@ -6967,7 +6805,7 @@
       <c r="W172" s="154"/>
       <c r="X172" s="154"/>
     </row>
-    <row r="173" spans="2:24" customFormat="1" ht="16">
+    <row r="173" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="100"/>
       <c r="C173" s="154"/>
       <c r="D173" s="154"/>
@@ -6992,7 +6830,7 @@
       <c r="W173" s="154"/>
       <c r="X173" s="154"/>
     </row>
-    <row r="174" spans="2:24" customFormat="1" ht="16">
+    <row r="174" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="100"/>
       <c r="C174" s="154"/>
       <c r="D174" s="154"/>
@@ -7017,7 +6855,7 @@
       <c r="W174" s="154"/>
       <c r="X174" s="154"/>
     </row>
-    <row r="175" spans="2:24" customFormat="1" ht="16">
+    <row r="175" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="100"/>
       <c r="C175" s="154"/>
       <c r="D175" s="154"/>
@@ -7042,7 +6880,7 @@
       <c r="W175" s="154"/>
       <c r="X175" s="154"/>
     </row>
-    <row r="176" spans="2:24" customFormat="1" ht="16">
+    <row r="176" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="100"/>
       <c r="C176" s="154"/>
       <c r="D176" s="154"/>
@@ -7067,7 +6905,7 @@
       <c r="W176" s="154"/>
       <c r="X176" s="154"/>
     </row>
-    <row r="177" spans="1:25" customFormat="1" ht="16">
+    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="100"/>
       <c r="C177" s="154"/>
       <c r="D177" s="154"/>
@@ -7092,7 +6930,7 @@
       <c r="W177" s="154"/>
       <c r="X177" s="154"/>
     </row>
-    <row r="178" spans="1:25" customFormat="1" ht="16">
+    <row r="178" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="100"/>
       <c r="C178" s="154"/>
       <c r="D178" s="154"/>
@@ -7117,7 +6955,7 @@
       <c r="W178" s="154"/>
       <c r="X178" s="154"/>
     </row>
-    <row r="179" spans="1:25" customFormat="1" ht="16">
+    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="100"/>
       <c r="C179" s="154"/>
       <c r="D179" s="154"/>
@@ -7142,7 +6980,7 @@
       <c r="W179" s="154"/>
       <c r="X179" s="154"/>
     </row>
-    <row r="180" spans="1:25" customFormat="1" ht="16">
+    <row r="180" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="100"/>
       <c r="C180" s="154"/>
       <c r="D180" s="154"/>
@@ -7167,7 +7005,7 @@
       <c r="W180" s="154"/>
       <c r="X180" s="154"/>
     </row>
-    <row r="181" spans="1:25" customFormat="1" ht="16">
+    <row r="181" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="100"/>
       <c r="C181" s="154"/>
       <c r="D181" s="154"/>
@@ -7192,7 +7030,7 @@
       <c r="W181" s="154"/>
       <c r="X181" s="154"/>
     </row>
-    <row r="182" spans="1:25" customFormat="1" ht="16">
+    <row r="182" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="100"/>
       <c r="C182" s="154"/>
       <c r="D182" s="154"/>
@@ -7217,7 +7055,7 @@
       <c r="W182" s="154"/>
       <c r="X182" s="154"/>
     </row>
-    <row r="183" spans="1:25" customFormat="1" ht="16">
+    <row r="183" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="100"/>
       <c r="C183" s="154"/>
       <c r="D183" s="154"/>
@@ -7242,7 +7080,7 @@
       <c r="W183" s="154"/>
       <c r="X183" s="154"/>
     </row>
-    <row r="184" spans="1:25" customFormat="1" ht="16">
+    <row r="184" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="100"/>
       <c r="C184" s="154"/>
       <c r="D184" s="154"/>
@@ -7267,7 +7105,7 @@
       <c r="W184" s="154"/>
       <c r="X184" s="154"/>
     </row>
-    <row r="185" spans="1:25" customFormat="1" ht="16">
+    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="100"/>
       <c r="C185" s="154"/>
       <c r="D185" s="154"/>
@@ -7292,7 +7130,7 @@
       <c r="W185" s="154"/>
       <c r="X185" s="154"/>
     </row>
-    <row r="186" spans="1:25" customFormat="1" ht="16">
+    <row r="186" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="100"/>
       <c r="C186" s="154"/>
       <c r="D186" s="154"/>
@@ -7317,7 +7155,7 @@
       <c r="W186" s="154"/>
       <c r="X186" s="154"/>
     </row>
-    <row r="187" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="187" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="100"/>
       <c r="C187" s="154"/>
       <c r="D187" s="154"/>
@@ -7342,7 +7180,7 @@
       <c r="W187" s="154"/>
       <c r="X187" s="154"/>
     </row>
-    <row r="188" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="188" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188" s="102"/>
       <c r="C188" s="103" t="s">
@@ -7371,7 +7209,7 @@
       <c r="T188" s="103"/>
       <c r="U188" s="103"/>
     </row>
-    <row r="189" spans="1:25" s="124" customFormat="1" ht="16">
+    <row r="189" spans="1:25" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="100"/>
       <c r="C189" s="152"/>
       <c r="D189" s="153"/>
@@ -7397,7 +7235,7 @@
       <c r="X189" s="153"/>
       <c r="Y189" s="153"/>
     </row>
-    <row r="190" spans="1:25" customFormat="1" ht="16">
+    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="100"/>
       <c r="C190" s="154"/>
       <c r="D190" s="154"/>
@@ -7422,7 +7260,7 @@
       <c r="W190" s="154"/>
       <c r="X190" s="154"/>
     </row>
-    <row r="191" spans="1:25" customFormat="1" ht="16">
+    <row r="191" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="100"/>
       <c r="C191" s="154" t="s">
         <v>118</v>
@@ -7449,7 +7287,7 @@
       <c r="W191" s="154"/>
       <c r="X191" s="154"/>
     </row>
-    <row r="192" spans="1:25" customFormat="1" ht="16">
+    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="100"/>
       <c r="C192" s="154"/>
       <c r="D192" s="154"/>
@@ -7476,7 +7314,7 @@
       <c r="W192" s="154"/>
       <c r="X192" s="154"/>
     </row>
-    <row r="193" spans="2:24" customFormat="1" ht="16">
+    <row r="193" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="100"/>
       <c r="C193" s="154"/>
       <c r="D193" s="154"/>
@@ -7504,7 +7342,7 @@
       <c r="W193" s="154"/>
       <c r="X193" s="154"/>
     </row>
-    <row r="194" spans="2:24" customFormat="1" ht="16">
+    <row r="194" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="100"/>
       <c r="C194" s="154"/>
       <c r="D194" s="154" t="s">
@@ -7531,7 +7369,7 @@
       <c r="W194" s="154"/>
       <c r="X194" s="154"/>
     </row>
-    <row r="195" spans="2:24" customFormat="1" ht="16">
+    <row r="195" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="100"/>
       <c r="C195" s="154"/>
       <c r="D195" s="154"/>
@@ -7559,7 +7397,7 @@
       <c r="W195" s="154"/>
       <c r="X195" s="154"/>
     </row>
-    <row r="196" spans="2:24" customFormat="1" ht="16">
+    <row r="196" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="100"/>
       <c r="C196" s="154"/>
       <c r="D196" s="157"/>
@@ -7585,7 +7423,7 @@
       <c r="W196" s="154"/>
       <c r="X196" s="154"/>
     </row>
-    <row r="197" spans="2:24" customFormat="1" ht="16">
+    <row r="197" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="100"/>
       <c r="C197" s="154"/>
       <c r="D197" s="157"/>
@@ -7614,7 +7452,7 @@
       <c r="W197" s="154"/>
       <c r="X197" s="154"/>
     </row>
-    <row r="198" spans="2:24" customFormat="1" ht="16">
+    <row r="198" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="100"/>
       <c r="C198" s="154"/>
       <c r="D198" s="157"/>
@@ -7643,7 +7481,7 @@
       <c r="W198" s="154"/>
       <c r="X198" s="154"/>
     </row>
-    <row r="199" spans="2:24" customFormat="1" ht="16">
+    <row r="199" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="100"/>
       <c r="C199" s="154"/>
       <c r="D199" s="157"/>
@@ -7672,7 +7510,7 @@
       <c r="W199" s="154"/>
       <c r="X199" s="154"/>
     </row>
-    <row r="200" spans="2:24" customFormat="1" ht="16">
+    <row r="200" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="100"/>
       <c r="C200" s="154"/>
       <c r="D200" s="157"/>
@@ -7701,7 +7539,7 @@
       <c r="W200" s="154"/>
       <c r="X200" s="154"/>
     </row>
-    <row r="201" spans="2:24" customFormat="1" ht="16">
+    <row r="201" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="100"/>
       <c r="C201" s="154"/>
       <c r="D201" s="157"/>
@@ -7734,7 +7572,7 @@
       <c r="W201" s="154"/>
       <c r="X201" s="154"/>
     </row>
-    <row r="202" spans="2:24" customFormat="1" ht="16">
+    <row r="202" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="100"/>
       <c r="C202" s="154"/>
       <c r="D202" s="157"/>
@@ -7766,7 +7604,7 @@
       <c r="W202" s="154"/>
       <c r="X202" s="154"/>
     </row>
-    <row r="203" spans="2:24" customFormat="1" ht="16">
+    <row r="203" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="100"/>
       <c r="C203" s="154"/>
       <c r="D203" s="157"/>
@@ -7804,7 +7642,7 @@
       <c r="W203" s="154"/>
       <c r="X203" s="154"/>
     </row>
-    <row r="204" spans="2:24" customFormat="1" ht="16">
+    <row r="204" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="100"/>
       <c r="C204" s="154"/>
       <c r="D204" s="157"/>
@@ -7829,7 +7667,7 @@
       <c r="W204" s="154"/>
       <c r="X204" s="154"/>
     </row>
-    <row r="205" spans="2:24" customFormat="1" ht="16">
+    <row r="205" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="100"/>
       <c r="C205" s="154"/>
       <c r="D205" s="157"/>
@@ -7854,7 +7692,7 @@
       <c r="W205" s="154"/>
       <c r="X205" s="154"/>
     </row>
-    <row r="206" spans="2:24" customFormat="1" ht="16">
+    <row r="206" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="100"/>
       <c r="C206" s="154"/>
       <c r="D206" s="154"/>
@@ -7879,7 +7717,7 @@
       <c r="W206" s="154"/>
       <c r="X206" s="154"/>
     </row>
-    <row r="207" spans="2:24" customFormat="1" ht="16">
+    <row r="207" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="100"/>
       <c r="C207" s="154"/>
       <c r="D207" s="154"/>
@@ -7904,7 +7742,7 @@
       <c r="W207" s="154"/>
       <c r="X207" s="154"/>
     </row>
-    <row r="208" spans="2:24" customFormat="1" ht="16">
+    <row r="208" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="100"/>
       <c r="C208" s="154"/>
       <c r="D208" s="154"/>
@@ -7929,7 +7767,7 @@
       <c r="W208" s="154"/>
       <c r="X208" s="154"/>
     </row>
-    <row r="209" spans="2:24" customFormat="1" ht="16">
+    <row r="209" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="100"/>
       <c r="C209" s="154"/>
       <c r="D209" s="154"/>
@@ -7954,7 +7792,7 @@
       <c r="W209" s="154"/>
       <c r="X209" s="154"/>
     </row>
-    <row r="210" spans="2:24" customFormat="1" ht="16">
+    <row r="210" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="100"/>
       <c r="C210" s="154"/>
       <c r="D210" s="154"/>
@@ -7979,7 +7817,7 @@
       <c r="W210" s="154"/>
       <c r="X210" s="154"/>
     </row>
-    <row r="211" spans="2:24" customFormat="1" ht="16">
+    <row r="211" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="100"/>
       <c r="C211" s="154"/>
       <c r="D211" s="154"/>
@@ -8004,7 +7842,7 @@
       <c r="W211" s="154"/>
       <c r="X211" s="154"/>
     </row>
-    <row r="212" spans="2:24" customFormat="1" ht="16">
+    <row r="212" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="100"/>
       <c r="C212" s="154"/>
       <c r="D212" s="154"/>
@@ -8029,7 +7867,7 @@
       <c r="W212" s="154"/>
       <c r="X212" s="154"/>
     </row>
-    <row r="213" spans="2:24" customFormat="1" ht="16">
+    <row r="213" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="100"/>
       <c r="C213" s="154"/>
       <c r="D213" s="154"/>
@@ -8054,7 +7892,7 @@
       <c r="W213" s="154"/>
       <c r="X213" s="154"/>
     </row>
-    <row r="214" spans="2:24" customFormat="1" ht="16">
+    <row r="214" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="100"/>
       <c r="C214" s="154"/>
       <c r="D214" s="154"/>
@@ -8079,7 +7917,7 @@
       <c r="W214" s="154"/>
       <c r="X214" s="154"/>
     </row>
-    <row r="215" spans="2:24" customFormat="1" ht="16">
+    <row r="215" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="100"/>
       <c r="C215" s="154"/>
       <c r="D215" s="154"/>
@@ -8104,7 +7942,7 @@
       <c r="W215" s="154"/>
       <c r="X215" s="154"/>
     </row>
-    <row r="216" spans="2:24" customFormat="1" ht="16">
+    <row r="216" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="100"/>
       <c r="C216" s="154"/>
       <c r="D216" s="154"/>
@@ -8129,7 +7967,7 @@
       <c r="W216" s="154"/>
       <c r="X216" s="154"/>
     </row>
-    <row r="217" spans="2:24" customFormat="1" ht="16">
+    <row r="217" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="100"/>
       <c r="C217" s="154"/>
       <c r="D217" s="154"/>
@@ -8154,7 +7992,7 @@
       <c r="W217" s="154"/>
       <c r="X217" s="154"/>
     </row>
-    <row r="218" spans="2:24" customFormat="1" ht="16">
+    <row r="218" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="100"/>
       <c r="C218" s="154"/>
       <c r="D218" s="154"/>
@@ -8179,7 +8017,7 @@
       <c r="W218" s="154"/>
       <c r="X218" s="154"/>
     </row>
-    <row r="219" spans="2:24" customFormat="1" ht="16">
+    <row r="219" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="100"/>
       <c r="C219" s="154"/>
       <c r="D219" s="154"/>
@@ -8204,7 +8042,7 @@
       <c r="W219" s="154"/>
       <c r="X219" s="154"/>
     </row>
-    <row r="220" spans="2:24" customFormat="1" ht="16">
+    <row r="220" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="100"/>
       <c r="C220" s="154"/>
       <c r="D220" s="154"/>
@@ -8229,7 +8067,7 @@
       <c r="W220" s="154"/>
       <c r="X220" s="154"/>
     </row>
-    <row r="221" spans="2:24" customFormat="1" ht="16">
+    <row r="221" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="100"/>
       <c r="C221" s="154"/>
       <c r="D221" s="154"/>
@@ -8254,7 +8092,7 @@
       <c r="W221" s="154"/>
       <c r="X221" s="154"/>
     </row>
-    <row r="222" spans="2:24" customFormat="1" ht="16">
+    <row r="222" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="100"/>
       <c r="C222" s="154"/>
       <c r="D222" s="154"/>
@@ -8279,7 +8117,7 @@
       <c r="W222" s="154"/>
       <c r="X222" s="154"/>
     </row>
-    <row r="223" spans="2:24" customFormat="1" ht="16">
+    <row r="223" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="100"/>
       <c r="C223" s="154"/>
       <c r="D223" s="154"/>
@@ -8304,7 +8142,7 @@
       <c r="W223" s="154"/>
       <c r="X223" s="154"/>
     </row>
-    <row r="224" spans="2:24" customFormat="1" ht="16">
+    <row r="224" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="100"/>
       <c r="C224" s="154"/>
       <c r="D224" s="154"/>
@@ -8329,7 +8167,7 @@
       <c r="W224" s="154"/>
       <c r="X224" s="154"/>
     </row>
-    <row r="225" spans="1:25" customFormat="1" ht="16">
+    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="100"/>
       <c r="C225" s="154"/>
       <c r="D225" s="154"/>
@@ -8354,7 +8192,7 @@
       <c r="W225" s="154"/>
       <c r="X225" s="154"/>
     </row>
-    <row r="226" spans="1:25" customFormat="1" ht="16">
+    <row r="226" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="100"/>
       <c r="C226" s="154"/>
       <c r="D226" s="154"/>
@@ -8379,7 +8217,7 @@
       <c r="W226" s="154"/>
       <c r="X226" s="154"/>
     </row>
-    <row r="227" spans="1:25" customFormat="1" ht="16">
+    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="100"/>
       <c r="C227" s="154"/>
       <c r="D227" s="154"/>
@@ -8404,7 +8242,7 @@
       <c r="W227" s="154"/>
       <c r="X227" s="154"/>
     </row>
-    <row r="228" spans="1:25" customFormat="1" ht="16">
+    <row r="228" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="100"/>
       <c r="C228" s="154"/>
       <c r="D228" s="154"/>
@@ -8429,7 +8267,7 @@
       <c r="W228" s="154"/>
       <c r="X228" s="154"/>
     </row>
-    <row r="229" spans="1:25" customFormat="1" ht="16">
+    <row r="229" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="100"/>
       <c r="C229" s="154"/>
       <c r="D229" s="154"/>
@@ -8454,7 +8292,7 @@
       <c r="W229" s="154"/>
       <c r="X229" s="154"/>
     </row>
-    <row r="230" spans="1:25" customFormat="1" ht="16">
+    <row r="230" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="100"/>
       <c r="C230" s="154"/>
       <c r="D230" s="154"/>
@@ -8479,7 +8317,7 @@
       <c r="W230" s="154"/>
       <c r="X230" s="154"/>
     </row>
-    <row r="231" spans="1:25" customFormat="1" ht="16">
+    <row r="231" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="100"/>
       <c r="C231" s="154"/>
       <c r="D231" s="154"/>
@@ -8505,7 +8343,7 @@
       <c r="X231" s="154"/>
       <c r="Y231" s="154"/>
     </row>
-    <row r="232" spans="1:25" customFormat="1" ht="16">
+    <row r="232" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="100"/>
       <c r="C232" s="154"/>
       <c r="D232" s="154"/>
@@ -8531,7 +8369,7 @@
       <c r="X232" s="154"/>
       <c r="Y232" s="154"/>
     </row>
-    <row r="233" spans="1:25" customFormat="1" ht="16">
+    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="100"/>
       <c r="C233" s="154"/>
       <c r="D233" s="154"/>
@@ -8557,7 +8395,7 @@
       <c r="X233" s="154"/>
       <c r="Y233" s="154"/>
     </row>
-    <row r="234" spans="1:25" customFormat="1" ht="16">
+    <row r="234" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="100"/>
       <c r="C234" s="154"/>
       <c r="D234" s="154"/>
@@ -8583,10 +8421,10 @@
       <c r="X234" s="154"/>
       <c r="Y234" s="154"/>
     </row>
-    <row r="235" spans="1:25" s="121" customFormat="1" ht="16" thickBot="1">
+    <row r="235" spans="1:25" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B235" s="100"/>
     </row>
-    <row r="236" spans="1:25" s="121" customFormat="1">
+    <row r="236" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="102"/>
       <c r="C236" s="103" t="s">
         <v>25</v>
@@ -8614,7 +8452,7 @@
       <c r="T236" s="103"/>
       <c r="U236" s="103"/>
     </row>
-    <row r="237" spans="1:25" s="121" customFormat="1">
+    <row r="237" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="100"/>
       <c r="C237" s="152"/>
       <c r="D237" s="153"/>
@@ -8636,7 +8474,7 @@
       <c r="T237" s="153"/>
       <c r="U237" s="153"/>
     </row>
-    <row r="238" spans="1:25" customFormat="1" ht="16">
+    <row r="238" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="121"/>
       <c r="B238" s="100"/>
       <c r="C238" s="154" t="s">
@@ -8664,7 +8502,7 @@
       <c r="W238" s="154"/>
       <c r="X238" s="154"/>
     </row>
-    <row r="239" spans="1:25" customFormat="1" ht="16">
+    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="100"/>
       <c r="C239" s="99"/>
       <c r="D239" s="156">
@@ -8691,7 +8529,7 @@
       <c r="W239" s="154"/>
       <c r="X239" s="154"/>
     </row>
-    <row r="240" spans="1:25" customFormat="1" ht="16">
+    <row r="240" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="100"/>
       <c r="C240" s="154"/>
       <c r="D240" s="154"/>
@@ -8716,7 +8554,7 @@
       <c r="W240" s="154"/>
       <c r="X240" s="154"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" ht="16">
+    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="100"/>
       <c r="C241" s="154"/>
       <c r="D241" s="154"/>
@@ -8748,7 +8586,7 @@
       <c r="W241" s="154"/>
       <c r="X241" s="154"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" ht="16">
+    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="100"/>
       <c r="C242" s="154"/>
       <c r="D242" s="154"/>
@@ -8780,7 +8618,7 @@
       <c r="W242" s="154"/>
       <c r="X242" s="154"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" ht="16">
+    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="100"/>
       <c r="C243" s="154"/>
       <c r="D243" s="154"/>
@@ -8805,7 +8643,7 @@
       <c r="W243" s="154"/>
       <c r="X243" s="154"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" ht="16">
+    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="100"/>
       <c r="C244" s="154"/>
       <c r="D244" s="154"/>
@@ -8830,7 +8668,7 @@
       <c r="W244" s="154"/>
       <c r="X244" s="154"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" ht="16">
+    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="100"/>
       <c r="C245" s="154"/>
       <c r="D245" s="154"/>
@@ -8855,7 +8693,7 @@
       <c r="W245" s="154"/>
       <c r="X245" s="154"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" ht="16">
+    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="100"/>
       <c r="C246" s="154"/>
       <c r="D246" s="154"/>
@@ -8880,7 +8718,7 @@
       <c r="W246" s="154"/>
       <c r="X246" s="154"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" ht="16">
+    <row r="247" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="100"/>
       <c r="C247" s="154"/>
       <c r="D247" s="154"/>
@@ -8905,7 +8743,7 @@
       <c r="W247" s="154"/>
       <c r="X247" s="154"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" ht="16">
+    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="100"/>
       <c r="C248" s="154"/>
       <c r="D248" s="154"/>
@@ -8930,7 +8768,7 @@
       <c r="W248" s="154"/>
       <c r="X248" s="154"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" ht="16">
+    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="100"/>
       <c r="C249" s="154"/>
       <c r="D249" s="154"/>
@@ -8955,7 +8793,7 @@
       <c r="W249" s="154"/>
       <c r="X249" s="154"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" ht="16">
+    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="100"/>
       <c r="C250" s="154"/>
       <c r="D250" s="154"/>
@@ -8980,7 +8818,7 @@
       <c r="W250" s="154"/>
       <c r="X250" s="154"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" ht="16">
+    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="100"/>
       <c r="C251" s="154"/>
       <c r="D251" s="154"/>
@@ -9005,7 +8843,7 @@
       <c r="W251" s="154"/>
       <c r="X251" s="154"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" ht="16">
+    <row r="252" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="100"/>
       <c r="C252" s="154"/>
       <c r="D252" s="154"/>
@@ -9030,7 +8868,7 @@
       <c r="W252" s="154"/>
       <c r="X252" s="154"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" ht="16">
+    <row r="253" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="100"/>
       <c r="C253" s="154"/>
       <c r="D253" s="154"/>
@@ -9055,7 +8893,7 @@
       <c r="W253" s="154"/>
       <c r="X253" s="154"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" ht="16">
+    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="100"/>
       <c r="C254" s="154"/>
       <c r="D254" s="154"/>
@@ -9080,7 +8918,7 @@
       <c r="W254" s="154"/>
       <c r="X254" s="154"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" ht="16">
+    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="100"/>
       <c r="C255" s="154"/>
       <c r="D255" s="154"/>
@@ -9105,7 +8943,7 @@
       <c r="W255" s="154"/>
       <c r="X255" s="154"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" ht="16">
+    <row r="256" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="100"/>
       <c r="C256" s="154"/>
       <c r="D256" s="154"/>
@@ -9130,7 +8968,7 @@
       <c r="W256" s="154"/>
       <c r="X256" s="154"/>
     </row>
-    <row r="257" spans="1:24" customFormat="1" ht="16">
+    <row r="257" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="100"/>
       <c r="C257" s="154"/>
       <c r="D257" s="154"/>
@@ -9155,7 +8993,7 @@
       <c r="W257" s="154"/>
       <c r="X257" s="154"/>
     </row>
-    <row r="258" spans="1:24" customFormat="1" ht="16">
+    <row r="258" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="100"/>
       <c r="C258" s="154"/>
       <c r="D258" s="154"/>
@@ -9180,7 +9018,7 @@
       <c r="W258" s="154"/>
       <c r="X258" s="154"/>
     </row>
-    <row r="259" spans="1:24" customFormat="1" ht="16">
+    <row r="259" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="100"/>
       <c r="C259" s="154"/>
       <c r="D259" s="154"/>
@@ -9205,7 +9043,7 @@
       <c r="W259" s="154"/>
       <c r="X259" s="154"/>
     </row>
-    <row r="260" spans="1:24" customFormat="1" ht="16">
+    <row r="260" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="100"/>
       <c r="C260" s="154"/>
       <c r="D260" s="154"/>
@@ -9230,7 +9068,7 @@
       <c r="W260" s="154"/>
       <c r="X260" s="154"/>
     </row>
-    <row r="261" spans="1:24" customFormat="1" ht="16">
+    <row r="261" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="100"/>
       <c r="C261" s="154"/>
       <c r="D261" s="154"/>
@@ -9263,7 +9101,7 @@
       <c r="W261" s="154"/>
       <c r="X261" s="154"/>
     </row>
-    <row r="262" spans="1:24" customFormat="1" ht="16">
+    <row r="262" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="100"/>
       <c r="C262" s="154"/>
       <c r="D262" s="154"/>
@@ -9296,7 +9134,7 @@
       <c r="W262" s="154"/>
       <c r="X262" s="154"/>
     </row>
-    <row r="263" spans="1:24" customFormat="1" ht="16">
+    <row r="263" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="100"/>
       <c r="C263" s="154"/>
       <c r="D263" s="154"/>
@@ -9331,7 +9169,7 @@
       <c r="W263" s="154"/>
       <c r="X263" s="154"/>
     </row>
-    <row r="264" spans="1:24" customFormat="1" ht="16">
+    <row r="264" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="100"/>
       <c r="C264" s="154"/>
       <c r="D264" s="154"/>
@@ -9366,7 +9204,7 @@
       <c r="W264" s="154"/>
       <c r="X264" s="154"/>
     </row>
-    <row r="265" spans="1:24" customFormat="1" ht="16">
+    <row r="265" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="100"/>
       <c r="C265" s="154"/>
       <c r="D265" s="154"/>
@@ -9391,7 +9229,7 @@
       <c r="W265" s="154"/>
       <c r="X265" s="154"/>
     </row>
-    <row r="266" spans="1:24" customFormat="1" ht="16">
+    <row r="266" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="100"/>
       <c r="C266" s="154"/>
       <c r="D266" s="154"/>
@@ -9416,7 +9254,7 @@
       <c r="W266" s="154"/>
       <c r="X266" s="154"/>
     </row>
-    <row r="267" spans="1:24" customFormat="1" ht="16">
+    <row r="267" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="100"/>
       <c r="C267" s="154"/>
       <c r="D267" s="154"/>
@@ -9445,7 +9283,7 @@
       <c r="W267" s="154"/>
       <c r="X267" s="154"/>
     </row>
-    <row r="268" spans="1:24" customFormat="1" ht="16">
+    <row r="268" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="100"/>
       <c r="C268" s="154"/>
       <c r="D268" s="154"/>
@@ -9470,7 +9308,7 @@
       <c r="W268" s="154"/>
       <c r="X268" s="154"/>
     </row>
-    <row r="269" spans="1:24" customFormat="1" ht="16">
+    <row r="269" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="100"/>
       <c r="C269" s="154"/>
       <c r="D269" s="154"/>
@@ -9495,7 +9333,7 @@
       <c r="W269" s="154"/>
       <c r="X269" s="154"/>
     </row>
-    <row r="270" spans="1:24" ht="16">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270" s="100"/>
       <c r="C270" s="154"/>
@@ -9517,7 +9355,7 @@
       <c r="S270" s="154"/>
       <c r="T270" s="154"/>
     </row>
-    <row r="271" spans="1:24" ht="16">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271" s="100"/>
       <c r="C271" s="154"/>
@@ -9539,13 +9377,13 @@
       <c r="S271" s="154"/>
       <c r="T271" s="154"/>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B272" s="100"/>
     </row>
-    <row r="273" spans="1:25" ht="16" thickBot="1">
+    <row r="273" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B273" s="100"/>
     </row>
-    <row r="274" spans="1:25" s="25" customFormat="1" ht="16">
+    <row r="274" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274" s="102"/>
       <c r="C274" s="103" t="s">
@@ -9574,7 +9412,7 @@
       <c r="T274" s="103"/>
       <c r="U274" s="103"/>
     </row>
-    <row r="275" spans="1:25" customFormat="1" ht="16">
+    <row r="275" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="100"/>
       <c r="C275" s="112"/>
       <c r="D275" s="109"/>
@@ -9600,25 +9438,25 @@
       <c r="X275" s="109"/>
       <c r="Y275" s="109"/>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B276" s="100"/>
       <c r="C276" s="59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="277" spans="1:25" s="121" customFormat="1">
+    <row r="277" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="100"/>
     </row>
-    <row r="278" spans="1:25" s="121" customFormat="1">
+    <row r="278" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="100"/>
     </row>
-    <row r="279" spans="1:25" s="121" customFormat="1">
+    <row r="279" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="100"/>
       <c r="D279" s="121">
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:25" s="121" customFormat="1">
+    <row r="280" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="100"/>
       <c r="F280" s="161" t="s">
         <v>104</v>
@@ -9630,7 +9468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:25" s="121" customFormat="1">
+    <row r="281" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="100"/>
       <c r="H281" s="162">
         <f>H295*H280</f>
@@ -9640,7 +9478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="282" spans="1:25" s="121" customFormat="1">
+    <row r="282" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="100"/>
       <c r="H282" s="162">
         <f>H281*100</f>
@@ -9653,7 +9491,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="283" spans="1:25" s="121" customFormat="1">
+    <row r="283" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="100"/>
       <c r="H283" s="162">
         <f>H282*H67</f>
@@ -9666,37 +9504,37 @@
         <v>133</v>
       </c>
     </row>
-    <row r="284" spans="1:25" s="121" customFormat="1">
+    <row r="284" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="100"/>
     </row>
-    <row r="285" spans="1:25" s="121" customFormat="1">
+    <row r="285" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="100"/>
     </row>
-    <row r="286" spans="1:25" s="121" customFormat="1">
+    <row r="286" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="100"/>
     </row>
-    <row r="287" spans="1:25" s="121" customFormat="1">
+    <row r="287" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="100"/>
     </row>
-    <row r="288" spans="1:25" s="121" customFormat="1">
+    <row r="288" spans="1:25" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="100"/>
     </row>
-    <row r="289" spans="2:9" s="121" customFormat="1">
+    <row r="289" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="100"/>
     </row>
-    <row r="290" spans="2:9" s="121" customFormat="1">
+    <row r="290" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="100"/>
     </row>
-    <row r="291" spans="2:9" s="121" customFormat="1">
+    <row r="291" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="100"/>
     </row>
-    <row r="292" spans="2:9" s="121" customFormat="1">
+    <row r="292" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="100"/>
     </row>
-    <row r="293" spans="2:9" s="121" customFormat="1">
+    <row r="293" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="100"/>
     </row>
-    <row r="294" spans="2:9" s="121" customFormat="1">
+    <row r="294" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="100"/>
       <c r="F294" s="122" t="s">
         <v>87</v>
@@ -9708,7 +9546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="295" spans="2:9" s="121" customFormat="1">
+    <row r="295" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="100"/>
       <c r="H295" s="121">
         <f>H294*1000</f>
@@ -9718,169 +9556,169 @@
         <v>89</v>
       </c>
     </row>
-    <row r="296" spans="2:9" s="121" customFormat="1">
+    <row r="296" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="100"/>
     </row>
-    <row r="297" spans="2:9" s="121" customFormat="1">
+    <row r="297" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="100"/>
     </row>
-    <row r="298" spans="2:9" s="121" customFormat="1">
+    <row r="298" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="100"/>
     </row>
-    <row r="299" spans="2:9" s="121" customFormat="1">
+    <row r="299" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="100"/>
     </row>
-    <row r="300" spans="2:9" s="121" customFormat="1">
+    <row r="300" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="100"/>
     </row>
-    <row r="301" spans="2:9" s="121" customFormat="1">
+    <row r="301" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="100"/>
     </row>
-    <row r="302" spans="2:9" s="121" customFormat="1">
+    <row r="302" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="100"/>
     </row>
-    <row r="303" spans="2:9" s="121" customFormat="1">
+    <row r="303" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="100"/>
     </row>
-    <row r="304" spans="2:9" s="121" customFormat="1">
+    <row r="304" spans="2:9" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="100"/>
     </row>
-    <row r="305" spans="2:2" s="121" customFormat="1">
+    <row r="305" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="100"/>
     </row>
-    <row r="306" spans="2:2" s="121" customFormat="1">
+    <row r="306" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="100"/>
     </row>
-    <row r="307" spans="2:2" s="121" customFormat="1">
+    <row r="307" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="100"/>
     </row>
-    <row r="308" spans="2:2" s="121" customFormat="1">
+    <row r="308" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="100"/>
     </row>
-    <row r="309" spans="2:2" s="121" customFormat="1">
+    <row r="309" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="100"/>
     </row>
-    <row r="310" spans="2:2" s="121" customFormat="1">
+    <row r="310" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="100"/>
     </row>
-    <row r="311" spans="2:2" s="121" customFormat="1">
+    <row r="311" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="100"/>
     </row>
-    <row r="312" spans="2:2" s="121" customFormat="1">
+    <row r="312" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="100"/>
     </row>
-    <row r="313" spans="2:2" s="121" customFormat="1">
+    <row r="313" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="100"/>
     </row>
-    <row r="314" spans="2:2" s="121" customFormat="1">
+    <row r="314" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="100"/>
     </row>
-    <row r="315" spans="2:2" s="121" customFormat="1">
+    <row r="315" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="100"/>
     </row>
-    <row r="316" spans="2:2" s="121" customFormat="1">
+    <row r="316" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="100"/>
     </row>
-    <row r="317" spans="2:2" s="121" customFormat="1">
+    <row r="317" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="100"/>
     </row>
-    <row r="318" spans="2:2" s="121" customFormat="1">
+    <row r="318" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="100"/>
     </row>
-    <row r="319" spans="2:2" s="121" customFormat="1">
+    <row r="319" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="100"/>
     </row>
-    <row r="320" spans="2:2" s="121" customFormat="1">
+    <row r="320" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="100"/>
     </row>
-    <row r="321" spans="2:2" s="121" customFormat="1">
+    <row r="321" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="100"/>
     </row>
-    <row r="322" spans="2:2" s="121" customFormat="1">
+    <row r="322" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="100"/>
     </row>
-    <row r="323" spans="2:2" s="121" customFormat="1">
+    <row r="323" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="100"/>
     </row>
-    <row r="324" spans="2:2" s="121" customFormat="1">
+    <row r="324" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="100"/>
     </row>
-    <row r="325" spans="2:2" s="121" customFormat="1">
+    <row r="325" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="100"/>
     </row>
-    <row r="326" spans="2:2" s="121" customFormat="1">
+    <row r="326" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="100"/>
     </row>
-    <row r="327" spans="2:2" s="121" customFormat="1">
+    <row r="327" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="100"/>
     </row>
-    <row r="328" spans="2:2" s="121" customFormat="1">
+    <row r="328" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="100"/>
     </row>
-    <row r="329" spans="2:2" s="121" customFormat="1">
+    <row r="329" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="100"/>
     </row>
-    <row r="330" spans="2:2" s="121" customFormat="1">
+    <row r="330" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="100"/>
     </row>
-    <row r="331" spans="2:2" s="121" customFormat="1">
+    <row r="331" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="100"/>
     </row>
-    <row r="332" spans="2:2" s="121" customFormat="1">
+    <row r="332" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="100"/>
     </row>
-    <row r="333" spans="2:2" s="121" customFormat="1">
+    <row r="333" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="100"/>
     </row>
-    <row r="334" spans="2:2" s="121" customFormat="1">
+    <row r="334" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="100"/>
     </row>
-    <row r="335" spans="2:2" s="121" customFormat="1">
+    <row r="335" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="100"/>
     </row>
-    <row r="336" spans="2:2" s="121" customFormat="1">
+    <row r="336" spans="2:2" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="100"/>
     </row>
-    <row r="337" spans="2:23" s="121" customFormat="1">
+    <row r="337" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="100"/>
     </row>
-    <row r="338" spans="2:23" s="121" customFormat="1">
+    <row r="338" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="100"/>
     </row>
-    <row r="339" spans="2:23" s="121" customFormat="1">
+    <row r="339" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="100"/>
     </row>
-    <row r="340" spans="2:23" s="121" customFormat="1">
+    <row r="340" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="100"/>
     </row>
-    <row r="341" spans="2:23" s="121" customFormat="1">
+    <row r="341" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="100"/>
     </row>
-    <row r="342" spans="2:23" s="121" customFormat="1">
+    <row r="342" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="100"/>
     </row>
-    <row r="343" spans="2:23" s="121" customFormat="1">
+    <row r="343" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="100"/>
     </row>
-    <row r="344" spans="2:23" s="121" customFormat="1">
+    <row r="344" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="100"/>
     </row>
-    <row r="345" spans="2:23" s="121" customFormat="1">
+    <row r="345" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="100"/>
     </row>
-    <row r="346" spans="2:23" s="121" customFormat="1">
+    <row r="346" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="100"/>
     </row>
-    <row r="347" spans="2:23" s="121" customFormat="1">
+    <row r="347" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="100"/>
     </row>
-    <row r="348" spans="2:23" s="121" customFormat="1">
+    <row r="348" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="100"/>
     </row>
-    <row r="349" spans="2:23" s="121" customFormat="1" ht="16" thickBot="1">
+    <row r="349" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B349" s="100"/>
     </row>
-    <row r="350" spans="2:23" s="121" customFormat="1" ht="96" thickBot="1">
+    <row r="350" spans="2:23" s="121" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B350" s="100"/>
       <c r="O350" s="123"/>
       <c r="P350" s="149" t="s">
@@ -9906,7 +9744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="351" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="351" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="100"/>
       <c r="O351" s="125" t="s">
         <v>73</v>
@@ -9922,7 +9760,7 @@
       <c r="V351" s="127"/>
       <c r="W351" s="128"/>
     </row>
-    <row r="352" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="352" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="100"/>
       <c r="F352" s="121" t="s">
         <v>43</v>
@@ -9953,7 +9791,7 @@
       <c r="V352" s="131"/>
       <c r="W352" s="132"/>
     </row>
-    <row r="353" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="353" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="100"/>
       <c r="F353" s="121" t="s">
         <v>44</v>
@@ -9981,7 +9819,7 @@
       <c r="V353" s="131"/>
       <c r="W353" s="132"/>
     </row>
-    <row r="354" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="354" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="100"/>
       <c r="F354" s="121" t="s">
         <v>47</v>
@@ -10011,7 +9849,7 @@
       <c r="V354" s="136"/>
       <c r="W354" s="132"/>
     </row>
-    <row r="355" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="355" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="100"/>
       <c r="F355" s="121" t="s">
         <v>46</v>
@@ -10041,7 +9879,7 @@
       <c r="V355" s="131"/>
       <c r="W355" s="137"/>
     </row>
-    <row r="356" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1">
+    <row r="356" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="100"/>
       <c r="F356" s="121" t="s">
         <v>39</v>
@@ -10065,7 +9903,7 @@
       <c r="V356" s="139"/>
       <c r="W356" s="140"/>
     </row>
-    <row r="357" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="357" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="100"/>
       <c r="F357" s="121" t="s">
         <v>45</v>
@@ -10090,7 +9928,7 @@
       <c r="V357" s="127"/>
       <c r="W357" s="128"/>
     </row>
-    <row r="358" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="358" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="100"/>
       <c r="O358" s="129" t="s">
         <v>74</v>
@@ -10106,7 +9944,7 @@
       <c r="V358" s="131"/>
       <c r="W358" s="132"/>
     </row>
-    <row r="359" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="359" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="100"/>
       <c r="O359" s="129" t="s">
         <v>76</v>
@@ -10126,7 +9964,7 @@
       <c r="V359" s="131"/>
       <c r="W359" s="132"/>
     </row>
-    <row r="360" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="360" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="100"/>
       <c r="O360" s="129" t="s">
         <v>78</v>
@@ -10140,7 +9978,7 @@
       <c r="V360" s="131"/>
       <c r="W360" s="132"/>
     </row>
-    <row r="361" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="361" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="100"/>
       <c r="O361" s="129" t="s">
         <v>79</v>
@@ -10160,7 +9998,7 @@
       <c r="V361" s="131"/>
       <c r="W361" s="137"/>
     </row>
-    <row r="362" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1">
+    <row r="362" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B362" s="100"/>
       <c r="O362" s="120" t="s">
         <v>80</v>
@@ -10176,7 +10014,7 @@
       <c r="V362" s="139"/>
       <c r="W362" s="140"/>
     </row>
-    <row r="363" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="363" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="100"/>
       <c r="O363" s="125" t="s">
         <v>82</v>
@@ -10192,7 +10030,7 @@
       <c r="V363" s="127"/>
       <c r="W363" s="128"/>
     </row>
-    <row r="364" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="364" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="100"/>
       <c r="O364" s="129" t="s">
         <v>74</v>
@@ -10212,7 +10050,7 @@
       <c r="V364" s="131"/>
       <c r="W364" s="137"/>
     </row>
-    <row r="365" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="365" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="100"/>
       <c r="O365" s="129" t="s">
         <v>76</v>
@@ -10228,7 +10066,7 @@
       <c r="V365" s="131"/>
       <c r="W365" s="137"/>
     </row>
-    <row r="366" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="366" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="100"/>
       <c r="O366" s="129" t="s">
         <v>78</v>
@@ -10242,7 +10080,7 @@
       <c r="V366" s="131"/>
       <c r="W366" s="137"/>
     </row>
-    <row r="367" spans="2:23" s="121" customFormat="1" ht="16">
+    <row r="367" spans="2:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="100"/>
       <c r="O367" s="129" t="s">
         <v>79</v>
@@ -10262,7 +10100,7 @@
       <c r="V367" s="131"/>
       <c r="W367" s="137"/>
     </row>
-    <row r="368" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1">
+    <row r="368" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B368" s="100"/>
       <c r="O368" s="120" t="s">
         <v>80</v>
@@ -10276,7 +10114,7 @@
       <c r="V368" s="139"/>
       <c r="W368" s="140"/>
     </row>
-    <row r="369" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="369" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="100"/>
       <c r="O369" s="125" t="s">
         <v>83</v>
@@ -10292,7 +10130,7 @@
       <c r="V369" s="144"/>
       <c r="W369" s="145"/>
     </row>
-    <row r="370" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="370" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="100"/>
       <c r="O370" s="129" t="s">
         <v>74</v>
@@ -10308,7 +10146,7 @@
       <c r="V370" s="131"/>
       <c r="W370" s="137"/>
     </row>
-    <row r="371" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="371" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="100"/>
       <c r="O371" s="129" t="s">
         <v>76</v>
@@ -10328,7 +10166,7 @@
         <v>2.8648369907752248E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="372" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="100"/>
       <c r="O372" s="129" t="s">
         <v>78</v>
@@ -10342,7 +10180,7 @@
       <c r="V372" s="131"/>
       <c r="W372" s="137"/>
     </row>
-    <row r="373" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="373" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="100"/>
       <c r="O373" s="129" t="s">
         <v>79</v>
@@ -10362,7 +10200,7 @@
       <c r="V373" s="131"/>
       <c r="W373" s="137"/>
     </row>
-    <row r="374" spans="1:23" s="121" customFormat="1" ht="17" thickBot="1">
+    <row r="374" spans="1:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B374" s="100"/>
       <c r="O374" s="120" t="s">
         <v>80</v>
@@ -10380,7 +10218,7 @@
       <c r="V374" s="147"/>
       <c r="W374" s="148"/>
     </row>
-    <row r="375" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="375" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="100"/>
       <c r="O375" s="125" t="s">
         <v>84</v>
@@ -10396,7 +10234,7 @@
       <c r="V375" s="127"/>
       <c r="W375" s="128"/>
     </row>
-    <row r="376" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="376" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="100"/>
       <c r="O376" s="129" t="s">
         <v>74</v>
@@ -10412,7 +10250,7 @@
       <c r="V376" s="131"/>
       <c r="W376" s="132"/>
     </row>
-    <row r="377" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="377" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="100"/>
       <c r="O377" s="129" t="s">
         <v>76</v>
@@ -10428,7 +10266,7 @@
       <c r="V377" s="131"/>
       <c r="W377" s="132"/>
     </row>
-    <row r="378" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="378" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="100"/>
       <c r="O378" s="129" t="s">
         <v>78</v>
@@ -10442,7 +10280,7 @@
       <c r="V378" s="131"/>
       <c r="W378" s="132"/>
     </row>
-    <row r="379" spans="1:23" s="121" customFormat="1" ht="16">
+    <row r="379" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="100"/>
       <c r="O379" s="129" t="s">
         <v>79</v>
@@ -10456,7 +10294,7 @@
       <c r="V379" s="131"/>
       <c r="W379" s="132"/>
     </row>
-    <row r="380" spans="1:23" s="121" customFormat="1" ht="17" thickBot="1">
+    <row r="380" spans="1:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B380" s="100"/>
       <c r="O380" s="120" t="s">
         <v>80</v>
@@ -10470,16 +10308,16 @@
       <c r="V380" s="139"/>
       <c r="W380" s="140"/>
     </row>
-    <row r="381" spans="1:23" s="121" customFormat="1">
+    <row r="381" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="100"/>
     </row>
-    <row r="382" spans="1:23" s="121" customFormat="1">
+    <row r="382" spans="1:23" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="100"/>
     </row>
-    <row r="383" spans="1:23" s="121" customFormat="1" ht="16" thickBot="1">
+    <row r="383" spans="1:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B383" s="100"/>
     </row>
-    <row r="384" spans="1:23" s="25" customFormat="1" ht="16">
+    <row r="384" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384"/>
       <c r="B384" s="102"/>
       <c r="C384" s="103" t="s">
@@ -10508,7 +10346,7 @@
       <c r="T384" s="103"/>
       <c r="U384" s="103"/>
     </row>
-    <row r="385" spans="2:35" customFormat="1" ht="16">
+    <row r="385" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="100"/>
       <c r="C385" s="112"/>
       <c r="D385" s="109"/>
@@ -10534,7 +10372,7 @@
       <c r="X385" s="109"/>
       <c r="Y385" s="109"/>
     </row>
-    <row r="386" spans="2:35" ht="16">
+    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B386" s="100"/>
       <c r="C386" s="168" t="s">
         <v>138</v>
@@ -10543,7 +10381,7 @@
         <v>139.09</v>
       </c>
       <c r="G386" s="154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H386" s="171" t="s">
         <v>140</v>
@@ -10555,7 +10393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="387" spans="2:35">
+    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B387" s="100"/>
       <c r="F387" s="186">
         <f>'Research data'!G8</f>
@@ -10566,17 +10404,17 @@
       </c>
       <c r="H387" s="169"/>
     </row>
-    <row r="388" spans="2:35">
+    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B388" s="100"/>
       <c r="F388" s="99">
         <f>F387*1000</f>
         <v>21549.999999999996</v>
       </c>
       <c r="G388" s="185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="389" spans="2:35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B389" s="100"/>
       <c r="F389" s="187">
         <f>F386/F388</f>
@@ -10586,19 +10424,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="2:35">
+    <row r="390" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B390" s="100"/>
     </row>
-    <row r="391" spans="2:35">
+    <row r="391" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B391" s="100"/>
     </row>
-    <row r="392" spans="2:35">
+    <row r="392" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B392" s="100"/>
     </row>
-    <row r="393" spans="2:35" ht="16" thickBot="1">
+    <row r="393" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B393" s="100"/>
     </row>
-    <row r="394" spans="2:35" s="198" customFormat="1">
+    <row r="394" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="204"/>
       <c r="C394" s="205" t="s">
         <v>25</v>
@@ -10640,7 +10478,7 @@
       <c r="AH394" s="206"/>
       <c r="AI394" s="206"/>
     </row>
-    <row r="395" spans="2:35" s="198" customFormat="1">
+    <row r="395" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="207"/>
       <c r="C395" s="208"/>
       <c r="D395" s="208"/>
@@ -10676,10 +10514,10 @@
       <c r="AH395" s="208"/>
       <c r="AI395" s="208"/>
     </row>
-    <row r="396" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="396" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="207"/>
       <c r="C396" s="209" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D396" s="210"/>
       <c r="E396" s="210"/>
@@ -10714,7 +10552,7 @@
       <c r="AH396" s="211"/>
       <c r="AI396" s="211"/>
     </row>
-    <row r="397" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="397" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="207"/>
       <c r="C397" s="210"/>
       <c r="D397" s="210"/>
@@ -10750,7 +10588,7 @@
       <c r="AH397" s="211"/>
       <c r="AI397" s="211"/>
     </row>
-    <row r="398" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="398" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="207"/>
       <c r="C398" s="210"/>
       <c r="D398" s="210"/>
@@ -10786,7 +10624,7 @@
       <c r="AH398" s="211"/>
       <c r="AI398" s="211"/>
     </row>
-    <row r="399" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="399" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="207"/>
       <c r="C399" s="210"/>
       <c r="D399" s="210"/>
@@ -10822,7 +10660,7 @@
       <c r="AH399" s="211"/>
       <c r="AI399" s="211"/>
     </row>
-    <row r="400" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="400" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="207"/>
       <c r="C400" s="210"/>
       <c r="D400" s="210"/>
@@ -10858,7 +10696,7 @@
       <c r="AH400" s="211"/>
       <c r="AI400" s="211"/>
     </row>
-    <row r="401" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="401" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="207"/>
       <c r="C401" s="210"/>
       <c r="D401" s="109"/>
@@ -10894,7 +10732,7 @@
       <c r="AH401" s="211"/>
       <c r="AI401" s="211"/>
     </row>
-    <row r="402" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="402" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="207"/>
       <c r="C402" s="210"/>
       <c r="D402" s="109"/>
@@ -10930,7 +10768,7 @@
       <c r="AH402" s="211"/>
       <c r="AI402" s="211"/>
     </row>
-    <row r="403" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="403" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="207"/>
       <c r="C403" s="210"/>
       <c r="D403" s="109"/>
@@ -10966,7 +10804,7 @@
       <c r="AH403" s="211"/>
       <c r="AI403" s="211"/>
     </row>
-    <row r="404" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="404" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="207"/>
       <c r="C404" s="109"/>
       <c r="D404" s="109"/>
@@ -11002,7 +10840,7 @@
       <c r="AH404" s="211"/>
       <c r="AI404" s="211"/>
     </row>
-    <row r="405" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="405" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="207"/>
       <c r="C405" s="109"/>
       <c r="D405" s="109"/>
@@ -11038,7 +10876,7 @@
       <c r="AH405" s="211"/>
       <c r="AI405" s="211"/>
     </row>
-    <row r="406" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="406" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="207"/>
       <c r="C406" s="109"/>
       <c r="D406" s="109"/>
@@ -11074,7 +10912,7 @@
       <c r="AH406" s="211"/>
       <c r="AI406" s="211"/>
     </row>
-    <row r="407" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="407" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="207"/>
       <c r="C407" s="109"/>
       <c r="D407" s="109"/>
@@ -11110,7 +10948,7 @@
       <c r="AH407" s="211"/>
       <c r="AI407" s="211"/>
     </row>
-    <row r="408" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="408" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="207"/>
       <c r="C408" s="109"/>
       <c r="D408" s="109"/>
@@ -11146,7 +10984,7 @@
       <c r="AH408" s="211"/>
       <c r="AI408" s="211"/>
     </row>
-    <row r="409" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="409" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="207"/>
       <c r="C409" s="109"/>
       <c r="D409" s="109"/>
@@ -11182,7 +11020,7 @@
       <c r="AH409" s="211"/>
       <c r="AI409" s="211"/>
     </row>
-    <row r="410" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="410" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="207"/>
       <c r="C410" s="109"/>
       <c r="D410" s="109"/>
@@ -11218,7 +11056,7 @@
       <c r="AH410" s="211"/>
       <c r="AI410" s="211"/>
     </row>
-    <row r="411" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="411" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="207"/>
       <c r="C411" s="109"/>
       <c r="D411" s="109"/>
@@ -11254,7 +11092,7 @@
       <c r="AH411" s="211"/>
       <c r="AI411" s="211"/>
     </row>
-    <row r="412" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="412" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="207"/>
       <c r="C412" s="109"/>
       <c r="D412" s="109"/>
@@ -11290,7 +11128,7 @@
       <c r="AH412" s="211"/>
       <c r="AI412" s="211"/>
     </row>
-    <row r="413" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="413" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="207"/>
       <c r="C413" s="109"/>
       <c r="D413" s="109"/>
@@ -11326,7 +11164,7 @@
       <c r="AH413" s="211"/>
       <c r="AI413" s="211"/>
     </row>
-    <row r="414" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="414" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="207"/>
       <c r="C414" s="109"/>
       <c r="D414" s="109"/>
@@ -11362,7 +11200,7 @@
       <c r="AH414" s="211"/>
       <c r="AI414" s="211"/>
     </row>
-    <row r="415" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="415" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="207"/>
       <c r="C415" s="109"/>
       <c r="D415" s="109"/>
@@ -11398,7 +11236,7 @@
       <c r="AH415" s="211"/>
       <c r="AI415" s="211"/>
     </row>
-    <row r="416" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="416" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="207"/>
       <c r="C416" s="109"/>
       <c r="D416" s="109"/>
@@ -11434,7 +11272,7 @@
       <c r="AH416" s="211"/>
       <c r="AI416" s="211"/>
     </row>
-    <row r="417" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="417" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="207"/>
       <c r="C417" s="109"/>
       <c r="D417" s="210">
@@ -11446,10 +11284,10 @@
         <v>112000</v>
       </c>
       <c r="H417" s="210" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I417" s="210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J417" s="109"/>
       <c r="K417" s="109"/>
@@ -11478,7 +11316,7 @@
       <c r="AH417" s="211"/>
       <c r="AI417" s="211"/>
     </row>
-    <row r="418" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="418" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="207"/>
       <c r="C418" s="109"/>
       <c r="D418" s="210"/>
@@ -11489,7 +11327,7 @@
         <v>1000000</v>
       </c>
       <c r="H418" s="210" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I418" s="210"/>
       <c r="J418" s="109"/>
@@ -11519,7 +11357,7 @@
       <c r="AH418" s="211"/>
       <c r="AI418" s="211"/>
     </row>
-    <row r="419" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="419" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="207"/>
       <c r="C419" s="109"/>
       <c r="D419" s="210"/>
@@ -11530,7 +11368,7 @@
         <v>0.112</v>
       </c>
       <c r="H419" s="210" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I419" s="210"/>
       <c r="J419" s="109"/>
@@ -11560,7 +11398,7 @@
       <c r="AH419" s="211"/>
       <c r="AI419" s="211"/>
     </row>
-    <row r="420" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="420" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="207"/>
       <c r="C420" s="109"/>
       <c r="D420" s="109"/>
@@ -11596,7 +11434,7 @@
       <c r="AH420" s="211"/>
       <c r="AI420" s="211"/>
     </row>
-    <row r="421" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="421" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="207"/>
       <c r="C421" s="211"/>
       <c r="D421" s="211"/>
@@ -11632,7 +11470,7 @@
       <c r="AH421" s="211"/>
       <c r="AI421" s="211"/>
     </row>
-    <row r="422" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="422" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="207"/>
       <c r="C422" s="211"/>
       <c r="D422" s="211"/>
@@ -11668,7 +11506,7 @@
       <c r="AH422" s="211"/>
       <c r="AI422" s="211"/>
     </row>
-    <row r="423" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="423" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="207"/>
       <c r="C423" s="211"/>
       <c r="D423" s="211"/>
@@ -11704,7 +11542,7 @@
       <c r="AH423" s="211"/>
       <c r="AI423" s="211"/>
     </row>
-    <row r="424" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="424" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="207"/>
       <c r="C424" s="211"/>
       <c r="D424" s="211"/>
@@ -11740,7 +11578,7 @@
       <c r="AH424" s="211"/>
       <c r="AI424" s="211"/>
     </row>
-    <row r="425" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="425" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="207"/>
       <c r="C425" s="211"/>
       <c r="D425" s="211"/>
@@ -11776,7 +11614,7 @@
       <c r="AH425" s="211"/>
       <c r="AI425" s="211"/>
     </row>
-    <row r="426" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="426" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="207"/>
       <c r="C426" s="211"/>
       <c r="D426" s="211"/>
@@ -11812,7 +11650,7 @@
       <c r="AH426" s="211"/>
       <c r="AI426" s="211"/>
     </row>
-    <row r="427" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="427" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="207"/>
       <c r="C427" s="211"/>
       <c r="D427" s="211"/>
@@ -11848,7 +11686,7 @@
       <c r="AH427" s="211"/>
       <c r="AI427" s="211"/>
     </row>
-    <row r="428" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="428" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="207"/>
       <c r="C428" s="211"/>
       <c r="D428" s="211"/>
@@ -11884,7 +11722,7 @@
       <c r="AH428" s="211"/>
       <c r="AI428" s="211"/>
     </row>
-    <row r="429" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="429" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="207"/>
       <c r="C429" s="211"/>
       <c r="D429" s="211"/>
@@ -11920,7 +11758,7 @@
       <c r="AH429" s="211"/>
       <c r="AI429" s="211"/>
     </row>
-    <row r="430" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="430" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="207"/>
       <c r="C430" s="211"/>
       <c r="D430" s="211"/>
@@ -11956,7 +11794,7 @@
       <c r="AH430" s="211"/>
       <c r="AI430" s="211"/>
     </row>
-    <row r="431" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="431" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="207"/>
       <c r="C431" s="211"/>
       <c r="D431" s="211"/>
@@ -11992,7 +11830,7 @@
       <c r="AH431" s="211"/>
       <c r="AI431" s="211"/>
     </row>
-    <row r="432" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="432" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="207"/>
       <c r="C432" s="211"/>
       <c r="D432" s="211"/>
@@ -12028,7 +11866,7 @@
       <c r="AH432" s="211"/>
       <c r="AI432" s="211"/>
     </row>
-    <row r="433" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="433" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="207"/>
       <c r="C433" s="211"/>
       <c r="D433" s="211"/>
@@ -12064,7 +11902,7 @@
       <c r="AH433" s="211"/>
       <c r="AI433" s="211"/>
     </row>
-    <row r="434" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="434" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="207"/>
       <c r="C434" s="211"/>
       <c r="D434" s="211"/>
@@ -12100,7 +11938,7 @@
       <c r="AH434" s="211"/>
       <c r="AI434" s="211"/>
     </row>
-    <row r="435" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="435" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="207"/>
       <c r="C435" s="211"/>
       <c r="D435" s="211"/>
@@ -12136,7 +11974,7 @@
       <c r="AH435" s="211"/>
       <c r="AI435" s="211"/>
     </row>
-    <row r="436" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="436" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="207"/>
       <c r="C436" s="211"/>
       <c r="D436" s="211"/>
@@ -12172,7 +12010,7 @@
       <c r="AH436" s="211"/>
       <c r="AI436" s="211"/>
     </row>
-    <row r="437" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="437" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="207"/>
       <c r="C437" s="211"/>
       <c r="D437" s="211"/>
@@ -12208,7 +12046,7 @@
       <c r="AH437" s="211"/>
       <c r="AI437" s="211"/>
     </row>
-    <row r="438" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="438" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="207"/>
       <c r="C438" s="211"/>
       <c r="D438" s="211"/>
@@ -12244,7 +12082,7 @@
       <c r="AH438" s="211"/>
       <c r="AI438" s="211"/>
     </row>
-    <row r="439" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="439" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="207"/>
       <c r="C439" s="211"/>
       <c r="D439" s="211"/>
@@ -12280,7 +12118,7 @@
       <c r="AH439" s="211"/>
       <c r="AI439" s="211"/>
     </row>
-    <row r="440" spans="2:35" s="198" customFormat="1" ht="16">
+    <row r="440" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="207"/>
       <c r="C440" s="211"/>
       <c r="D440" s="211"/>
@@ -12323,10 +12161,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/torrified_biomass_pellets.carrier.xlsx
+++ b/carriers_source_analyses/torrified_biomass_pellets.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34800" yWindow="-10140" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="620" yWindow="5140" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
     <sheet name="Notes" sheetId="16" r:id="rId5"/>
+    <sheet name="Exchange_rates" sheetId="17" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="175">
   <si>
     <t>Source</t>
   </si>
@@ -475,16 +475,7 @@
     <t>McKendry</t>
   </si>
   <si>
-    <t>http://www.apxendex.com/index.php?id=315</t>
-  </si>
-  <si>
-    <t>APX ENDEX market info</t>
-  </si>
-  <si>
     <t>this price is obsolete, but market data no longer available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL14 Future Settl. price </t>
   </si>
   <si>
     <t>APX ENDEX</t>
@@ -606,6 +597,36 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>EEX Wood pellets futures</t>
+  </si>
+  <si>
+    <t>https://www.eex.com/en/market-data/energiewende-products/wood-pellets-futures#!/2017/11/01</t>
+  </si>
+  <si>
+    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
+  </si>
+  <si>
+    <t>Exchange rate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>dollar_per_euro</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>Running Month Average</t>
+  </si>
+  <si>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
+  </si>
+  <si>
+    <t>USD/tonne</t>
   </si>
 </sst>
 </file>
@@ -756,6 +777,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,6 +785,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -770,6 +793,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -777,6 +801,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,17 +809,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,6 +836,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,6 +905,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -986,7 +1016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1378,6 +1408,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1784,7 +1845,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2025,7 +2086,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="37" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="396" applyFill="1"/>
@@ -2091,13 +2151,13 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,6 +2172,23 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="400">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -2855,8 +2932,8 @@
       <xdr:rowOff>118234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3034,8 +3111,8 @@
       <xdr:rowOff>164612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>233</xdr:row>
       <xdr:rowOff>21398</xdr:rowOff>
     </xdr:to>
@@ -3081,8 +3158,8 @@
       <xdr:rowOff>149958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600686</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3786</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>167543</xdr:rowOff>
     </xdr:to>
@@ -3128,8 +3205,8 @@
       <xdr:rowOff>51533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>648311</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>611</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>126268</xdr:rowOff>
     </xdr:to>
@@ -3171,13 +3248,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>436</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>438</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3345,28 +3422,6 @@
       </sheetData>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3701,11 +3756,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="22" customWidth="1"/>
     <col min="4" max="4" width="2" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="22"/>
+    <col min="5" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -3728,10 +3783,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3768,13 +3823,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="75"/>
-      <c r="D9" s="180"/>
+      <c r="D9" s="179"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
-      <c r="D10" s="181"/>
+      <c r="D10" s="180"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -3784,7 +3839,7 @@
       <c r="C11" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="180"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -3792,7 +3847,7 @@
       <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="180"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -3800,7 +3855,7 @@
       <c r="C13" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="180"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -3808,13 +3863,13 @@
       <c r="C14" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="181"/>
+      <c r="D14" s="180"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
-      <c r="D15" s="181"/>
+      <c r="D15" s="180"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3824,7 +3879,7 @@
       <c r="C16" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="181"/>
+      <c r="D16" s="180"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -3832,7 +3887,7 @@
       <c r="C17" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="181"/>
+      <c r="D17" s="180"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -3840,7 +3895,7 @@
       <c r="C18" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="181"/>
+      <c r="D18" s="180"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -3848,7 +3903,7 @@
       <c r="C19" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="180"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
@@ -3856,7 +3911,7 @@
       <c r="C20" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="180"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -3864,7 +3919,7 @@
       <c r="C21" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="180"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -3872,23 +3927,23 @@
       <c r="C22" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="181"/>
+      <c r="D22" s="180"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="84"/>
       <c r="C23" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="180"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="30"/>
-      <c r="D24" s="181"/>
+      <c r="D24" s="180"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="182"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="184"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3903,23 +3958,23 @@
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="36" customWidth="1"/>
     <col min="3" max="3" width="46" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="36" customWidth="1"/>
     <col min="7" max="7" width="45" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="36"/>
+    <col min="8" max="8" width="5.1640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -3929,14 +3984,14 @@
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="214" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="218"/>
+      <c r="B2" s="213" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="216"/>
@@ -3944,15 +3999,15 @@
       <c r="D3" s="217"/>
       <c r="E3" s="217"/>
       <c r="F3" s="217"/>
-      <c r="G3" s="219"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="222"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="221"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="34"/>
@@ -4003,7 +4058,7 @@
     <row r="9" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="19"/>
@@ -4030,7 +4085,7 @@
         <v>41</v>
       </c>
       <c r="H10" s="31"/>
-      <c r="I10" s="177" t="s">
+      <c r="I10" s="176" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="44"/>
@@ -4043,22 +4098,22 @@
       <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="190">
+      <c r="E11" s="189">
         <f>'Research data'!G7</f>
-        <v>6.4542923433874725E-3</v>
+        <v>6.2587002010933146E-3</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="104"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="177" t="s">
-        <v>141</v>
+      <c r="I11" s="176" t="s">
+        <v>138</v>
       </c>
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="104" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>51</v>
@@ -4070,52 +4125,52 @@
       <c r="F12" s="35"/>
       <c r="G12" s="104"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="177" t="s">
+      <c r="I12" s="176" t="s">
         <v>135</v>
       </c>
       <c r="J12" s="44"/>
     </row>
     <row r="13" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="190" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="192">
+      <c r="E13" s="191">
         <f>'[2]Research data'!G9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="191"/>
-      <c r="G13" s="193" t="s">
-        <v>155</v>
+      <c r="F13" s="190"/>
+      <c r="G13" s="192" t="s">
+        <v>152</v>
       </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="194" t="s">
-        <v>156</v>
+      <c r="I13" s="193" t="s">
+        <v>153</v>
       </c>
       <c r="J13" s="44"/>
     </row>
     <row r="14" spans="2:11" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
-      <c r="C14" s="191" t="s">
-        <v>157</v>
+      <c r="C14" s="190" t="s">
+        <v>154</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="195">
+      <c r="E14" s="194">
         <f>'Research data'!G10</f>
         <v>0.112</v>
       </c>
-      <c r="F14" s="191"/>
-      <c r="G14" s="193" t="s">
-        <v>158</v>
+      <c r="F14" s="190"/>
+      <c r="G14" s="192" t="s">
+        <v>155</v>
       </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="194" t="s">
-        <v>159</v>
+      <c r="I14" s="193" t="s">
+        <v>156</v>
       </c>
       <c r="J14" s="44"/>
     </row>
@@ -4134,7 +4189,7 @@
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="176" t="s">
         <v>135</v>
       </c>
       <c r="J15" s="92"/>
@@ -4173,26 +4228,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="63" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="63" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="63" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="64" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="63" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="63" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="63" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="63" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="64" customWidth="1"/>
     <col min="10" max="10" width="3" style="64" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="64" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="64" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="64" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="64" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="64" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="64" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="64" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="64" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="64" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="64" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="64" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="64" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="64" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="64" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="64" customWidth="1"/>
     <col min="20" max="20" width="60" style="63" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="63"/>
+    <col min="21" max="16384" width="10.83203125" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4248,10 +4303,10 @@
       </c>
       <c r="P3" s="62"/>
       <c r="Q3" s="62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S3" s="62"/>
       <c r="T3" s="1" t="s">
@@ -4347,9 +4402,9 @@
       <c r="F7" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="189">
+      <c r="G7" s="188">
         <f>Q7</f>
-        <v>6.4542923433874725E-3</v>
+        <v>6.2587002010933146E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4360,20 +4415,20 @@
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="188">
-        <f>Notes!F389</f>
-        <v>6.4542923433874725E-3</v>
-      </c>
-      <c r="R7" s="196"/>
+      <c r="Q7" s="187">
+        <f>Notes!F391</f>
+        <v>6.2587002010933146E-3</v>
+      </c>
+      <c r="R7" s="195"/>
       <c r="S7" s="16"/>
       <c r="T7" s="167" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="107" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" s="107" t="s">
         <v>50</v>
@@ -4438,8 +4493,8 @@
     </row>
     <row r="10" spans="2:20" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="197" t="s">
-        <v>160</v>
+      <c r="C10" s="196" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="108" t="s">
         <v>39</v>
@@ -4464,8 +4519,8 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="213">
-        <f>Notes!G419</f>
+      <c r="R10" s="212">
+        <f>Notes!G421</f>
         <v>0.112</v>
       </c>
       <c r="S10" s="16"/>
@@ -4503,7 +4558,7 @@
       <c r="P11" s="16"/>
       <c r="S11" s="16"/>
       <c r="T11" s="167" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -4541,22 +4596,22 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E7" sqref="E7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="46" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="46" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="46"/>
+    <col min="7" max="7" width="10.33203125" style="46" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4648,14 +4703,14 @@
       <c r="C7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="168" t="s">
-        <v>138</v>
+      <c r="E7" s="222" t="s">
+        <v>165</v>
       </c>
       <c r="H7" s="46">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -4664,7 +4719,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="118" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E9" s="121" t="s">
         <v>90</v>
@@ -4673,7 +4728,7 @@
         <v>2008</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -4684,26 +4739,26 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
-      <c r="C11" s="199" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="201"/>
+      <c r="C11" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="199"/>
+      <c r="E11" s="200" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="200"/>
       <c r="G11" s="54" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
-      <c r="K11" s="202" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="203"/>
+      <c r="K11" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="202"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
@@ -4715,7 +4770,7 @@
         <v>2002</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -4733,7 +4788,7 @@
         <v>2010</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -4748,7 +4803,7 @@
         <v>2010</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -4767,10 +4822,10 @@
       <c r="G19" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="174" t="s">
+      <c r="H19" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="174" t="s">
+      <c r="I19" s="173" t="s">
         <v>67</v>
       </c>
       <c r="J19" s="55"/>
@@ -4783,8 +4838,8 @@
       <c r="B20" s="51"/>
       <c r="E20" s="116"/>
       <c r="F20" s="116"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
@@ -4796,10 +4851,10 @@
       <c r="G21" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="176">
+      <c r="H21" s="175">
         <v>2011</v>
       </c>
-      <c r="I21" s="176">
+      <c r="I21" s="175">
         <v>2011</v>
       </c>
       <c r="J21" s="59"/>
@@ -4821,23 +4876,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI440"/>
+  <dimension ref="A1:AI442"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401:I404"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="H393" sqref="H393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="99" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="99" customWidth="1"/>
     <col min="2" max="2" width="5" style="99" customWidth="1"/>
     <col min="3" max="5" width="7" style="99"/>
-    <col min="6" max="6" width="12" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="99" customWidth="1"/>
     <col min="7" max="7" width="7" style="99"/>
-    <col min="8" max="8" width="8.140625" style="99" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="99" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="99" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="99" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="99" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="99" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="99" customWidth="1"/>
     <col min="12" max="16384" width="7" style="99"/>
   </cols>
   <sheetData>
@@ -5729,7 +5784,7 @@
     <row r="66" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="100"/>
       <c r="D66" s="154" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F66" s="122"/>
     </row>
@@ -5748,7 +5803,7 @@
       <c r="H68" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="L68" s="178"/>
+      <c r="L68" s="177"/>
     </row>
     <row r="69" spans="2:12" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="100"/>
@@ -5880,7 +5935,7 @@
         <v>51</v>
       </c>
       <c r="J107" s="161" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="2:10" s="121" customFormat="1" x14ac:dyDescent="0.2">
@@ -5906,7 +5961,7 @@
       <c r="F114" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="H114" s="179">
+      <c r="H114" s="178">
         <f>(0.9+0.95)/2</f>
         <v>0.92500000000000004</v>
       </c>
@@ -9718,7 +9773,7 @@
     <row r="349" spans="2:23" s="121" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B349" s="100"/>
     </row>
-    <row r="350" spans="2:23" s="121" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:23" s="121" customFormat="1" ht="151" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B350" s="100"/>
       <c r="O350" s="123"/>
       <c r="P350" s="149" t="s">
@@ -10346,7 +10401,7 @@
       <c r="T384" s="103"/>
       <c r="U384" s="103"/>
     </row>
-    <row r="385" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B385" s="100"/>
       <c r="C385" s="112"/>
       <c r="D385" s="109"/>
@@ -10372,231 +10427,217 @@
       <c r="X385" s="109"/>
       <c r="Y385" s="109"/>
     </row>
-    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B386" s="100"/>
-      <c r="C386" s="168" t="s">
-        <v>138</v>
-      </c>
-      <c r="F386" s="170">
-        <v>139.09</v>
-      </c>
-      <c r="G386" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="H386" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="I386" s="172">
-        <v>41327</v>
-      </c>
-      <c r="J386" s="173" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="C386" s="222" t="s">
+        <v>165</v>
+      </c>
+      <c r="D386" s="109"/>
+      <c r="E386" s="109"/>
+      <c r="F386" s="230">
+        <v>158.06</v>
+      </c>
+      <c r="G386" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="H386" s="109"/>
+      <c r="I386" s="109"/>
+      <c r="J386" s="172" t="s">
+        <v>166</v>
+      </c>
+      <c r="K386" s="109"/>
+      <c r="L386" s="109"/>
+      <c r="M386" s="109"/>
+      <c r="N386" s="109"/>
+      <c r="O386" s="109"/>
+      <c r="P386" s="109"/>
+      <c r="Q386" s="109"/>
+      <c r="R386" s="109"/>
+      <c r="S386" s="109"/>
+      <c r="T386" s="109"/>
+      <c r="U386" s="109"/>
+      <c r="V386" s="109"/>
+      <c r="W386" s="109"/>
+      <c r="X386" s="109"/>
+      <c r="Y386" s="109"/>
+    </row>
+    <row r="387" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B387" s="100"/>
-      <c r="F387" s="186">
+      <c r="C387" s="112"/>
+      <c r="D387" s="109"/>
+      <c r="E387" s="109"/>
+      <c r="F387" s="230">
+        <f>Exchange_rates!E9</f>
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="G387" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="H387" s="109"/>
+      <c r="I387" s="109"/>
+      <c r="J387" s="109"/>
+      <c r="K387" s="109"/>
+      <c r="L387" s="109"/>
+      <c r="M387" s="109"/>
+      <c r="N387" s="109"/>
+      <c r="O387" s="109"/>
+      <c r="P387" s="109"/>
+      <c r="Q387" s="109"/>
+      <c r="R387" s="109"/>
+      <c r="S387" s="109"/>
+      <c r="T387" s="109"/>
+      <c r="U387" s="109"/>
+      <c r="V387" s="109"/>
+      <c r="W387" s="109"/>
+      <c r="X387" s="109"/>
+      <c r="Y387" s="109"/>
+    </row>
+    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B388" s="100"/>
+      <c r="D388" s="222"/>
+      <c r="E388" s="222"/>
+      <c r="F388" s="169">
+        <f>F386/F387</f>
+        <v>134.8749893335609</v>
+      </c>
+      <c r="G388" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="H388" s="170"/>
+      <c r="I388" s="171"/>
+    </row>
+    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B389" s="100"/>
+      <c r="F389" s="185">
         <f>'Research data'!G8</f>
         <v>21.549999999999997</v>
       </c>
-      <c r="G387" s="154" t="s">
+      <c r="G389" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="H387" s="169"/>
-    </row>
-    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B388" s="100"/>
-      <c r="F388" s="99">
-        <f>F387*1000</f>
-        <v>21549.999999999996</v>
-      </c>
-      <c r="G388" s="185" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B389" s="100"/>
-      <c r="F389" s="187">
-        <f>F386/F388</f>
-        <v>6.4542923433874725E-3</v>
-      </c>
-      <c r="G389" s="185" t="s">
-        <v>52</v>
-      </c>
+      <c r="H389" s="168"/>
     </row>
     <row r="390" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B390" s="100"/>
+      <c r="F390" s="99">
+        <f>F389*1000</f>
+        <v>21549.999999999996</v>
+      </c>
+      <c r="G390" s="184" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="391" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B391" s="100"/>
+      <c r="F391" s="186">
+        <f>F388/F390</f>
+        <v>6.2587002010933146E-3</v>
+      </c>
+      <c r="G391" s="184" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="392" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B392" s="100"/>
     </row>
-    <row r="393" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B393" s="100"/>
     </row>
-    <row r="394" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="204"/>
-      <c r="C394" s="205" t="s">
+    <row r="394" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B394" s="100"/>
+    </row>
+    <row r="395" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="100"/>
+    </row>
+    <row r="396" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="203"/>
+      <c r="C396" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="D394" s="205" t="s">
+      <c r="D396" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="E394" s="205"/>
-      <c r="F394" s="205" t="s">
+      <c r="E396" s="204"/>
+      <c r="F396" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="G394" s="205"/>
-      <c r="H394" s="205"/>
-      <c r="I394" s="205"/>
-      <c r="J394" s="205"/>
-      <c r="K394" s="205"/>
-      <c r="L394" s="205"/>
-      <c r="M394" s="205"/>
-      <c r="N394" s="205"/>
-      <c r="O394" s="205"/>
-      <c r="P394" s="205"/>
-      <c r="Q394" s="205"/>
-      <c r="R394" s="205"/>
-      <c r="S394" s="205"/>
-      <c r="T394" s="205"/>
-      <c r="U394" s="205"/>
-      <c r="V394" s="206"/>
-      <c r="W394" s="206"/>
-      <c r="X394" s="206"/>
-      <c r="Y394" s="206"/>
-      <c r="Z394" s="206"/>
-      <c r="AA394" s="206"/>
-      <c r="AB394" s="206"/>
-      <c r="AC394" s="206"/>
-      <c r="AD394" s="206"/>
-      <c r="AE394" s="206"/>
-      <c r="AF394" s="206"/>
-      <c r="AG394" s="206"/>
-      <c r="AH394" s="206"/>
-      <c r="AI394" s="206"/>
-    </row>
-    <row r="395" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="207"/>
-      <c r="C395" s="208"/>
-      <c r="D395" s="208"/>
-      <c r="E395" s="208"/>
-      <c r="F395" s="208"/>
-      <c r="G395" s="208"/>
-      <c r="H395" s="208"/>
-      <c r="I395" s="208"/>
-      <c r="J395" s="208"/>
-      <c r="K395" s="208"/>
-      <c r="L395" s="208"/>
-      <c r="M395" s="208"/>
-      <c r="N395" s="208"/>
-      <c r="O395" s="208"/>
-      <c r="P395" s="208"/>
-      <c r="Q395" s="208"/>
-      <c r="R395" s="208"/>
-      <c r="S395" s="208"/>
-      <c r="T395" s="208"/>
-      <c r="U395" s="208"/>
-      <c r="V395" s="208"/>
-      <c r="W395" s="208"/>
-      <c r="X395" s="208"/>
-      <c r="Y395" s="208"/>
-      <c r="Z395" s="208"/>
-      <c r="AA395" s="208"/>
-      <c r="AB395" s="208"/>
-      <c r="AC395" s="208"/>
-      <c r="AD395" s="208"/>
-      <c r="AE395" s="208"/>
-      <c r="AF395" s="208"/>
-      <c r="AG395" s="208"/>
-      <c r="AH395" s="208"/>
-      <c r="AI395" s="208"/>
-    </row>
-    <row r="396" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="207"/>
-      <c r="C396" s="209" t="s">
-        <v>163</v>
-      </c>
-      <c r="D396" s="210"/>
-      <c r="E396" s="210"/>
-      <c r="F396" s="210"/>
-      <c r="G396" s="210"/>
-      <c r="H396" s="210"/>
-      <c r="I396" s="210"/>
-      <c r="J396" s="109"/>
-      <c r="K396" s="109"/>
-      <c r="L396" s="109"/>
-      <c r="M396" s="109"/>
-      <c r="N396" s="109"/>
-      <c r="O396" s="109"/>
-      <c r="P396" s="109"/>
-      <c r="Q396" s="109"/>
-      <c r="R396" s="109"/>
-      <c r="S396" s="109"/>
-      <c r="T396" s="109"/>
-      <c r="U396" s="109"/>
-      <c r="V396" s="109"/>
-      <c r="W396" s="109"/>
-      <c r="X396" s="109"/>
-      <c r="Y396" s="109"/>
-      <c r="Z396" s="211"/>
-      <c r="AA396" s="211"/>
-      <c r="AB396" s="211"/>
-      <c r="AC396" s="211"/>
-      <c r="AD396" s="211"/>
-      <c r="AE396" s="211"/>
-      <c r="AF396" s="211"/>
-      <c r="AG396" s="211"/>
-      <c r="AH396" s="211"/>
-      <c r="AI396" s="211"/>
-    </row>
-    <row r="397" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="207"/>
-      <c r="C397" s="210"/>
-      <c r="D397" s="210"/>
-      <c r="E397" s="210"/>
-      <c r="F397" s="210"/>
-      <c r="G397" s="210"/>
-      <c r="H397" s="210"/>
-      <c r="I397" s="210"/>
-      <c r="J397" s="109"/>
-      <c r="K397" s="109"/>
-      <c r="L397" s="109"/>
-      <c r="M397" s="109"/>
-      <c r="N397" s="109"/>
-      <c r="O397" s="109"/>
-      <c r="P397" s="109"/>
-      <c r="Q397" s="109"/>
-      <c r="R397" s="109"/>
-      <c r="S397" s="109"/>
-      <c r="T397" s="109"/>
-      <c r="U397" s="109"/>
-      <c r="V397" s="109"/>
-      <c r="W397" s="109"/>
-      <c r="X397" s="109"/>
-      <c r="Y397" s="109"/>
-      <c r="Z397" s="211"/>
-      <c r="AA397" s="211"/>
-      <c r="AB397" s="211"/>
-      <c r="AC397" s="211"/>
-      <c r="AD397" s="211"/>
-      <c r="AE397" s="211"/>
-      <c r="AF397" s="211"/>
-      <c r="AG397" s="211"/>
-      <c r="AH397" s="211"/>
-      <c r="AI397" s="211"/>
-    </row>
-    <row r="398" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="207"/>
-      <c r="C398" s="210"/>
-      <c r="D398" s="210"/>
-      <c r="E398" s="210"/>
-      <c r="F398" s="210"/>
-      <c r="G398" s="210"/>
-      <c r="H398" s="210"/>
-      <c r="I398" s="210"/>
+      <c r="G396" s="204"/>
+      <c r="H396" s="204"/>
+      <c r="I396" s="204"/>
+      <c r="J396" s="204"/>
+      <c r="K396" s="204"/>
+      <c r="L396" s="204"/>
+      <c r="M396" s="204"/>
+      <c r="N396" s="204"/>
+      <c r="O396" s="204"/>
+      <c r="P396" s="204"/>
+      <c r="Q396" s="204"/>
+      <c r="R396" s="204"/>
+      <c r="S396" s="204"/>
+      <c r="T396" s="204"/>
+      <c r="U396" s="204"/>
+      <c r="V396" s="205"/>
+      <c r="W396" s="205"/>
+      <c r="X396" s="205"/>
+      <c r="Y396" s="205"/>
+      <c r="Z396" s="205"/>
+      <c r="AA396" s="205"/>
+      <c r="AB396" s="205"/>
+      <c r="AC396" s="205"/>
+      <c r="AD396" s="205"/>
+      <c r="AE396" s="205"/>
+      <c r="AF396" s="205"/>
+      <c r="AG396" s="205"/>
+      <c r="AH396" s="205"/>
+      <c r="AI396" s="205"/>
+    </row>
+    <row r="397" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="206"/>
+      <c r="C397" s="207"/>
+      <c r="D397" s="207"/>
+      <c r="E397" s="207"/>
+      <c r="F397" s="207"/>
+      <c r="G397" s="207"/>
+      <c r="H397" s="207"/>
+      <c r="I397" s="207"/>
+      <c r="J397" s="207"/>
+      <c r="K397" s="207"/>
+      <c r="L397" s="207"/>
+      <c r="M397" s="207"/>
+      <c r="N397" s="207"/>
+      <c r="O397" s="207"/>
+      <c r="P397" s="207"/>
+      <c r="Q397" s="207"/>
+      <c r="R397" s="207"/>
+      <c r="S397" s="207"/>
+      <c r="T397" s="207"/>
+      <c r="U397" s="207"/>
+      <c r="V397" s="207"/>
+      <c r="W397" s="207"/>
+      <c r="X397" s="207"/>
+      <c r="Y397" s="207"/>
+      <c r="Z397" s="207"/>
+      <c r="AA397" s="207"/>
+      <c r="AB397" s="207"/>
+      <c r="AC397" s="207"/>
+      <c r="AD397" s="207"/>
+      <c r="AE397" s="207"/>
+      <c r="AF397" s="207"/>
+      <c r="AG397" s="207"/>
+      <c r="AH397" s="207"/>
+      <c r="AI397" s="207"/>
+    </row>
+    <row r="398" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="206"/>
+      <c r="C398" s="208" t="s">
+        <v>160</v>
+      </c>
+      <c r="D398" s="209"/>
+      <c r="E398" s="209"/>
+      <c r="F398" s="209"/>
+      <c r="G398" s="209"/>
+      <c r="H398" s="209"/>
+      <c r="I398" s="209"/>
       <c r="J398" s="109"/>
       <c r="K398" s="109"/>
       <c r="L398" s="109"/>
@@ -10613,26 +10654,26 @@
       <c r="W398" s="109"/>
       <c r="X398" s="109"/>
       <c r="Y398" s="109"/>
-      <c r="Z398" s="211"/>
-      <c r="AA398" s="211"/>
-      <c r="AB398" s="211"/>
-      <c r="AC398" s="211"/>
-      <c r="AD398" s="211"/>
-      <c r="AE398" s="211"/>
-      <c r="AF398" s="211"/>
-      <c r="AG398" s="211"/>
-      <c r="AH398" s="211"/>
-      <c r="AI398" s="211"/>
-    </row>
-    <row r="399" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="207"/>
-      <c r="C399" s="210"/>
-      <c r="D399" s="210"/>
-      <c r="E399" s="210"/>
-      <c r="F399" s="210"/>
-      <c r="G399" s="210"/>
-      <c r="H399" s="210"/>
-      <c r="I399" s="210"/>
+      <c r="Z398" s="210"/>
+      <c r="AA398" s="210"/>
+      <c r="AB398" s="210"/>
+      <c r="AC398" s="210"/>
+      <c r="AD398" s="210"/>
+      <c r="AE398" s="210"/>
+      <c r="AF398" s="210"/>
+      <c r="AG398" s="210"/>
+      <c r="AH398" s="210"/>
+      <c r="AI398" s="210"/>
+    </row>
+    <row r="399" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="206"/>
+      <c r="C399" s="209"/>
+      <c r="D399" s="209"/>
+      <c r="E399" s="209"/>
+      <c r="F399" s="209"/>
+      <c r="G399" s="209"/>
+      <c r="H399" s="209"/>
+      <c r="I399" s="209"/>
       <c r="J399" s="109"/>
       <c r="K399" s="109"/>
       <c r="L399" s="109"/>
@@ -10649,26 +10690,26 @@
       <c r="W399" s="109"/>
       <c r="X399" s="109"/>
       <c r="Y399" s="109"/>
-      <c r="Z399" s="211"/>
-      <c r="AA399" s="211"/>
-      <c r="AB399" s="211"/>
-      <c r="AC399" s="211"/>
-      <c r="AD399" s="211"/>
-      <c r="AE399" s="211"/>
-      <c r="AF399" s="211"/>
-      <c r="AG399" s="211"/>
-      <c r="AH399" s="211"/>
-      <c r="AI399" s="211"/>
-    </row>
-    <row r="400" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="207"/>
-      <c r="C400" s="210"/>
-      <c r="D400" s="210"/>
-      <c r="E400" s="210"/>
-      <c r="F400" s="210"/>
-      <c r="G400" s="210"/>
-      <c r="H400" s="210"/>
-      <c r="I400" s="210"/>
+      <c r="Z399" s="210"/>
+      <c r="AA399" s="210"/>
+      <c r="AB399" s="210"/>
+      <c r="AC399" s="210"/>
+      <c r="AD399" s="210"/>
+      <c r="AE399" s="210"/>
+      <c r="AF399" s="210"/>
+      <c r="AG399" s="210"/>
+      <c r="AH399" s="210"/>
+      <c r="AI399" s="210"/>
+    </row>
+    <row r="400" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="206"/>
+      <c r="C400" s="209"/>
+      <c r="D400" s="209"/>
+      <c r="E400" s="209"/>
+      <c r="F400" s="209"/>
+      <c r="G400" s="209"/>
+      <c r="H400" s="209"/>
+      <c r="I400" s="209"/>
       <c r="J400" s="109"/>
       <c r="K400" s="109"/>
       <c r="L400" s="109"/>
@@ -10685,26 +10726,26 @@
       <c r="W400" s="109"/>
       <c r="X400" s="109"/>
       <c r="Y400" s="109"/>
-      <c r="Z400" s="211"/>
-      <c r="AA400" s="211"/>
-      <c r="AB400" s="211"/>
-      <c r="AC400" s="211"/>
-      <c r="AD400" s="211"/>
-      <c r="AE400" s="211"/>
-      <c r="AF400" s="211"/>
-      <c r="AG400" s="211"/>
-      <c r="AH400" s="211"/>
-      <c r="AI400" s="211"/>
-    </row>
-    <row r="401" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="207"/>
-      <c r="C401" s="210"/>
-      <c r="D401" s="109"/>
-      <c r="E401" s="109"/>
-      <c r="F401" s="109"/>
-      <c r="G401" s="109"/>
-      <c r="H401" s="109"/>
-      <c r="I401" s="109"/>
+      <c r="Z400" s="210"/>
+      <c r="AA400" s="210"/>
+      <c r="AB400" s="210"/>
+      <c r="AC400" s="210"/>
+      <c r="AD400" s="210"/>
+      <c r="AE400" s="210"/>
+      <c r="AF400" s="210"/>
+      <c r="AG400" s="210"/>
+      <c r="AH400" s="210"/>
+      <c r="AI400" s="210"/>
+    </row>
+    <row r="401" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="206"/>
+      <c r="C401" s="209"/>
+      <c r="D401" s="209"/>
+      <c r="E401" s="209"/>
+      <c r="F401" s="209"/>
+      <c r="G401" s="209"/>
+      <c r="H401" s="209"/>
+      <c r="I401" s="209"/>
       <c r="J401" s="109"/>
       <c r="K401" s="109"/>
       <c r="L401" s="109"/>
@@ -10721,26 +10762,26 @@
       <c r="W401" s="109"/>
       <c r="X401" s="109"/>
       <c r="Y401" s="109"/>
-      <c r="Z401" s="211"/>
-      <c r="AA401" s="211"/>
-      <c r="AB401" s="211"/>
-      <c r="AC401" s="211"/>
-      <c r="AD401" s="211"/>
-      <c r="AE401" s="211"/>
-      <c r="AF401" s="211"/>
-      <c r="AG401" s="211"/>
-      <c r="AH401" s="211"/>
-      <c r="AI401" s="211"/>
-    </row>
-    <row r="402" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="207"/>
-      <c r="C402" s="210"/>
-      <c r="D402" s="109"/>
-      <c r="E402" s="109"/>
-      <c r="F402" s="109"/>
-      <c r="G402" s="109"/>
-      <c r="H402" s="109"/>
-      <c r="I402" s="109"/>
+      <c r="Z401" s="210"/>
+      <c r="AA401" s="210"/>
+      <c r="AB401" s="210"/>
+      <c r="AC401" s="210"/>
+      <c r="AD401" s="210"/>
+      <c r="AE401" s="210"/>
+      <c r="AF401" s="210"/>
+      <c r="AG401" s="210"/>
+      <c r="AH401" s="210"/>
+      <c r="AI401" s="210"/>
+    </row>
+    <row r="402" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="206"/>
+      <c r="C402" s="209"/>
+      <c r="D402" s="209"/>
+      <c r="E402" s="209"/>
+      <c r="F402" s="209"/>
+      <c r="G402" s="209"/>
+      <c r="H402" s="209"/>
+      <c r="I402" s="209"/>
       <c r="J402" s="109"/>
       <c r="K402" s="109"/>
       <c r="L402" s="109"/>
@@ -10757,20 +10798,20 @@
       <c r="W402" s="109"/>
       <c r="X402" s="109"/>
       <c r="Y402" s="109"/>
-      <c r="Z402" s="211"/>
-      <c r="AA402" s="211"/>
-      <c r="AB402" s="211"/>
-      <c r="AC402" s="211"/>
-      <c r="AD402" s="211"/>
-      <c r="AE402" s="211"/>
-      <c r="AF402" s="211"/>
-      <c r="AG402" s="211"/>
-      <c r="AH402" s="211"/>
-      <c r="AI402" s="211"/>
-    </row>
-    <row r="403" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="207"/>
-      <c r="C403" s="210"/>
+      <c r="Z402" s="210"/>
+      <c r="AA402" s="210"/>
+      <c r="AB402" s="210"/>
+      <c r="AC402" s="210"/>
+      <c r="AD402" s="210"/>
+      <c r="AE402" s="210"/>
+      <c r="AF402" s="210"/>
+      <c r="AG402" s="210"/>
+      <c r="AH402" s="210"/>
+      <c r="AI402" s="210"/>
+    </row>
+    <row r="403" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="206"/>
+      <c r="C403" s="209"/>
       <c r="D403" s="109"/>
       <c r="E403" s="109"/>
       <c r="F403" s="109"/>
@@ -10793,20 +10834,20 @@
       <c r="W403" s="109"/>
       <c r="X403" s="109"/>
       <c r="Y403" s="109"/>
-      <c r="Z403" s="211"/>
-      <c r="AA403" s="211"/>
-      <c r="AB403" s="211"/>
-      <c r="AC403" s="211"/>
-      <c r="AD403" s="211"/>
-      <c r="AE403" s="211"/>
-      <c r="AF403" s="211"/>
-      <c r="AG403" s="211"/>
-      <c r="AH403" s="211"/>
-      <c r="AI403" s="211"/>
-    </row>
-    <row r="404" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="207"/>
-      <c r="C404" s="109"/>
+      <c r="Z403" s="210"/>
+      <c r="AA403" s="210"/>
+      <c r="AB403" s="210"/>
+      <c r="AC403" s="210"/>
+      <c r="AD403" s="210"/>
+      <c r="AE403" s="210"/>
+      <c r="AF403" s="210"/>
+      <c r="AG403" s="210"/>
+      <c r="AH403" s="210"/>
+      <c r="AI403" s="210"/>
+    </row>
+    <row r="404" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="206"/>
+      <c r="C404" s="209"/>
       <c r="D404" s="109"/>
       <c r="E404" s="109"/>
       <c r="F404" s="109"/>
@@ -10829,20 +10870,20 @@
       <c r="W404" s="109"/>
       <c r="X404" s="109"/>
       <c r="Y404" s="109"/>
-      <c r="Z404" s="211"/>
-      <c r="AA404" s="211"/>
-      <c r="AB404" s="211"/>
-      <c r="AC404" s="211"/>
-      <c r="AD404" s="211"/>
-      <c r="AE404" s="211"/>
-      <c r="AF404" s="211"/>
-      <c r="AG404" s="211"/>
-      <c r="AH404" s="211"/>
-      <c r="AI404" s="211"/>
-    </row>
-    <row r="405" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="207"/>
-      <c r="C405" s="109"/>
+      <c r="Z404" s="210"/>
+      <c r="AA404" s="210"/>
+      <c r="AB404" s="210"/>
+      <c r="AC404" s="210"/>
+      <c r="AD404" s="210"/>
+      <c r="AE404" s="210"/>
+      <c r="AF404" s="210"/>
+      <c r="AG404" s="210"/>
+      <c r="AH404" s="210"/>
+      <c r="AI404" s="210"/>
+    </row>
+    <row r="405" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="206"/>
+      <c r="C405" s="209"/>
       <c r="D405" s="109"/>
       <c r="E405" s="109"/>
       <c r="F405" s="109"/>
@@ -10865,19 +10906,19 @@
       <c r="W405" s="109"/>
       <c r="X405" s="109"/>
       <c r="Y405" s="109"/>
-      <c r="Z405" s="211"/>
-      <c r="AA405" s="211"/>
-      <c r="AB405" s="211"/>
-      <c r="AC405" s="211"/>
-      <c r="AD405" s="211"/>
-      <c r="AE405" s="211"/>
-      <c r="AF405" s="211"/>
-      <c r="AG405" s="211"/>
-      <c r="AH405" s="211"/>
-      <c r="AI405" s="211"/>
-    </row>
-    <row r="406" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="207"/>
+      <c r="Z405" s="210"/>
+      <c r="AA405" s="210"/>
+      <c r="AB405" s="210"/>
+      <c r="AC405" s="210"/>
+      <c r="AD405" s="210"/>
+      <c r="AE405" s="210"/>
+      <c r="AF405" s="210"/>
+      <c r="AG405" s="210"/>
+      <c r="AH405" s="210"/>
+      <c r="AI405" s="210"/>
+    </row>
+    <row r="406" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="206"/>
       <c r="C406" s="109"/>
       <c r="D406" s="109"/>
       <c r="E406" s="109"/>
@@ -10901,19 +10942,19 @@
       <c r="W406" s="109"/>
       <c r="X406" s="109"/>
       <c r="Y406" s="109"/>
-      <c r="Z406" s="211"/>
-      <c r="AA406" s="211"/>
-      <c r="AB406" s="211"/>
-      <c r="AC406" s="211"/>
-      <c r="AD406" s="211"/>
-      <c r="AE406" s="211"/>
-      <c r="AF406" s="211"/>
-      <c r="AG406" s="211"/>
-      <c r="AH406" s="211"/>
-      <c r="AI406" s="211"/>
-    </row>
-    <row r="407" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="207"/>
+      <c r="Z406" s="210"/>
+      <c r="AA406" s="210"/>
+      <c r="AB406" s="210"/>
+      <c r="AC406" s="210"/>
+      <c r="AD406" s="210"/>
+      <c r="AE406" s="210"/>
+      <c r="AF406" s="210"/>
+      <c r="AG406" s="210"/>
+      <c r="AH406" s="210"/>
+      <c r="AI406" s="210"/>
+    </row>
+    <row r="407" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="206"/>
       <c r="C407" s="109"/>
       <c r="D407" s="109"/>
       <c r="E407" s="109"/>
@@ -10937,19 +10978,19 @@
       <c r="W407" s="109"/>
       <c r="X407" s="109"/>
       <c r="Y407" s="109"/>
-      <c r="Z407" s="211"/>
-      <c r="AA407" s="211"/>
-      <c r="AB407" s="211"/>
-      <c r="AC407" s="211"/>
-      <c r="AD407" s="211"/>
-      <c r="AE407" s="211"/>
-      <c r="AF407" s="211"/>
-      <c r="AG407" s="211"/>
-      <c r="AH407" s="211"/>
-      <c r="AI407" s="211"/>
-    </row>
-    <row r="408" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="207"/>
+      <c r="Z407" s="210"/>
+      <c r="AA407" s="210"/>
+      <c r="AB407" s="210"/>
+      <c r="AC407" s="210"/>
+      <c r="AD407" s="210"/>
+      <c r="AE407" s="210"/>
+      <c r="AF407" s="210"/>
+      <c r="AG407" s="210"/>
+      <c r="AH407" s="210"/>
+      <c r="AI407" s="210"/>
+    </row>
+    <row r="408" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="206"/>
       <c r="C408" s="109"/>
       <c r="D408" s="109"/>
       <c r="E408" s="109"/>
@@ -10973,19 +11014,19 @@
       <c r="W408" s="109"/>
       <c r="X408" s="109"/>
       <c r="Y408" s="109"/>
-      <c r="Z408" s="211"/>
-      <c r="AA408" s="211"/>
-      <c r="AB408" s="211"/>
-      <c r="AC408" s="211"/>
-      <c r="AD408" s="211"/>
-      <c r="AE408" s="211"/>
-      <c r="AF408" s="211"/>
-      <c r="AG408" s="211"/>
-      <c r="AH408" s="211"/>
-      <c r="AI408" s="211"/>
-    </row>
-    <row r="409" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="207"/>
+      <c r="Z408" s="210"/>
+      <c r="AA408" s="210"/>
+      <c r="AB408" s="210"/>
+      <c r="AC408" s="210"/>
+      <c r="AD408" s="210"/>
+      <c r="AE408" s="210"/>
+      <c r="AF408" s="210"/>
+      <c r="AG408" s="210"/>
+      <c r="AH408" s="210"/>
+      <c r="AI408" s="210"/>
+    </row>
+    <row r="409" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="206"/>
       <c r="C409" s="109"/>
       <c r="D409" s="109"/>
       <c r="E409" s="109"/>
@@ -11009,19 +11050,19 @@
       <c r="W409" s="109"/>
       <c r="X409" s="109"/>
       <c r="Y409" s="109"/>
-      <c r="Z409" s="211"/>
-      <c r="AA409" s="211"/>
-      <c r="AB409" s="211"/>
-      <c r="AC409" s="211"/>
-      <c r="AD409" s="211"/>
-      <c r="AE409" s="211"/>
-      <c r="AF409" s="211"/>
-      <c r="AG409" s="211"/>
-      <c r="AH409" s="211"/>
-      <c r="AI409" s="211"/>
-    </row>
-    <row r="410" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="207"/>
+      <c r="Z409" s="210"/>
+      <c r="AA409" s="210"/>
+      <c r="AB409" s="210"/>
+      <c r="AC409" s="210"/>
+      <c r="AD409" s="210"/>
+      <c r="AE409" s="210"/>
+      <c r="AF409" s="210"/>
+      <c r="AG409" s="210"/>
+      <c r="AH409" s="210"/>
+      <c r="AI409" s="210"/>
+    </row>
+    <row r="410" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="206"/>
       <c r="C410" s="109"/>
       <c r="D410" s="109"/>
       <c r="E410" s="109"/>
@@ -11045,19 +11086,19 @@
       <c r="W410" s="109"/>
       <c r="X410" s="109"/>
       <c r="Y410" s="109"/>
-      <c r="Z410" s="211"/>
-      <c r="AA410" s="211"/>
-      <c r="AB410" s="211"/>
-      <c r="AC410" s="211"/>
-      <c r="AD410" s="211"/>
-      <c r="AE410" s="211"/>
-      <c r="AF410" s="211"/>
-      <c r="AG410" s="211"/>
-      <c r="AH410" s="211"/>
-      <c r="AI410" s="211"/>
-    </row>
-    <row r="411" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="207"/>
+      <c r="Z410" s="210"/>
+      <c r="AA410" s="210"/>
+      <c r="AB410" s="210"/>
+      <c r="AC410" s="210"/>
+      <c r="AD410" s="210"/>
+      <c r="AE410" s="210"/>
+      <c r="AF410" s="210"/>
+      <c r="AG410" s="210"/>
+      <c r="AH410" s="210"/>
+      <c r="AI410" s="210"/>
+    </row>
+    <row r="411" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="206"/>
       <c r="C411" s="109"/>
       <c r="D411" s="109"/>
       <c r="E411" s="109"/>
@@ -11081,19 +11122,19 @@
       <c r="W411" s="109"/>
       <c r="X411" s="109"/>
       <c r="Y411" s="109"/>
-      <c r="Z411" s="211"/>
-      <c r="AA411" s="211"/>
-      <c r="AB411" s="211"/>
-      <c r="AC411" s="211"/>
-      <c r="AD411" s="211"/>
-      <c r="AE411" s="211"/>
-      <c r="AF411" s="211"/>
-      <c r="AG411" s="211"/>
-      <c r="AH411" s="211"/>
-      <c r="AI411" s="211"/>
-    </row>
-    <row r="412" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="207"/>
+      <c r="Z411" s="210"/>
+      <c r="AA411" s="210"/>
+      <c r="AB411" s="210"/>
+      <c r="AC411" s="210"/>
+      <c r="AD411" s="210"/>
+      <c r="AE411" s="210"/>
+      <c r="AF411" s="210"/>
+      <c r="AG411" s="210"/>
+      <c r="AH411" s="210"/>
+      <c r="AI411" s="210"/>
+    </row>
+    <row r="412" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B412" s="206"/>
       <c r="C412" s="109"/>
       <c r="D412" s="109"/>
       <c r="E412" s="109"/>
@@ -11117,19 +11158,19 @@
       <c r="W412" s="109"/>
       <c r="X412" s="109"/>
       <c r="Y412" s="109"/>
-      <c r="Z412" s="211"/>
-      <c r="AA412" s="211"/>
-      <c r="AB412" s="211"/>
-      <c r="AC412" s="211"/>
-      <c r="AD412" s="211"/>
-      <c r="AE412" s="211"/>
-      <c r="AF412" s="211"/>
-      <c r="AG412" s="211"/>
-      <c r="AH412" s="211"/>
-      <c r="AI412" s="211"/>
-    </row>
-    <row r="413" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="207"/>
+      <c r="Z412" s="210"/>
+      <c r="AA412" s="210"/>
+      <c r="AB412" s="210"/>
+      <c r="AC412" s="210"/>
+      <c r="AD412" s="210"/>
+      <c r="AE412" s="210"/>
+      <c r="AF412" s="210"/>
+      <c r="AG412" s="210"/>
+      <c r="AH412" s="210"/>
+      <c r="AI412" s="210"/>
+    </row>
+    <row r="413" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="206"/>
       <c r="C413" s="109"/>
       <c r="D413" s="109"/>
       <c r="E413" s="109"/>
@@ -11153,19 +11194,19 @@
       <c r="W413" s="109"/>
       <c r="X413" s="109"/>
       <c r="Y413" s="109"/>
-      <c r="Z413" s="211"/>
-      <c r="AA413" s="211"/>
-      <c r="AB413" s="211"/>
-      <c r="AC413" s="211"/>
-      <c r="AD413" s="211"/>
-      <c r="AE413" s="211"/>
-      <c r="AF413" s="211"/>
-      <c r="AG413" s="211"/>
-      <c r="AH413" s="211"/>
-      <c r="AI413" s="211"/>
-    </row>
-    <row r="414" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="207"/>
+      <c r="Z413" s="210"/>
+      <c r="AA413" s="210"/>
+      <c r="AB413" s="210"/>
+      <c r="AC413" s="210"/>
+      <c r="AD413" s="210"/>
+      <c r="AE413" s="210"/>
+      <c r="AF413" s="210"/>
+      <c r="AG413" s="210"/>
+      <c r="AH413" s="210"/>
+      <c r="AI413" s="210"/>
+    </row>
+    <row r="414" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="206"/>
       <c r="C414" s="109"/>
       <c r="D414" s="109"/>
       <c r="E414" s="109"/>
@@ -11189,19 +11230,19 @@
       <c r="W414" s="109"/>
       <c r="X414" s="109"/>
       <c r="Y414" s="109"/>
-      <c r="Z414" s="211"/>
-      <c r="AA414" s="211"/>
-      <c r="AB414" s="211"/>
-      <c r="AC414" s="211"/>
-      <c r="AD414" s="211"/>
-      <c r="AE414" s="211"/>
-      <c r="AF414" s="211"/>
-      <c r="AG414" s="211"/>
-      <c r="AH414" s="211"/>
-      <c r="AI414" s="211"/>
-    </row>
-    <row r="415" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="207"/>
+      <c r="Z414" s="210"/>
+      <c r="AA414" s="210"/>
+      <c r="AB414" s="210"/>
+      <c r="AC414" s="210"/>
+      <c r="AD414" s="210"/>
+      <c r="AE414" s="210"/>
+      <c r="AF414" s="210"/>
+      <c r="AG414" s="210"/>
+      <c r="AH414" s="210"/>
+      <c r="AI414" s="210"/>
+    </row>
+    <row r="415" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="206"/>
       <c r="C415" s="109"/>
       <c r="D415" s="109"/>
       <c r="E415" s="109"/>
@@ -11225,19 +11266,19 @@
       <c r="W415" s="109"/>
       <c r="X415" s="109"/>
       <c r="Y415" s="109"/>
-      <c r="Z415" s="211"/>
-      <c r="AA415" s="211"/>
-      <c r="AB415" s="211"/>
-      <c r="AC415" s="211"/>
-      <c r="AD415" s="211"/>
-      <c r="AE415" s="211"/>
-      <c r="AF415" s="211"/>
-      <c r="AG415" s="211"/>
-      <c r="AH415" s="211"/>
-      <c r="AI415" s="211"/>
-    </row>
-    <row r="416" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="207"/>
+      <c r="Z415" s="210"/>
+      <c r="AA415" s="210"/>
+      <c r="AB415" s="210"/>
+      <c r="AC415" s="210"/>
+      <c r="AD415" s="210"/>
+      <c r="AE415" s="210"/>
+      <c r="AF415" s="210"/>
+      <c r="AG415" s="210"/>
+      <c r="AH415" s="210"/>
+      <c r="AI415" s="210"/>
+    </row>
+    <row r="416" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="206"/>
       <c r="C416" s="109"/>
       <c r="D416" s="109"/>
       <c r="E416" s="109"/>
@@ -11261,34 +11302,26 @@
       <c r="W416" s="109"/>
       <c r="X416" s="109"/>
       <c r="Y416" s="109"/>
-      <c r="Z416" s="211"/>
-      <c r="AA416" s="211"/>
-      <c r="AB416" s="211"/>
-      <c r="AC416" s="211"/>
-      <c r="AD416" s="211"/>
-      <c r="AE416" s="211"/>
-      <c r="AF416" s="211"/>
-      <c r="AG416" s="211"/>
-      <c r="AH416" s="211"/>
-      <c r="AI416" s="211"/>
-    </row>
-    <row r="417" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="207"/>
+      <c r="Z416" s="210"/>
+      <c r="AA416" s="210"/>
+      <c r="AB416" s="210"/>
+      <c r="AC416" s="210"/>
+      <c r="AD416" s="210"/>
+      <c r="AE416" s="210"/>
+      <c r="AF416" s="210"/>
+      <c r="AG416" s="210"/>
+      <c r="AH416" s="210"/>
+      <c r="AI416" s="210"/>
+    </row>
+    <row r="417" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="206"/>
       <c r="C417" s="109"/>
-      <c r="D417" s="210">
-        <v>1.24</v>
-      </c>
-      <c r="E417" s="212"/>
-      <c r="F417" s="210"/>
-      <c r="G417" s="210">
-        <v>112000</v>
-      </c>
-      <c r="H417" s="210" t="s">
-        <v>164</v>
-      </c>
-      <c r="I417" s="210" t="s">
-        <v>166</v>
-      </c>
+      <c r="D417" s="109"/>
+      <c r="E417" s="109"/>
+      <c r="F417" s="109"/>
+      <c r="G417" s="109"/>
+      <c r="H417" s="109"/>
+      <c r="I417" s="109"/>
       <c r="J417" s="109"/>
       <c r="K417" s="109"/>
       <c r="L417" s="109"/>
@@ -11305,31 +11338,26 @@
       <c r="W417" s="109"/>
       <c r="X417" s="109"/>
       <c r="Y417" s="109"/>
-      <c r="Z417" s="211"/>
-      <c r="AA417" s="211"/>
-      <c r="AB417" s="211"/>
-      <c r="AC417" s="211"/>
-      <c r="AD417" s="211"/>
-      <c r="AE417" s="211"/>
-      <c r="AF417" s="211"/>
-      <c r="AG417" s="211"/>
-      <c r="AH417" s="211"/>
-      <c r="AI417" s="211"/>
-    </row>
-    <row r="418" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="207"/>
+      <c r="Z417" s="210"/>
+      <c r="AA417" s="210"/>
+      <c r="AB417" s="210"/>
+      <c r="AC417" s="210"/>
+      <c r="AD417" s="210"/>
+      <c r="AE417" s="210"/>
+      <c r="AF417" s="210"/>
+      <c r="AG417" s="210"/>
+      <c r="AH417" s="210"/>
+      <c r="AI417" s="210"/>
+    </row>
+    <row r="418" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B418" s="206"/>
       <c r="C418" s="109"/>
-      <c r="D418" s="210"/>
-      <c r="E418" s="212"/>
-      <c r="F418" s="210"/>
-      <c r="G418" s="210">
-        <f>10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="H418" s="210" t="s">
-        <v>165</v>
-      </c>
-      <c r="I418" s="210"/>
+      <c r="D418" s="109"/>
+      <c r="E418" s="109"/>
+      <c r="F418" s="109"/>
+      <c r="G418" s="109"/>
+      <c r="H418" s="109"/>
+      <c r="I418" s="109"/>
       <c r="J418" s="109"/>
       <c r="K418" s="109"/>
       <c r="L418" s="109"/>
@@ -11346,31 +11374,34 @@
       <c r="W418" s="109"/>
       <c r="X418" s="109"/>
       <c r="Y418" s="109"/>
-      <c r="Z418" s="211"/>
-      <c r="AA418" s="211"/>
-      <c r="AB418" s="211"/>
-      <c r="AC418" s="211"/>
-      <c r="AD418" s="211"/>
-      <c r="AE418" s="211"/>
-      <c r="AF418" s="211"/>
-      <c r="AG418" s="211"/>
-      <c r="AH418" s="211"/>
-      <c r="AI418" s="211"/>
-    </row>
-    <row r="419" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="207"/>
+      <c r="Z418" s="210"/>
+      <c r="AA418" s="210"/>
+      <c r="AB418" s="210"/>
+      <c r="AC418" s="210"/>
+      <c r="AD418" s="210"/>
+      <c r="AE418" s="210"/>
+      <c r="AF418" s="210"/>
+      <c r="AG418" s="210"/>
+      <c r="AH418" s="210"/>
+      <c r="AI418" s="210"/>
+    </row>
+    <row r="419" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B419" s="206"/>
       <c r="C419" s="109"/>
-      <c r="D419" s="210"/>
-      <c r="E419" s="212"/>
-      <c r="F419" s="210"/>
-      <c r="G419" s="210">
-        <f>G417/G418</f>
-        <v>0.112</v>
-      </c>
-      <c r="H419" s="210" t="s">
-        <v>164</v>
-      </c>
-      <c r="I419" s="210"/>
+      <c r="D419" s="209">
+        <v>1.24</v>
+      </c>
+      <c r="E419" s="211"/>
+      <c r="F419" s="209"/>
+      <c r="G419" s="209">
+        <v>112000</v>
+      </c>
+      <c r="H419" s="209" t="s">
+        <v>161</v>
+      </c>
+      <c r="I419" s="209" t="s">
+        <v>163</v>
+      </c>
       <c r="J419" s="109"/>
       <c r="K419" s="109"/>
       <c r="L419" s="109"/>
@@ -11387,26 +11418,31 @@
       <c r="W419" s="109"/>
       <c r="X419" s="109"/>
       <c r="Y419" s="109"/>
-      <c r="Z419" s="211"/>
-      <c r="AA419" s="211"/>
-      <c r="AB419" s="211"/>
-      <c r="AC419" s="211"/>
-      <c r="AD419" s="211"/>
-      <c r="AE419" s="211"/>
-      <c r="AF419" s="211"/>
-      <c r="AG419" s="211"/>
-      <c r="AH419" s="211"/>
-      <c r="AI419" s="211"/>
-    </row>
-    <row r="420" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="207"/>
+      <c r="Z419" s="210"/>
+      <c r="AA419" s="210"/>
+      <c r="AB419" s="210"/>
+      <c r="AC419" s="210"/>
+      <c r="AD419" s="210"/>
+      <c r="AE419" s="210"/>
+      <c r="AF419" s="210"/>
+      <c r="AG419" s="210"/>
+      <c r="AH419" s="210"/>
+      <c r="AI419" s="210"/>
+    </row>
+    <row r="420" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B420" s="206"/>
       <c r="C420" s="109"/>
-      <c r="D420" s="109"/>
-      <c r="E420" s="109"/>
-      <c r="F420" s="109"/>
-      <c r="G420" s="109"/>
-      <c r="H420" s="109"/>
-      <c r="I420" s="109"/>
+      <c r="D420" s="209"/>
+      <c r="E420" s="211"/>
+      <c r="F420" s="209"/>
+      <c r="G420" s="209">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H420" s="209" t="s">
+        <v>162</v>
+      </c>
+      <c r="I420" s="209"/>
       <c r="J420" s="109"/>
       <c r="K420" s="109"/>
       <c r="L420" s="109"/>
@@ -11423,743 +11459,940 @@
       <c r="W420" s="109"/>
       <c r="X420" s="109"/>
       <c r="Y420" s="109"/>
-      <c r="Z420" s="211"/>
-      <c r="AA420" s="211"/>
-      <c r="AB420" s="211"/>
-      <c r="AC420" s="211"/>
-      <c r="AD420" s="211"/>
-      <c r="AE420" s="211"/>
-      <c r="AF420" s="211"/>
-      <c r="AG420" s="211"/>
-      <c r="AH420" s="211"/>
-      <c r="AI420" s="211"/>
-    </row>
-    <row r="421" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="207"/>
-      <c r="C421" s="211"/>
-      <c r="D421" s="211"/>
+      <c r="Z420" s="210"/>
+      <c r="AA420" s="210"/>
+      <c r="AB420" s="210"/>
+      <c r="AC420" s="210"/>
+      <c r="AD420" s="210"/>
+      <c r="AE420" s="210"/>
+      <c r="AF420" s="210"/>
+      <c r="AG420" s="210"/>
+      <c r="AH420" s="210"/>
+      <c r="AI420" s="210"/>
+    </row>
+    <row r="421" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B421" s="206"/>
+      <c r="C421" s="109"/>
+      <c r="D421" s="209"/>
       <c r="E421" s="211"/>
-      <c r="F421" s="211"/>
-      <c r="G421" s="211"/>
-      <c r="H421" s="211"/>
-      <c r="I421" s="211"/>
-      <c r="J421" s="211"/>
-      <c r="K421" s="211"/>
-      <c r="L421" s="211"/>
-      <c r="M421" s="211"/>
-      <c r="N421" s="211"/>
-      <c r="O421" s="211"/>
-      <c r="P421" s="211"/>
-      <c r="Q421" s="211"/>
-      <c r="R421" s="211"/>
-      <c r="S421" s="211"/>
-      <c r="T421" s="211"/>
-      <c r="U421" s="211"/>
-      <c r="V421" s="211"/>
-      <c r="W421" s="211"/>
-      <c r="X421" s="211"/>
-      <c r="Y421" s="211"/>
-      <c r="Z421" s="211"/>
-      <c r="AA421" s="211"/>
-      <c r="AB421" s="211"/>
-      <c r="AC421" s="211"/>
-      <c r="AD421" s="211"/>
-      <c r="AE421" s="211"/>
-      <c r="AF421" s="211"/>
-      <c r="AG421" s="211"/>
-      <c r="AH421" s="211"/>
-      <c r="AI421" s="211"/>
-    </row>
-    <row r="422" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="207"/>
-      <c r="C422" s="211"/>
-      <c r="D422" s="211"/>
-      <c r="E422" s="211"/>
-      <c r="F422" s="211"/>
-      <c r="G422" s="211"/>
-      <c r="H422" s="211"/>
-      <c r="I422" s="211"/>
-      <c r="J422" s="211"/>
-      <c r="K422" s="211"/>
-      <c r="L422" s="211"/>
-      <c r="M422" s="211"/>
-      <c r="N422" s="211"/>
-      <c r="O422" s="211"/>
-      <c r="P422" s="211"/>
-      <c r="Q422" s="211"/>
-      <c r="R422" s="211"/>
-      <c r="S422" s="211"/>
-      <c r="T422" s="211"/>
-      <c r="U422" s="211"/>
-      <c r="V422" s="211"/>
-      <c r="W422" s="211"/>
-      <c r="X422" s="211"/>
-      <c r="Y422" s="211"/>
-      <c r="Z422" s="211"/>
-      <c r="AA422" s="211"/>
-      <c r="AB422" s="211"/>
-      <c r="AC422" s="211"/>
-      <c r="AD422" s="211"/>
-      <c r="AE422" s="211"/>
-      <c r="AF422" s="211"/>
-      <c r="AG422" s="211"/>
-      <c r="AH422" s="211"/>
-      <c r="AI422" s="211"/>
-    </row>
-    <row r="423" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="207"/>
-      <c r="C423" s="211"/>
-      <c r="D423" s="211"/>
-      <c r="E423" s="211"/>
-      <c r="F423" s="211"/>
-      <c r="G423" s="211"/>
-      <c r="H423" s="211"/>
-      <c r="I423" s="211"/>
-      <c r="J423" s="211"/>
-      <c r="K423" s="211"/>
-      <c r="L423" s="211"/>
-      <c r="M423" s="211"/>
-      <c r="N423" s="211"/>
-      <c r="O423" s="211"/>
-      <c r="P423" s="211"/>
-      <c r="Q423" s="211"/>
-      <c r="R423" s="211"/>
-      <c r="S423" s="211"/>
-      <c r="T423" s="211"/>
-      <c r="U423" s="211"/>
-      <c r="V423" s="211"/>
-      <c r="W423" s="211"/>
-      <c r="X423" s="211"/>
-      <c r="Y423" s="211"/>
-      <c r="Z423" s="211"/>
-      <c r="AA423" s="211"/>
-      <c r="AB423" s="211"/>
-      <c r="AC423" s="211"/>
-      <c r="AD423" s="211"/>
-      <c r="AE423" s="211"/>
-      <c r="AF423" s="211"/>
-      <c r="AG423" s="211"/>
-      <c r="AH423" s="211"/>
-      <c r="AI423" s="211"/>
-    </row>
-    <row r="424" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="207"/>
-      <c r="C424" s="211"/>
-      <c r="D424" s="211"/>
-      <c r="E424" s="211"/>
-      <c r="F424" s="211"/>
-      <c r="G424" s="211"/>
-      <c r="H424" s="211"/>
-      <c r="I424" s="211"/>
-      <c r="J424" s="211"/>
-      <c r="K424" s="211"/>
-      <c r="L424" s="211"/>
-      <c r="M424" s="211"/>
-      <c r="N424" s="211"/>
-      <c r="O424" s="211"/>
-      <c r="P424" s="211"/>
-      <c r="Q424" s="211"/>
-      <c r="R424" s="211"/>
-      <c r="S424" s="211"/>
-      <c r="T424" s="211"/>
-      <c r="U424" s="211"/>
-      <c r="V424" s="211"/>
-      <c r="W424" s="211"/>
-      <c r="X424" s="211"/>
-      <c r="Y424" s="211"/>
-      <c r="Z424" s="211"/>
-      <c r="AA424" s="211"/>
-      <c r="AB424" s="211"/>
-      <c r="AC424" s="211"/>
-      <c r="AD424" s="211"/>
-      <c r="AE424" s="211"/>
-      <c r="AF424" s="211"/>
-      <c r="AG424" s="211"/>
-      <c r="AH424" s="211"/>
-      <c r="AI424" s="211"/>
-    </row>
-    <row r="425" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="207"/>
-      <c r="C425" s="211"/>
-      <c r="D425" s="211"/>
-      <c r="E425" s="211"/>
-      <c r="F425" s="211"/>
-      <c r="G425" s="211"/>
-      <c r="H425" s="211"/>
-      <c r="I425" s="211"/>
-      <c r="J425" s="211"/>
-      <c r="K425" s="211"/>
-      <c r="L425" s="211"/>
-      <c r="M425" s="211"/>
-      <c r="N425" s="211"/>
-      <c r="O425" s="211"/>
-      <c r="P425" s="211"/>
-      <c r="Q425" s="211"/>
-      <c r="R425" s="211"/>
-      <c r="S425" s="211"/>
-      <c r="T425" s="211"/>
-      <c r="U425" s="211"/>
-      <c r="V425" s="211"/>
-      <c r="W425" s="211"/>
-      <c r="X425" s="211"/>
-      <c r="Y425" s="211"/>
-      <c r="Z425" s="211"/>
-      <c r="AA425" s="211"/>
-      <c r="AB425" s="211"/>
-      <c r="AC425" s="211"/>
-      <c r="AD425" s="211"/>
-      <c r="AE425" s="211"/>
-      <c r="AF425" s="211"/>
-      <c r="AG425" s="211"/>
-      <c r="AH425" s="211"/>
-      <c r="AI425" s="211"/>
-    </row>
-    <row r="426" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="207"/>
-      <c r="C426" s="211"/>
-      <c r="D426" s="211"/>
-      <c r="E426" s="211"/>
-      <c r="F426" s="211"/>
-      <c r="G426" s="211"/>
-      <c r="H426" s="211"/>
-      <c r="I426" s="211"/>
-      <c r="J426" s="211"/>
-      <c r="K426" s="211"/>
-      <c r="L426" s="211"/>
-      <c r="M426" s="211"/>
-      <c r="N426" s="211"/>
-      <c r="O426" s="211"/>
-      <c r="P426" s="211"/>
-      <c r="Q426" s="211"/>
-      <c r="R426" s="211"/>
-      <c r="S426" s="211"/>
-      <c r="T426" s="211"/>
-      <c r="U426" s="211"/>
-      <c r="V426" s="211"/>
-      <c r="W426" s="211"/>
-      <c r="X426" s="211"/>
-      <c r="Y426" s="211"/>
-      <c r="Z426" s="211"/>
-      <c r="AA426" s="211"/>
-      <c r="AB426" s="211"/>
-      <c r="AC426" s="211"/>
-      <c r="AD426" s="211"/>
-      <c r="AE426" s="211"/>
-      <c r="AF426" s="211"/>
-      <c r="AG426" s="211"/>
-      <c r="AH426" s="211"/>
-      <c r="AI426" s="211"/>
-    </row>
-    <row r="427" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="207"/>
-      <c r="C427" s="211"/>
-      <c r="D427" s="211"/>
-      <c r="E427" s="211"/>
-      <c r="F427" s="211"/>
-      <c r="G427" s="211"/>
-      <c r="H427" s="211"/>
-      <c r="I427" s="211"/>
-      <c r="J427" s="211"/>
-      <c r="K427" s="211"/>
-      <c r="L427" s="211"/>
-      <c r="M427" s="211"/>
-      <c r="N427" s="211"/>
-      <c r="O427" s="211"/>
-      <c r="P427" s="211"/>
-      <c r="Q427" s="211"/>
-      <c r="R427" s="211"/>
-      <c r="S427" s="211"/>
-      <c r="T427" s="211"/>
-      <c r="U427" s="211"/>
-      <c r="V427" s="211"/>
-      <c r="W427" s="211"/>
-      <c r="X427" s="211"/>
-      <c r="Y427" s="211"/>
-      <c r="Z427" s="211"/>
-      <c r="AA427" s="211"/>
-      <c r="AB427" s="211"/>
-      <c r="AC427" s="211"/>
-      <c r="AD427" s="211"/>
-      <c r="AE427" s="211"/>
-      <c r="AF427" s="211"/>
-      <c r="AG427" s="211"/>
-      <c r="AH427" s="211"/>
-      <c r="AI427" s="211"/>
-    </row>
-    <row r="428" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="207"/>
-      <c r="C428" s="211"/>
-      <c r="D428" s="211"/>
-      <c r="E428" s="211"/>
-      <c r="F428" s="211"/>
-      <c r="G428" s="211"/>
-      <c r="H428" s="211"/>
-      <c r="I428" s="211"/>
-      <c r="J428" s="211"/>
-      <c r="K428" s="211"/>
-      <c r="L428" s="211"/>
-      <c r="M428" s="211"/>
-      <c r="N428" s="211"/>
-      <c r="O428" s="211"/>
-      <c r="P428" s="211"/>
-      <c r="Q428" s="211"/>
-      <c r="R428" s="211"/>
-      <c r="S428" s="211"/>
-      <c r="T428" s="211"/>
-      <c r="U428" s="211"/>
-      <c r="V428" s="211"/>
-      <c r="W428" s="211"/>
-      <c r="X428" s="211"/>
-      <c r="Y428" s="211"/>
-      <c r="Z428" s="211"/>
-      <c r="AA428" s="211"/>
-      <c r="AB428" s="211"/>
-      <c r="AC428" s="211"/>
-      <c r="AD428" s="211"/>
-      <c r="AE428" s="211"/>
-      <c r="AF428" s="211"/>
-      <c r="AG428" s="211"/>
-      <c r="AH428" s="211"/>
-      <c r="AI428" s="211"/>
-    </row>
-    <row r="429" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="207"/>
-      <c r="C429" s="211"/>
-      <c r="D429" s="211"/>
-      <c r="E429" s="211"/>
-      <c r="F429" s="211"/>
-      <c r="G429" s="211"/>
-      <c r="H429" s="211"/>
-      <c r="I429" s="211"/>
-      <c r="J429" s="211"/>
-      <c r="K429" s="211"/>
-      <c r="L429" s="211"/>
-      <c r="M429" s="211"/>
-      <c r="N429" s="211"/>
-      <c r="O429" s="211"/>
-      <c r="P429" s="211"/>
-      <c r="Q429" s="211"/>
-      <c r="R429" s="211"/>
-      <c r="S429" s="211"/>
-      <c r="T429" s="211"/>
-      <c r="U429" s="211"/>
-      <c r="V429" s="211"/>
-      <c r="W429" s="211"/>
-      <c r="X429" s="211"/>
-      <c r="Y429" s="211"/>
-      <c r="Z429" s="211"/>
-      <c r="AA429" s="211"/>
-      <c r="AB429" s="211"/>
-      <c r="AC429" s="211"/>
-      <c r="AD429" s="211"/>
-      <c r="AE429" s="211"/>
-      <c r="AF429" s="211"/>
-      <c r="AG429" s="211"/>
-      <c r="AH429" s="211"/>
-      <c r="AI429" s="211"/>
-    </row>
-    <row r="430" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="207"/>
-      <c r="C430" s="211"/>
-      <c r="D430" s="211"/>
-      <c r="E430" s="211"/>
-      <c r="F430" s="211"/>
-      <c r="G430" s="211"/>
-      <c r="H430" s="211"/>
-      <c r="I430" s="211"/>
-      <c r="J430" s="211"/>
-      <c r="K430" s="211"/>
-      <c r="L430" s="211"/>
-      <c r="M430" s="211"/>
-      <c r="N430" s="211"/>
-      <c r="O430" s="211"/>
-      <c r="P430" s="211"/>
-      <c r="Q430" s="211"/>
-      <c r="R430" s="211"/>
-      <c r="S430" s="211"/>
-      <c r="T430" s="211"/>
-      <c r="U430" s="211"/>
-      <c r="V430" s="211"/>
-      <c r="W430" s="211"/>
-      <c r="X430" s="211"/>
-      <c r="Y430" s="211"/>
-      <c r="Z430" s="211"/>
-      <c r="AA430" s="211"/>
-      <c r="AB430" s="211"/>
-      <c r="AC430" s="211"/>
-      <c r="AD430" s="211"/>
-      <c r="AE430" s="211"/>
-      <c r="AF430" s="211"/>
-      <c r="AG430" s="211"/>
-      <c r="AH430" s="211"/>
-      <c r="AI430" s="211"/>
-    </row>
-    <row r="431" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="207"/>
-      <c r="C431" s="211"/>
-      <c r="D431" s="211"/>
-      <c r="E431" s="211"/>
-      <c r="F431" s="211"/>
-      <c r="G431" s="211"/>
-      <c r="H431" s="211"/>
-      <c r="I431" s="211"/>
-      <c r="J431" s="211"/>
-      <c r="K431" s="211"/>
-      <c r="L431" s="211"/>
-      <c r="M431" s="211"/>
-      <c r="N431" s="211"/>
-      <c r="O431" s="211"/>
-      <c r="P431" s="211"/>
-      <c r="Q431" s="211"/>
-      <c r="R431" s="211"/>
-      <c r="S431" s="211"/>
-      <c r="T431" s="211"/>
-      <c r="U431" s="211"/>
-      <c r="V431" s="211"/>
-      <c r="W431" s="211"/>
-      <c r="X431" s="211"/>
-      <c r="Y431" s="211"/>
-      <c r="Z431" s="211"/>
-      <c r="AA431" s="211"/>
-      <c r="AB431" s="211"/>
-      <c r="AC431" s="211"/>
-      <c r="AD431" s="211"/>
-      <c r="AE431" s="211"/>
-      <c r="AF431" s="211"/>
-      <c r="AG431" s="211"/>
-      <c r="AH431" s="211"/>
-      <c r="AI431" s="211"/>
-    </row>
-    <row r="432" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="207"/>
-      <c r="C432" s="211"/>
-      <c r="D432" s="211"/>
-      <c r="E432" s="211"/>
-      <c r="F432" s="211"/>
-      <c r="G432" s="211"/>
-      <c r="H432" s="211"/>
-      <c r="I432" s="211"/>
-      <c r="J432" s="211"/>
-      <c r="K432" s="211"/>
-      <c r="L432" s="211"/>
-      <c r="M432" s="211"/>
-      <c r="N432" s="211"/>
-      <c r="O432" s="211"/>
-      <c r="P432" s="211"/>
-      <c r="Q432" s="211"/>
-      <c r="R432" s="211"/>
-      <c r="S432" s="211"/>
-      <c r="T432" s="211"/>
-      <c r="U432" s="211"/>
-      <c r="V432" s="211"/>
-      <c r="W432" s="211"/>
-      <c r="X432" s="211"/>
-      <c r="Y432" s="211"/>
-      <c r="Z432" s="211"/>
-      <c r="AA432" s="211"/>
-      <c r="AB432" s="211"/>
-      <c r="AC432" s="211"/>
-      <c r="AD432" s="211"/>
-      <c r="AE432" s="211"/>
-      <c r="AF432" s="211"/>
-      <c r="AG432" s="211"/>
-      <c r="AH432" s="211"/>
-      <c r="AI432" s="211"/>
-    </row>
-    <row r="433" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="207"/>
-      <c r="C433" s="211"/>
-      <c r="D433" s="211"/>
-      <c r="E433" s="211"/>
-      <c r="F433" s="211"/>
-      <c r="G433" s="211"/>
-      <c r="H433" s="211"/>
-      <c r="I433" s="211"/>
-      <c r="J433" s="211"/>
-      <c r="K433" s="211"/>
-      <c r="L433" s="211"/>
-      <c r="M433" s="211"/>
-      <c r="N433" s="211"/>
-      <c r="O433" s="211"/>
-      <c r="P433" s="211"/>
-      <c r="Q433" s="211"/>
-      <c r="R433" s="211"/>
-      <c r="S433" s="211"/>
-      <c r="T433" s="211"/>
-      <c r="U433" s="211"/>
-      <c r="V433" s="211"/>
-      <c r="W433" s="211"/>
-      <c r="X433" s="211"/>
-      <c r="Y433" s="211"/>
-      <c r="Z433" s="211"/>
-      <c r="AA433" s="211"/>
-      <c r="AB433" s="211"/>
-      <c r="AC433" s="211"/>
-      <c r="AD433" s="211"/>
-      <c r="AE433" s="211"/>
-      <c r="AF433" s="211"/>
-      <c r="AG433" s="211"/>
-      <c r="AH433" s="211"/>
-      <c r="AI433" s="211"/>
-    </row>
-    <row r="434" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="207"/>
-      <c r="C434" s="211"/>
-      <c r="D434" s="211"/>
-      <c r="E434" s="211"/>
-      <c r="F434" s="211"/>
-      <c r="G434" s="211"/>
-      <c r="H434" s="211"/>
-      <c r="I434" s="211"/>
-      <c r="J434" s="211"/>
-      <c r="K434" s="211"/>
-      <c r="L434" s="211"/>
-      <c r="M434" s="211"/>
-      <c r="N434" s="211"/>
-      <c r="O434" s="211"/>
-      <c r="P434" s="211"/>
-      <c r="Q434" s="211"/>
-      <c r="R434" s="211"/>
-      <c r="S434" s="211"/>
-      <c r="T434" s="211"/>
-      <c r="U434" s="211"/>
-      <c r="V434" s="211"/>
-      <c r="W434" s="211"/>
-      <c r="X434" s="211"/>
-      <c r="Y434" s="211"/>
-      <c r="Z434" s="211"/>
-      <c r="AA434" s="211"/>
-      <c r="AB434" s="211"/>
-      <c r="AC434" s="211"/>
-      <c r="AD434" s="211"/>
-      <c r="AE434" s="211"/>
-      <c r="AF434" s="211"/>
-      <c r="AG434" s="211"/>
-      <c r="AH434" s="211"/>
-      <c r="AI434" s="211"/>
-    </row>
-    <row r="435" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="207"/>
-      <c r="C435" s="211"/>
-      <c r="D435" s="211"/>
-      <c r="E435" s="211"/>
-      <c r="F435" s="211"/>
-      <c r="G435" s="211"/>
-      <c r="H435" s="211"/>
-      <c r="I435" s="211"/>
-      <c r="J435" s="211"/>
-      <c r="K435" s="211"/>
-      <c r="L435" s="211"/>
-      <c r="M435" s="211"/>
-      <c r="N435" s="211"/>
-      <c r="O435" s="211"/>
-      <c r="P435" s="211"/>
-      <c r="Q435" s="211"/>
-      <c r="R435" s="211"/>
-      <c r="S435" s="211"/>
-      <c r="T435" s="211"/>
-      <c r="U435" s="211"/>
-      <c r="V435" s="211"/>
-      <c r="W435" s="211"/>
-      <c r="X435" s="211"/>
-      <c r="Y435" s="211"/>
-      <c r="Z435" s="211"/>
-      <c r="AA435" s="211"/>
-      <c r="AB435" s="211"/>
-      <c r="AC435" s="211"/>
-      <c r="AD435" s="211"/>
-      <c r="AE435" s="211"/>
-      <c r="AF435" s="211"/>
-      <c r="AG435" s="211"/>
-      <c r="AH435" s="211"/>
-      <c r="AI435" s="211"/>
-    </row>
-    <row r="436" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="207"/>
-      <c r="C436" s="211"/>
-      <c r="D436" s="211"/>
-      <c r="E436" s="211"/>
-      <c r="F436" s="211"/>
-      <c r="G436" s="211"/>
-      <c r="H436" s="211"/>
-      <c r="I436" s="211"/>
-      <c r="J436" s="211"/>
-      <c r="K436" s="211"/>
-      <c r="L436" s="211"/>
-      <c r="M436" s="211"/>
-      <c r="N436" s="211"/>
-      <c r="O436" s="211"/>
-      <c r="P436" s="211"/>
-      <c r="Q436" s="211"/>
-      <c r="R436" s="211"/>
-      <c r="S436" s="211"/>
-      <c r="T436" s="211"/>
-      <c r="U436" s="211"/>
-      <c r="V436" s="211"/>
-      <c r="W436" s="211"/>
-      <c r="X436" s="211"/>
-      <c r="Y436" s="211"/>
-      <c r="Z436" s="211"/>
-      <c r="AA436" s="211"/>
-      <c r="AB436" s="211"/>
-      <c r="AC436" s="211"/>
-      <c r="AD436" s="211"/>
-      <c r="AE436" s="211"/>
-      <c r="AF436" s="211"/>
-      <c r="AG436" s="211"/>
-      <c r="AH436" s="211"/>
-      <c r="AI436" s="211"/>
-    </row>
-    <row r="437" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="207"/>
-      <c r="C437" s="211"/>
-      <c r="D437" s="211"/>
-      <c r="E437" s="211"/>
-      <c r="F437" s="211"/>
-      <c r="G437" s="211"/>
-      <c r="H437" s="211"/>
-      <c r="I437" s="211"/>
-      <c r="J437" s="211"/>
-      <c r="K437" s="211"/>
-      <c r="L437" s="211"/>
-      <c r="M437" s="211"/>
-      <c r="N437" s="211"/>
-      <c r="O437" s="211"/>
-      <c r="P437" s="211"/>
-      <c r="Q437" s="211"/>
-      <c r="R437" s="211"/>
-      <c r="S437" s="211"/>
-      <c r="T437" s="211"/>
-      <c r="U437" s="211"/>
-      <c r="V437" s="211"/>
-      <c r="W437" s="211"/>
-      <c r="X437" s="211"/>
-      <c r="Y437" s="211"/>
-      <c r="Z437" s="211"/>
-      <c r="AA437" s="211"/>
-      <c r="AB437" s="211"/>
-      <c r="AC437" s="211"/>
-      <c r="AD437" s="211"/>
-      <c r="AE437" s="211"/>
-      <c r="AF437" s="211"/>
-      <c r="AG437" s="211"/>
-      <c r="AH437" s="211"/>
-      <c r="AI437" s="211"/>
-    </row>
-    <row r="438" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="207"/>
-      <c r="C438" s="211"/>
-      <c r="D438" s="211"/>
-      <c r="E438" s="211"/>
-      <c r="F438" s="211"/>
-      <c r="G438" s="211"/>
-      <c r="H438" s="211"/>
-      <c r="I438" s="211"/>
-      <c r="J438" s="211"/>
-      <c r="K438" s="211"/>
-      <c r="L438" s="211"/>
-      <c r="M438" s="211"/>
-      <c r="N438" s="211"/>
-      <c r="O438" s="211"/>
-      <c r="P438" s="211"/>
-      <c r="Q438" s="211"/>
-      <c r="R438" s="211"/>
-      <c r="S438" s="211"/>
-      <c r="T438" s="211"/>
-      <c r="U438" s="211"/>
-      <c r="V438" s="211"/>
-      <c r="W438" s="211"/>
-      <c r="X438" s="211"/>
-      <c r="Y438" s="211"/>
-      <c r="Z438" s="211"/>
-      <c r="AA438" s="211"/>
-      <c r="AB438" s="211"/>
-      <c r="AC438" s="211"/>
-      <c r="AD438" s="211"/>
-      <c r="AE438" s="211"/>
-      <c r="AF438" s="211"/>
-      <c r="AG438" s="211"/>
-      <c r="AH438" s="211"/>
-      <c r="AI438" s="211"/>
-    </row>
-    <row r="439" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="207"/>
-      <c r="C439" s="211"/>
-      <c r="D439" s="211"/>
-      <c r="E439" s="211"/>
-      <c r="F439" s="211"/>
-      <c r="G439" s="211"/>
-      <c r="H439" s="211"/>
-      <c r="I439" s="211"/>
-      <c r="J439" s="211"/>
-      <c r="K439" s="211"/>
-      <c r="L439" s="211"/>
-      <c r="M439" s="211"/>
-      <c r="N439" s="211"/>
-      <c r="O439" s="211"/>
-      <c r="P439" s="211"/>
-      <c r="Q439" s="211"/>
-      <c r="R439" s="211"/>
-      <c r="S439" s="211"/>
-      <c r="T439" s="211"/>
-      <c r="U439" s="211"/>
-      <c r="V439" s="211"/>
-      <c r="W439" s="211"/>
-      <c r="X439" s="211"/>
-      <c r="Y439" s="211"/>
-      <c r="Z439" s="211"/>
-      <c r="AA439" s="211"/>
-      <c r="AB439" s="211"/>
-      <c r="AC439" s="211"/>
-      <c r="AD439" s="211"/>
-      <c r="AE439" s="211"/>
-      <c r="AF439" s="211"/>
-      <c r="AG439" s="211"/>
-      <c r="AH439" s="211"/>
-      <c r="AI439" s="211"/>
-    </row>
-    <row r="440" spans="2:35" s="198" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="207"/>
-      <c r="C440" s="211"/>
-      <c r="D440" s="211"/>
-      <c r="E440" s="211"/>
-      <c r="F440" s="211"/>
-      <c r="G440" s="211"/>
-      <c r="H440" s="211"/>
-      <c r="I440" s="211"/>
-      <c r="J440" s="211"/>
-      <c r="K440" s="211"/>
-      <c r="L440" s="211"/>
-      <c r="M440" s="211"/>
-      <c r="N440" s="211"/>
-      <c r="O440" s="211"/>
-      <c r="P440" s="211"/>
-      <c r="Q440" s="211"/>
-      <c r="R440" s="211"/>
-      <c r="S440" s="211"/>
-      <c r="T440" s="211"/>
-      <c r="U440" s="211"/>
-      <c r="V440" s="211"/>
-      <c r="W440" s="211"/>
-      <c r="X440" s="211"/>
-      <c r="Y440" s="211"/>
-      <c r="Z440" s="211"/>
-      <c r="AA440" s="211"/>
-      <c r="AB440" s="211"/>
-      <c r="AC440" s="211"/>
-      <c r="AD440" s="211"/>
-      <c r="AE440" s="211"/>
-      <c r="AF440" s="211"/>
-      <c r="AG440" s="211"/>
-      <c r="AH440" s="211"/>
-      <c r="AI440" s="211"/>
+      <c r="F421" s="209"/>
+      <c r="G421" s="209">
+        <f>G419/G420</f>
+        <v>0.112</v>
+      </c>
+      <c r="H421" s="209" t="s">
+        <v>161</v>
+      </c>
+      <c r="I421" s="209"/>
+      <c r="J421" s="109"/>
+      <c r="K421" s="109"/>
+      <c r="L421" s="109"/>
+      <c r="M421" s="109"/>
+      <c r="N421" s="109"/>
+      <c r="O421" s="109"/>
+      <c r="P421" s="109"/>
+      <c r="Q421" s="109"/>
+      <c r="R421" s="109"/>
+      <c r="S421" s="109"/>
+      <c r="T421" s="109"/>
+      <c r="U421" s="109"/>
+      <c r="V421" s="109"/>
+      <c r="W421" s="109"/>
+      <c r="X421" s="109"/>
+      <c r="Y421" s="109"/>
+      <c r="Z421" s="210"/>
+      <c r="AA421" s="210"/>
+      <c r="AB421" s="210"/>
+      <c r="AC421" s="210"/>
+      <c r="AD421" s="210"/>
+      <c r="AE421" s="210"/>
+      <c r="AF421" s="210"/>
+      <c r="AG421" s="210"/>
+      <c r="AH421" s="210"/>
+      <c r="AI421" s="210"/>
+    </row>
+    <row r="422" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B422" s="206"/>
+      <c r="C422" s="109"/>
+      <c r="D422" s="109"/>
+      <c r="E422" s="109"/>
+      <c r="F422" s="109"/>
+      <c r="G422" s="109"/>
+      <c r="H422" s="109"/>
+      <c r="I422" s="109"/>
+      <c r="J422" s="109"/>
+      <c r="K422" s="109"/>
+      <c r="L422" s="109"/>
+      <c r="M422" s="109"/>
+      <c r="N422" s="109"/>
+      <c r="O422" s="109"/>
+      <c r="P422" s="109"/>
+      <c r="Q422" s="109"/>
+      <c r="R422" s="109"/>
+      <c r="S422" s="109"/>
+      <c r="T422" s="109"/>
+      <c r="U422" s="109"/>
+      <c r="V422" s="109"/>
+      <c r="W422" s="109"/>
+      <c r="X422" s="109"/>
+      <c r="Y422" s="109"/>
+      <c r="Z422" s="210"/>
+      <c r="AA422" s="210"/>
+      <c r="AB422" s="210"/>
+      <c r="AC422" s="210"/>
+      <c r="AD422" s="210"/>
+      <c r="AE422" s="210"/>
+      <c r="AF422" s="210"/>
+      <c r="AG422" s="210"/>
+      <c r="AH422" s="210"/>
+      <c r="AI422" s="210"/>
+    </row>
+    <row r="423" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B423" s="206"/>
+      <c r="C423" s="210"/>
+      <c r="D423" s="210"/>
+      <c r="E423" s="210"/>
+      <c r="F423" s="210"/>
+      <c r="G423" s="210"/>
+      <c r="H423" s="210"/>
+      <c r="I423" s="210"/>
+      <c r="J423" s="210"/>
+      <c r="K423" s="210"/>
+      <c r="L423" s="210"/>
+      <c r="M423" s="210"/>
+      <c r="N423" s="210"/>
+      <c r="O423" s="210"/>
+      <c r="P423" s="210"/>
+      <c r="Q423" s="210"/>
+      <c r="R423" s="210"/>
+      <c r="S423" s="210"/>
+      <c r="T423" s="210"/>
+      <c r="U423" s="210"/>
+      <c r="V423" s="210"/>
+      <c r="W423" s="210"/>
+      <c r="X423" s="210"/>
+      <c r="Y423" s="210"/>
+      <c r="Z423" s="210"/>
+      <c r="AA423" s="210"/>
+      <c r="AB423" s="210"/>
+      <c r="AC423" s="210"/>
+      <c r="AD423" s="210"/>
+      <c r="AE423" s="210"/>
+      <c r="AF423" s="210"/>
+      <c r="AG423" s="210"/>
+      <c r="AH423" s="210"/>
+      <c r="AI423" s="210"/>
+    </row>
+    <row r="424" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="206"/>
+      <c r="C424" s="210"/>
+      <c r="D424" s="210"/>
+      <c r="E424" s="210"/>
+      <c r="F424" s="210"/>
+      <c r="G424" s="210"/>
+      <c r="H424" s="210"/>
+      <c r="I424" s="210"/>
+      <c r="J424" s="210"/>
+      <c r="K424" s="210"/>
+      <c r="L424" s="210"/>
+      <c r="M424" s="210"/>
+      <c r="N424" s="210"/>
+      <c r="O424" s="210"/>
+      <c r="P424" s="210"/>
+      <c r="Q424" s="210"/>
+      <c r="R424" s="210"/>
+      <c r="S424" s="210"/>
+      <c r="T424" s="210"/>
+      <c r="U424" s="210"/>
+      <c r="V424" s="210"/>
+      <c r="W424" s="210"/>
+      <c r="X424" s="210"/>
+      <c r="Y424" s="210"/>
+      <c r="Z424" s="210"/>
+      <c r="AA424" s="210"/>
+      <c r="AB424" s="210"/>
+      <c r="AC424" s="210"/>
+      <c r="AD424" s="210"/>
+      <c r="AE424" s="210"/>
+      <c r="AF424" s="210"/>
+      <c r="AG424" s="210"/>
+      <c r="AH424" s="210"/>
+      <c r="AI424" s="210"/>
+    </row>
+    <row r="425" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="206"/>
+      <c r="C425" s="210"/>
+      <c r="D425" s="210"/>
+      <c r="E425" s="210"/>
+      <c r="F425" s="210"/>
+      <c r="G425" s="210"/>
+      <c r="H425" s="210"/>
+      <c r="I425" s="210"/>
+      <c r="J425" s="210"/>
+      <c r="K425" s="210"/>
+      <c r="L425" s="210"/>
+      <c r="M425" s="210"/>
+      <c r="N425" s="210"/>
+      <c r="O425" s="210"/>
+      <c r="P425" s="210"/>
+      <c r="Q425" s="210"/>
+      <c r="R425" s="210"/>
+      <c r="S425" s="210"/>
+      <c r="T425" s="210"/>
+      <c r="U425" s="210"/>
+      <c r="V425" s="210"/>
+      <c r="W425" s="210"/>
+      <c r="X425" s="210"/>
+      <c r="Y425" s="210"/>
+      <c r="Z425" s="210"/>
+      <c r="AA425" s="210"/>
+      <c r="AB425" s="210"/>
+      <c r="AC425" s="210"/>
+      <c r="AD425" s="210"/>
+      <c r="AE425" s="210"/>
+      <c r="AF425" s="210"/>
+      <c r="AG425" s="210"/>
+      <c r="AH425" s="210"/>
+      <c r="AI425" s="210"/>
+    </row>
+    <row r="426" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="206"/>
+      <c r="C426" s="210"/>
+      <c r="D426" s="210"/>
+      <c r="E426" s="210"/>
+      <c r="F426" s="210"/>
+      <c r="G426" s="210"/>
+      <c r="H426" s="210"/>
+      <c r="I426" s="210"/>
+      <c r="J426" s="210"/>
+      <c r="K426" s="210"/>
+      <c r="L426" s="210"/>
+      <c r="M426" s="210"/>
+      <c r="N426" s="210"/>
+      <c r="O426" s="210"/>
+      <c r="P426" s="210"/>
+      <c r="Q426" s="210"/>
+      <c r="R426" s="210"/>
+      <c r="S426" s="210"/>
+      <c r="T426" s="210"/>
+      <c r="U426" s="210"/>
+      <c r="V426" s="210"/>
+      <c r="W426" s="210"/>
+      <c r="X426" s="210"/>
+      <c r="Y426" s="210"/>
+      <c r="Z426" s="210"/>
+      <c r="AA426" s="210"/>
+      <c r="AB426" s="210"/>
+      <c r="AC426" s="210"/>
+      <c r="AD426" s="210"/>
+      <c r="AE426" s="210"/>
+      <c r="AF426" s="210"/>
+      <c r="AG426" s="210"/>
+      <c r="AH426" s="210"/>
+      <c r="AI426" s="210"/>
+    </row>
+    <row r="427" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B427" s="206"/>
+      <c r="C427" s="210"/>
+      <c r="D427" s="210"/>
+      <c r="E427" s="210"/>
+      <c r="F427" s="210"/>
+      <c r="G427" s="210"/>
+      <c r="H427" s="210"/>
+      <c r="I427" s="210"/>
+      <c r="J427" s="210"/>
+      <c r="K427" s="210"/>
+      <c r="L427" s="210"/>
+      <c r="M427" s="210"/>
+      <c r="N427" s="210"/>
+      <c r="O427" s="210"/>
+      <c r="P427" s="210"/>
+      <c r="Q427" s="210"/>
+      <c r="R427" s="210"/>
+      <c r="S427" s="210"/>
+      <c r="T427" s="210"/>
+      <c r="U427" s="210"/>
+      <c r="V427" s="210"/>
+      <c r="W427" s="210"/>
+      <c r="X427" s="210"/>
+      <c r="Y427" s="210"/>
+      <c r="Z427" s="210"/>
+      <c r="AA427" s="210"/>
+      <c r="AB427" s="210"/>
+      <c r="AC427" s="210"/>
+      <c r="AD427" s="210"/>
+      <c r="AE427" s="210"/>
+      <c r="AF427" s="210"/>
+      <c r="AG427" s="210"/>
+      <c r="AH427" s="210"/>
+      <c r="AI427" s="210"/>
+    </row>
+    <row r="428" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B428" s="206"/>
+      <c r="C428" s="210"/>
+      <c r="D428" s="210"/>
+      <c r="E428" s="210"/>
+      <c r="F428" s="210"/>
+      <c r="G428" s="210"/>
+      <c r="H428" s="210"/>
+      <c r="I428" s="210"/>
+      <c r="J428" s="210"/>
+      <c r="K428" s="210"/>
+      <c r="L428" s="210"/>
+      <c r="M428" s="210"/>
+      <c r="N428" s="210"/>
+      <c r="O428" s="210"/>
+      <c r="P428" s="210"/>
+      <c r="Q428" s="210"/>
+      <c r="R428" s="210"/>
+      <c r="S428" s="210"/>
+      <c r="T428" s="210"/>
+      <c r="U428" s="210"/>
+      <c r="V428" s="210"/>
+      <c r="W428" s="210"/>
+      <c r="X428" s="210"/>
+      <c r="Y428" s="210"/>
+      <c r="Z428" s="210"/>
+      <c r="AA428" s="210"/>
+      <c r="AB428" s="210"/>
+      <c r="AC428" s="210"/>
+      <c r="AD428" s="210"/>
+      <c r="AE428" s="210"/>
+      <c r="AF428" s="210"/>
+      <c r="AG428" s="210"/>
+      <c r="AH428" s="210"/>
+      <c r="AI428" s="210"/>
+    </row>
+    <row r="429" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B429" s="206"/>
+      <c r="C429" s="210"/>
+      <c r="D429" s="210"/>
+      <c r="E429" s="210"/>
+      <c r="F429" s="210"/>
+      <c r="G429" s="210"/>
+      <c r="H429" s="210"/>
+      <c r="I429" s="210"/>
+      <c r="J429" s="210"/>
+      <c r="K429" s="210"/>
+      <c r="L429" s="210"/>
+      <c r="M429" s="210"/>
+      <c r="N429" s="210"/>
+      <c r="O429" s="210"/>
+      <c r="P429" s="210"/>
+      <c r="Q429" s="210"/>
+      <c r="R429" s="210"/>
+      <c r="S429" s="210"/>
+      <c r="T429" s="210"/>
+      <c r="U429" s="210"/>
+      <c r="V429" s="210"/>
+      <c r="W429" s="210"/>
+      <c r="X429" s="210"/>
+      <c r="Y429" s="210"/>
+      <c r="Z429" s="210"/>
+      <c r="AA429" s="210"/>
+      <c r="AB429" s="210"/>
+      <c r="AC429" s="210"/>
+      <c r="AD429" s="210"/>
+      <c r="AE429" s="210"/>
+      <c r="AF429" s="210"/>
+      <c r="AG429" s="210"/>
+      <c r="AH429" s="210"/>
+      <c r="AI429" s="210"/>
+    </row>
+    <row r="430" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="206"/>
+      <c r="C430" s="210"/>
+      <c r="D430" s="210"/>
+      <c r="E430" s="210"/>
+      <c r="F430" s="210"/>
+      <c r="G430" s="210"/>
+      <c r="H430" s="210"/>
+      <c r="I430" s="210"/>
+      <c r="J430" s="210"/>
+      <c r="K430" s="210"/>
+      <c r="L430" s="210"/>
+      <c r="M430" s="210"/>
+      <c r="N430" s="210"/>
+      <c r="O430" s="210"/>
+      <c r="P430" s="210"/>
+      <c r="Q430" s="210"/>
+      <c r="R430" s="210"/>
+      <c r="S430" s="210"/>
+      <c r="T430" s="210"/>
+      <c r="U430" s="210"/>
+      <c r="V430" s="210"/>
+      <c r="W430" s="210"/>
+      <c r="X430" s="210"/>
+      <c r="Y430" s="210"/>
+      <c r="Z430" s="210"/>
+      <c r="AA430" s="210"/>
+      <c r="AB430" s="210"/>
+      <c r="AC430" s="210"/>
+      <c r="AD430" s="210"/>
+      <c r="AE430" s="210"/>
+      <c r="AF430" s="210"/>
+      <c r="AG430" s="210"/>
+      <c r="AH430" s="210"/>
+      <c r="AI430" s="210"/>
+    </row>
+    <row r="431" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="206"/>
+      <c r="C431" s="210"/>
+      <c r="D431" s="210"/>
+      <c r="E431" s="210"/>
+      <c r="F431" s="210"/>
+      <c r="G431" s="210"/>
+      <c r="H431" s="210"/>
+      <c r="I431" s="210"/>
+      <c r="J431" s="210"/>
+      <c r="K431" s="210"/>
+      <c r="L431" s="210"/>
+      <c r="M431" s="210"/>
+      <c r="N431" s="210"/>
+      <c r="O431" s="210"/>
+      <c r="P431" s="210"/>
+      <c r="Q431" s="210"/>
+      <c r="R431" s="210"/>
+      <c r="S431" s="210"/>
+      <c r="T431" s="210"/>
+      <c r="U431" s="210"/>
+      <c r="V431" s="210"/>
+      <c r="W431" s="210"/>
+      <c r="X431" s="210"/>
+      <c r="Y431" s="210"/>
+      <c r="Z431" s="210"/>
+      <c r="AA431" s="210"/>
+      <c r="AB431" s="210"/>
+      <c r="AC431" s="210"/>
+      <c r="AD431" s="210"/>
+      <c r="AE431" s="210"/>
+      <c r="AF431" s="210"/>
+      <c r="AG431" s="210"/>
+      <c r="AH431" s="210"/>
+      <c r="AI431" s="210"/>
+    </row>
+    <row r="432" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="206"/>
+      <c r="C432" s="210"/>
+      <c r="D432" s="210"/>
+      <c r="E432" s="210"/>
+      <c r="F432" s="210"/>
+      <c r="G432" s="210"/>
+      <c r="H432" s="210"/>
+      <c r="I432" s="210"/>
+      <c r="J432" s="210"/>
+      <c r="K432" s="210"/>
+      <c r="L432" s="210"/>
+      <c r="M432" s="210"/>
+      <c r="N432" s="210"/>
+      <c r="O432" s="210"/>
+      <c r="P432" s="210"/>
+      <c r="Q432" s="210"/>
+      <c r="R432" s="210"/>
+      <c r="S432" s="210"/>
+      <c r="T432" s="210"/>
+      <c r="U432" s="210"/>
+      <c r="V432" s="210"/>
+      <c r="W432" s="210"/>
+      <c r="X432" s="210"/>
+      <c r="Y432" s="210"/>
+      <c r="Z432" s="210"/>
+      <c r="AA432" s="210"/>
+      <c r="AB432" s="210"/>
+      <c r="AC432" s="210"/>
+      <c r="AD432" s="210"/>
+      <c r="AE432" s="210"/>
+      <c r="AF432" s="210"/>
+      <c r="AG432" s="210"/>
+      <c r="AH432" s="210"/>
+      <c r="AI432" s="210"/>
+    </row>
+    <row r="433" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B433" s="206"/>
+      <c r="C433" s="210"/>
+      <c r="D433" s="210"/>
+      <c r="E433" s="210"/>
+      <c r="F433" s="210"/>
+      <c r="G433" s="210"/>
+      <c r="H433" s="210"/>
+      <c r="I433" s="210"/>
+      <c r="J433" s="210"/>
+      <c r="K433" s="210"/>
+      <c r="L433" s="210"/>
+      <c r="M433" s="210"/>
+      <c r="N433" s="210"/>
+      <c r="O433" s="210"/>
+      <c r="P433" s="210"/>
+      <c r="Q433" s="210"/>
+      <c r="R433" s="210"/>
+      <c r="S433" s="210"/>
+      <c r="T433" s="210"/>
+      <c r="U433" s="210"/>
+      <c r="V433" s="210"/>
+      <c r="W433" s="210"/>
+      <c r="X433" s="210"/>
+      <c r="Y433" s="210"/>
+      <c r="Z433" s="210"/>
+      <c r="AA433" s="210"/>
+      <c r="AB433" s="210"/>
+      <c r="AC433" s="210"/>
+      <c r="AD433" s="210"/>
+      <c r="AE433" s="210"/>
+      <c r="AF433" s="210"/>
+      <c r="AG433" s="210"/>
+      <c r="AH433" s="210"/>
+      <c r="AI433" s="210"/>
+    </row>
+    <row r="434" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="206"/>
+      <c r="C434" s="210"/>
+      <c r="D434" s="210"/>
+      <c r="E434" s="210"/>
+      <c r="F434" s="210"/>
+      <c r="G434" s="210"/>
+      <c r="H434" s="210"/>
+      <c r="I434" s="210"/>
+      <c r="J434" s="210"/>
+      <c r="K434" s="210"/>
+      <c r="L434" s="210"/>
+      <c r="M434" s="210"/>
+      <c r="N434" s="210"/>
+      <c r="O434" s="210"/>
+      <c r="P434" s="210"/>
+      <c r="Q434" s="210"/>
+      <c r="R434" s="210"/>
+      <c r="S434" s="210"/>
+      <c r="T434" s="210"/>
+      <c r="U434" s="210"/>
+      <c r="V434" s="210"/>
+      <c r="W434" s="210"/>
+      <c r="X434" s="210"/>
+      <c r="Y434" s="210"/>
+      <c r="Z434" s="210"/>
+      <c r="AA434" s="210"/>
+      <c r="AB434" s="210"/>
+      <c r="AC434" s="210"/>
+      <c r="AD434" s="210"/>
+      <c r="AE434" s="210"/>
+      <c r="AF434" s="210"/>
+      <c r="AG434" s="210"/>
+      <c r="AH434" s="210"/>
+      <c r="AI434" s="210"/>
+    </row>
+    <row r="435" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B435" s="206"/>
+      <c r="C435" s="210"/>
+      <c r="D435" s="210"/>
+      <c r="E435" s="210"/>
+      <c r="F435" s="210"/>
+      <c r="G435" s="210"/>
+      <c r="H435" s="210"/>
+      <c r="I435" s="210"/>
+      <c r="J435" s="210"/>
+      <c r="K435" s="210"/>
+      <c r="L435" s="210"/>
+      <c r="M435" s="210"/>
+      <c r="N435" s="210"/>
+      <c r="O435" s="210"/>
+      <c r="P435" s="210"/>
+      <c r="Q435" s="210"/>
+      <c r="R435" s="210"/>
+      <c r="S435" s="210"/>
+      <c r="T435" s="210"/>
+      <c r="U435" s="210"/>
+      <c r="V435" s="210"/>
+      <c r="W435" s="210"/>
+      <c r="X435" s="210"/>
+      <c r="Y435" s="210"/>
+      <c r="Z435" s="210"/>
+      <c r="AA435" s="210"/>
+      <c r="AB435" s="210"/>
+      <c r="AC435" s="210"/>
+      <c r="AD435" s="210"/>
+      <c r="AE435" s="210"/>
+      <c r="AF435" s="210"/>
+      <c r="AG435" s="210"/>
+      <c r="AH435" s="210"/>
+      <c r="AI435" s="210"/>
+    </row>
+    <row r="436" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="206"/>
+      <c r="C436" s="210"/>
+      <c r="D436" s="210"/>
+      <c r="E436" s="210"/>
+      <c r="F436" s="210"/>
+      <c r="G436" s="210"/>
+      <c r="H436" s="210"/>
+      <c r="I436" s="210"/>
+      <c r="J436" s="210"/>
+      <c r="K436" s="210"/>
+      <c r="L436" s="210"/>
+      <c r="M436" s="210"/>
+      <c r="N436" s="210"/>
+      <c r="O436" s="210"/>
+      <c r="P436" s="210"/>
+      <c r="Q436" s="210"/>
+      <c r="R436" s="210"/>
+      <c r="S436" s="210"/>
+      <c r="T436" s="210"/>
+      <c r="U436" s="210"/>
+      <c r="V436" s="210"/>
+      <c r="W436" s="210"/>
+      <c r="X436" s="210"/>
+      <c r="Y436" s="210"/>
+      <c r="Z436" s="210"/>
+      <c r="AA436" s="210"/>
+      <c r="AB436" s="210"/>
+      <c r="AC436" s="210"/>
+      <c r="AD436" s="210"/>
+      <c r="AE436" s="210"/>
+      <c r="AF436" s="210"/>
+      <c r="AG436" s="210"/>
+      <c r="AH436" s="210"/>
+      <c r="AI436" s="210"/>
+    </row>
+    <row r="437" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B437" s="206"/>
+      <c r="C437" s="210"/>
+      <c r="D437" s="210"/>
+      <c r="E437" s="210"/>
+      <c r="F437" s="210"/>
+      <c r="G437" s="210"/>
+      <c r="H437" s="210"/>
+      <c r="I437" s="210"/>
+      <c r="J437" s="210"/>
+      <c r="K437" s="210"/>
+      <c r="L437" s="210"/>
+      <c r="M437" s="210"/>
+      <c r="N437" s="210"/>
+      <c r="O437" s="210"/>
+      <c r="P437" s="210"/>
+      <c r="Q437" s="210"/>
+      <c r="R437" s="210"/>
+      <c r="S437" s="210"/>
+      <c r="T437" s="210"/>
+      <c r="U437" s="210"/>
+      <c r="V437" s="210"/>
+      <c r="W437" s="210"/>
+      <c r="X437" s="210"/>
+      <c r="Y437" s="210"/>
+      <c r="Z437" s="210"/>
+      <c r="AA437" s="210"/>
+      <c r="AB437" s="210"/>
+      <c r="AC437" s="210"/>
+      <c r="AD437" s="210"/>
+      <c r="AE437" s="210"/>
+      <c r="AF437" s="210"/>
+      <c r="AG437" s="210"/>
+      <c r="AH437" s="210"/>
+      <c r="AI437" s="210"/>
+    </row>
+    <row r="438" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="206"/>
+      <c r="C438" s="210"/>
+      <c r="D438" s="210"/>
+      <c r="E438" s="210"/>
+      <c r="F438" s="210"/>
+      <c r="G438" s="210"/>
+      <c r="H438" s="210"/>
+      <c r="I438" s="210"/>
+      <c r="J438" s="210"/>
+      <c r="K438" s="210"/>
+      <c r="L438" s="210"/>
+      <c r="M438" s="210"/>
+      <c r="N438" s="210"/>
+      <c r="O438" s="210"/>
+      <c r="P438" s="210"/>
+      <c r="Q438" s="210"/>
+      <c r="R438" s="210"/>
+      <c r="S438" s="210"/>
+      <c r="T438" s="210"/>
+      <c r="U438" s="210"/>
+      <c r="V438" s="210"/>
+      <c r="W438" s="210"/>
+      <c r="X438" s="210"/>
+      <c r="Y438" s="210"/>
+      <c r="Z438" s="210"/>
+      <c r="AA438" s="210"/>
+      <c r="AB438" s="210"/>
+      <c r="AC438" s="210"/>
+      <c r="AD438" s="210"/>
+      <c r="AE438" s="210"/>
+      <c r="AF438" s="210"/>
+      <c r="AG438" s="210"/>
+      <c r="AH438" s="210"/>
+      <c r="AI438" s="210"/>
+    </row>
+    <row r="439" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B439" s="206"/>
+      <c r="C439" s="210"/>
+      <c r="D439" s="210"/>
+      <c r="E439" s="210"/>
+      <c r="F439" s="210"/>
+      <c r="G439" s="210"/>
+      <c r="H439" s="210"/>
+      <c r="I439" s="210"/>
+      <c r="J439" s="210"/>
+      <c r="K439" s="210"/>
+      <c r="L439" s="210"/>
+      <c r="M439" s="210"/>
+      <c r="N439" s="210"/>
+      <c r="O439" s="210"/>
+      <c r="P439" s="210"/>
+      <c r="Q439" s="210"/>
+      <c r="R439" s="210"/>
+      <c r="S439" s="210"/>
+      <c r="T439" s="210"/>
+      <c r="U439" s="210"/>
+      <c r="V439" s="210"/>
+      <c r="W439" s="210"/>
+      <c r="X439" s="210"/>
+      <c r="Y439" s="210"/>
+      <c r="Z439" s="210"/>
+      <c r="AA439" s="210"/>
+      <c r="AB439" s="210"/>
+      <c r="AC439" s="210"/>
+      <c r="AD439" s="210"/>
+      <c r="AE439" s="210"/>
+      <c r="AF439" s="210"/>
+      <c r="AG439" s="210"/>
+      <c r="AH439" s="210"/>
+      <c r="AI439" s="210"/>
+    </row>
+    <row r="440" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="206"/>
+      <c r="C440" s="210"/>
+      <c r="D440" s="210"/>
+      <c r="E440" s="210"/>
+      <c r="F440" s="210"/>
+      <c r="G440" s="210"/>
+      <c r="H440" s="210"/>
+      <c r="I440" s="210"/>
+      <c r="J440" s="210"/>
+      <c r="K440" s="210"/>
+      <c r="L440" s="210"/>
+      <c r="M440" s="210"/>
+      <c r="N440" s="210"/>
+      <c r="O440" s="210"/>
+      <c r="P440" s="210"/>
+      <c r="Q440" s="210"/>
+      <c r="R440" s="210"/>
+      <c r="S440" s="210"/>
+      <c r="T440" s="210"/>
+      <c r="U440" s="210"/>
+      <c r="V440" s="210"/>
+      <c r="W440" s="210"/>
+      <c r="X440" s="210"/>
+      <c r="Y440" s="210"/>
+      <c r="Z440" s="210"/>
+      <c r="AA440" s="210"/>
+      <c r="AB440" s="210"/>
+      <c r="AC440" s="210"/>
+      <c r="AD440" s="210"/>
+      <c r="AE440" s="210"/>
+      <c r="AF440" s="210"/>
+      <c r="AG440" s="210"/>
+      <c r="AH440" s="210"/>
+      <c r="AI440" s="210"/>
+    </row>
+    <row r="441" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B441" s="206"/>
+      <c r="C441" s="210"/>
+      <c r="D441" s="210"/>
+      <c r="E441" s="210"/>
+      <c r="F441" s="210"/>
+      <c r="G441" s="210"/>
+      <c r="H441" s="210"/>
+      <c r="I441" s="210"/>
+      <c r="J441" s="210"/>
+      <c r="K441" s="210"/>
+      <c r="L441" s="210"/>
+      <c r="M441" s="210"/>
+      <c r="N441" s="210"/>
+      <c r="O441" s="210"/>
+      <c r="P441" s="210"/>
+      <c r="Q441" s="210"/>
+      <c r="R441" s="210"/>
+      <c r="S441" s="210"/>
+      <c r="T441" s="210"/>
+      <c r="U441" s="210"/>
+      <c r="V441" s="210"/>
+      <c r="W441" s="210"/>
+      <c r="X441" s="210"/>
+      <c r="Y441" s="210"/>
+      <c r="Z441" s="210"/>
+      <c r="AA441" s="210"/>
+      <c r="AB441" s="210"/>
+      <c r="AC441" s="210"/>
+      <c r="AD441" s="210"/>
+      <c r="AE441" s="210"/>
+      <c r="AF441" s="210"/>
+      <c r="AG441" s="210"/>
+      <c r="AH441" s="210"/>
+      <c r="AI441" s="210"/>
+    </row>
+    <row r="442" spans="2:35" s="197" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B442" s="206"/>
+      <c r="C442" s="210"/>
+      <c r="D442" s="210"/>
+      <c r="E442" s="210"/>
+      <c r="F442" s="210"/>
+      <c r="G442" s="210"/>
+      <c r="H442" s="210"/>
+      <c r="I442" s="210"/>
+      <c r="J442" s="210"/>
+      <c r="K442" s="210"/>
+      <c r="L442" s="210"/>
+      <c r="M442" s="210"/>
+      <c r="N442" s="210"/>
+      <c r="O442" s="210"/>
+      <c r="P442" s="210"/>
+      <c r="Q442" s="210"/>
+      <c r="R442" s="210"/>
+      <c r="S442" s="210"/>
+      <c r="T442" s="210"/>
+      <c r="U442" s="210"/>
+      <c r="V442" s="210"/>
+      <c r="W442" s="210"/>
+      <c r="X442" s="210"/>
+      <c r="Y442" s="210"/>
+      <c r="Z442" s="210"/>
+      <c r="AA442" s="210"/>
+      <c r="AB442" s="210"/>
+      <c r="AC442" s="210"/>
+      <c r="AD442" s="210"/>
+      <c r="AE442" s="210"/>
+      <c r="AF442" s="210"/>
+      <c r="AG442" s="210"/>
+      <c r="AH442" s="210"/>
+      <c r="AI442" s="210"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J386" r:id="rId1"/>
+    <hyperlink ref="J386" r:id="rId1" display="http://www.apxendex.com/index.php?id=315"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="222" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+    </row>
+    <row r="2" spans="2:9" s="222" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="213" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+    </row>
+    <row r="3" spans="2:9" s="222" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+    </row>
+    <row r="4" spans="2:9" s="222" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="219"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+    </row>
+    <row r="5" spans="2:9" s="222" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="223"/>
+    </row>
+    <row r="6" spans="2:9" s="222" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="227"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="228"/>
+    </row>
+    <row r="7" spans="2:9" s="43" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="89"/>
+      <c r="C7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="2:9" s="43" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="229" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="230">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="229" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="231">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="232" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>